--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="352">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1068,6 +1068,9 @@
   <si>
     <t>['68', '71', '80', '90+1']</t>
   </si>
+  <si>
+    <t>['66', '90']</t>
+  </si>
 </sst>
 </file>
 
@@ -1428,7 +1431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP309"/>
+  <dimension ref="A1:BP310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3416,7 +3419,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3622,7 +3625,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -6503,7 +6506,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ25">
         <v>1.23</v>
@@ -7121,7 +7124,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ28">
         <v>1.18</v>
@@ -7742,7 +7745,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ31">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -10211,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ43">
         <v>1.41</v>
@@ -11859,7 +11862,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -14746,7 +14749,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ65">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR65">
         <v>1.55</v>
@@ -15364,7 +15367,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ68">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -17215,7 +17218,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ77">
         <v>1.82</v>
@@ -17421,7 +17424,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ78">
         <v>1.27</v>
@@ -19072,7 +19075,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -19896,7 +19899,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -21541,7 +21544,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>0.95</v>
@@ -22365,7 +22368,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ102">
         <v>1.64</v>
@@ -25458,7 +25461,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR117">
         <v>1.13</v>
@@ -25664,7 +25667,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ118">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR118">
         <v>1.2</v>
@@ -28339,7 +28342,7 @@
         <v>1.11</v>
       </c>
       <c r="AP131">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ131">
         <v>1.32</v>
@@ -28545,7 +28548,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -30608,7 +30611,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ142">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -31844,7 +31847,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ148">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR148">
         <v>1.18</v>
@@ -34313,7 +34316,7 @@
         <v>1.82</v>
       </c>
       <c r="AP160">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ160">
         <v>1.64</v>
@@ -34725,7 +34728,7 @@
         <v>1.27</v>
       </c>
       <c r="AP162">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ162">
         <v>1.36</v>
@@ -37818,7 +37821,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ177">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR177">
         <v>1.31</v>
@@ -38230,7 +38233,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR179">
         <v>1.48</v>
@@ -39875,7 +39878,7 @@
         <v>2.08</v>
       </c>
       <c r="AP187">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ187">
         <v>1.95</v>
@@ -40081,7 +40084,7 @@
         <v>1.62</v>
       </c>
       <c r="AP188">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ188">
         <v>1.41</v>
@@ -42968,7 +42971,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ202">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR202">
         <v>1.28</v>
@@ -43586,7 +43589,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ205">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -45231,7 +45234,7 @@
         <v>1.13</v>
       </c>
       <c r="AP213">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ213">
         <v>1</v>
@@ -46879,7 +46882,7 @@
         <v>1.27</v>
       </c>
       <c r="AP221">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ221">
         <v>1.36</v>
@@ -48118,7 +48121,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ227">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR227">
         <v>1.33</v>
@@ -48736,7 +48739,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ230">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR230">
         <v>1.3</v>
@@ -50590,7 +50593,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ239">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR239">
         <v>1.23</v>
@@ -51823,7 +51826,7 @@
         <v>0.88</v>
       </c>
       <c r="AP245">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ245">
         <v>1.14</v>
@@ -53471,7 +53474,7 @@
         <v>0.71</v>
       </c>
       <c r="AP253">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ253">
         <v>0.73</v>
@@ -54916,7 +54919,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ260">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR260">
         <v>1.12</v>
@@ -55328,7 +55331,7 @@
         <v>1</v>
       </c>
       <c r="AQ262">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR262">
         <v>1.27</v>
@@ -57388,7 +57391,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ272">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR272">
         <v>1.28</v>
@@ -59033,7 +59036,7 @@
         <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ280">
         <v>1.32</v>
@@ -59857,7 +59860,7 @@
         <v>1.4</v>
       </c>
       <c r="AP284">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ284">
         <v>1.36</v>
@@ -60684,7 +60687,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ288">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AR288">
         <v>1.15</v>
@@ -62744,7 +62747,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ298">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR298">
         <v>1.25</v>
@@ -63771,7 +63774,7 @@
         <v>1.19</v>
       </c>
       <c r="AP303">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AQ303">
         <v>1.14</v>
@@ -65086,6 +65089,212 @@
       </c>
       <c r="BP309">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:68">
+      <c r="A310" s="1">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>7345424</v>
+      </c>
+      <c r="C310" t="s">
+        <v>68</v>
+      </c>
+      <c r="D310" t="s">
+        <v>69</v>
+      </c>
+      <c r="E310" s="2">
+        <v>45613.72916666666</v>
+      </c>
+      <c r="F310">
+        <v>23</v>
+      </c>
+      <c r="G310" t="s">
+        <v>92</v>
+      </c>
+      <c r="H310" t="s">
+        <v>95</v>
+      </c>
+      <c r="I310">
+        <v>1</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>1</v>
+      </c>
+      <c r="L310">
+        <v>1</v>
+      </c>
+      <c r="M310">
+        <v>2</v>
+      </c>
+      <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310" t="s">
+        <v>205</v>
+      </c>
+      <c r="P310" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q310">
+        <v>3.75</v>
+      </c>
+      <c r="R310">
+        <v>1.8</v>
+      </c>
+      <c r="S310">
+        <v>4</v>
+      </c>
+      <c r="T310">
+        <v>1.62</v>
+      </c>
+      <c r="U310">
+        <v>2.2</v>
+      </c>
+      <c r="V310">
+        <v>4</v>
+      </c>
+      <c r="W310">
+        <v>1.22</v>
+      </c>
+      <c r="X310">
+        <v>13</v>
+      </c>
+      <c r="Y310">
+        <v>1.04</v>
+      </c>
+      <c r="Z310">
+        <v>2.8</v>
+      </c>
+      <c r="AA310">
+        <v>2.8</v>
+      </c>
+      <c r="AB310">
+        <v>2.9</v>
+      </c>
+      <c r="AC310">
+        <v>1.11</v>
+      </c>
+      <c r="AD310">
+        <v>6.25</v>
+      </c>
+      <c r="AE310">
+        <v>1.54</v>
+      </c>
+      <c r="AF310">
+        <v>2.39</v>
+      </c>
+      <c r="AG310">
+        <v>3.4</v>
+      </c>
+      <c r="AH310">
+        <v>1.33</v>
+      </c>
+      <c r="AI310">
+        <v>2.5</v>
+      </c>
+      <c r="AJ310">
+        <v>1.5</v>
+      </c>
+      <c r="AK310">
+        <v>1.33</v>
+      </c>
+      <c r="AL310">
+        <v>1.33</v>
+      </c>
+      <c r="AM310">
+        <v>1.53</v>
+      </c>
+      <c r="AN310">
+        <v>1.27</v>
+      </c>
+      <c r="AO310">
+        <v>1.68</v>
+      </c>
+      <c r="AP310">
+        <v>1.22</v>
+      </c>
+      <c r="AQ310">
+        <v>1.74</v>
+      </c>
+      <c r="AR310">
+        <v>1.26</v>
+      </c>
+      <c r="AS310">
+        <v>1.52</v>
+      </c>
+      <c r="AT310">
+        <v>2.78</v>
+      </c>
+      <c r="AU310">
+        <v>3</v>
+      </c>
+      <c r="AV310">
+        <v>5</v>
+      </c>
+      <c r="AW310">
+        <v>6</v>
+      </c>
+      <c r="AX310">
+        <v>5</v>
+      </c>
+      <c r="AY310">
+        <v>14</v>
+      </c>
+      <c r="AZ310">
+        <v>15</v>
+      </c>
+      <c r="BA310">
+        <v>1</v>
+      </c>
+      <c r="BB310">
+        <v>3</v>
+      </c>
+      <c r="BC310">
+        <v>4</v>
+      </c>
+      <c r="BD310">
+        <v>2.12</v>
+      </c>
+      <c r="BE310">
+        <v>6.4</v>
+      </c>
+      <c r="BF310">
+        <v>2.12</v>
+      </c>
+      <c r="BG310">
+        <v>1.38</v>
+      </c>
+      <c r="BH310">
+        <v>2.88</v>
+      </c>
+      <c r="BI310">
+        <v>1.67</v>
+      </c>
+      <c r="BJ310">
+        <v>2.13</v>
+      </c>
+      <c r="BK310">
+        <v>2.1</v>
+      </c>
+      <c r="BL310">
+        <v>1.68</v>
+      </c>
+      <c r="BM310">
+        <v>2.77</v>
+      </c>
+      <c r="BN310">
+        <v>1.41</v>
+      </c>
+      <c r="BO310">
+        <v>3.78</v>
+      </c>
+      <c r="BP310">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -823,6 +823,15 @@
     <t>['4', '36', '78']</t>
   </si>
   <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['13', '21', '89', '90+3']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -970,9 +979,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['22', '78']</t>
   </si>
   <si>
@@ -1070,6 +1076,9 @@
   </si>
   <si>
     <t>['66', '90']</t>
+  </si>
+  <si>
+    <t>['33', '74']</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP310"/>
+  <dimension ref="A1:BP315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1690,7 +1699,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1771,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1896,7 +1905,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1974,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -2183,7 +2192,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ4">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2386,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2514,7 +2523,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2592,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6">
         <v>0.73</v>
@@ -2720,7 +2729,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3210,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ9">
         <v>1.36</v>
@@ -3416,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ10">
         <v>1.22</v>
@@ -3544,7 +3553,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3750,7 +3759,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4034,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13">
         <v>1.41</v>
@@ -4449,7 +4458,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4655,7 +4664,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -4986,7 +4995,7 @@
         <v>111</v>
       </c>
       <c r="P18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -5064,7 +5073,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ18">
         <v>1.32</v>
@@ -5192,7 +5201,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5270,7 +5279,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ19">
         <v>1.64</v>
@@ -5682,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5891,7 +5900,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6016,7 +6025,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6094,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ23">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR23">
         <v>0.71</v>
@@ -6222,7 +6231,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6428,7 +6437,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6715,7 +6724,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ26">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6840,7 +6849,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6921,7 +6930,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ27">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -7127,7 +7136,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ28">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7458,7 +7467,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7536,7 +7545,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7664,7 +7673,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7742,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ31">
         <v>1.74</v>
@@ -7870,7 +7879,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8360,7 +8369,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ34">
         <v>1.64</v>
@@ -8569,7 +8578,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -8978,10 +8987,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ37">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -9393,7 +9402,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10008,10 +10017,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -10217,7 +10226,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ43">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -10423,7 +10432,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10629,7 +10638,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ45">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10832,7 +10841,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46">
         <v>1.41</v>
@@ -11166,7 +11175,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11450,7 +11459,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ49">
         <v>1.32</v>
@@ -11659,7 +11668,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR50">
         <v>2.19</v>
@@ -12071,7 +12080,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ52">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12274,7 +12283,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>1.36</v>
@@ -12402,7 +12411,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12483,7 +12492,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ54">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12892,7 +12901,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ56">
         <v>0.95</v>
@@ -13098,7 +13107,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -13304,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ58">
         <v>1.14</v>
@@ -13432,7 +13441,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13513,7 +13522,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13638,7 +13647,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13922,7 +13931,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ61">
         <v>1.64</v>
@@ -14128,7 +14137,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -14462,7 +14471,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14543,7 +14552,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ64">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -15161,7 +15170,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -15570,7 +15579,7 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ69">
         <v>1.14</v>
@@ -15776,10 +15785,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15904,7 +15913,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -15982,10 +15991,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16394,7 +16403,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ73">
         <v>1.36</v>
@@ -16522,7 +16531,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16728,7 +16737,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16809,7 +16818,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16934,7 +16943,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17140,7 +17149,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17221,7 +17230,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ77">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17427,7 +17436,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17552,7 +17561,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17630,10 +17639,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17758,7 +17767,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18170,7 +18179,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18251,7 +18260,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18582,7 +18591,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -18660,7 +18669,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ84">
         <v>1.41</v>
@@ -18866,10 +18875,10 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ85">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19693,7 +19702,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20024,7 +20033,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20102,7 +20111,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ91">
         <v>1.64</v>
@@ -20308,7 +20317,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ92">
         <v>1.36</v>
@@ -20436,7 +20445,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20514,7 +20523,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ93">
         <v>1.95</v>
@@ -20642,7 +20651,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20926,10 +20935,10 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -21132,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ96">
         <v>1.14</v>
@@ -21753,7 +21762,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ99">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -21956,7 +21965,7 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ100">
         <v>1.64</v>
@@ -22290,7 +22299,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22780,7 +22789,7 @@
         <v>1.33</v>
       </c>
       <c r="AP104">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ104">
         <v>1.41</v>
@@ -22908,7 +22917,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -22989,7 +22998,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -23114,7 +23123,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23192,10 +23201,10 @@
         <v>1.14</v>
       </c>
       <c r="AP106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23320,7 +23329,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23398,10 +23407,10 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ107">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23526,7 +23535,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23810,7 +23819,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ109">
         <v>1.23</v>
@@ -24019,7 +24028,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
         <v>1.26</v>
@@ -24431,7 +24440,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR112">
         <v>1.1</v>
@@ -24556,7 +24565,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24843,7 +24852,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ114">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR114">
         <v>1.13</v>
@@ -25046,10 +25055,10 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ115">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>1.24</v>
@@ -25174,7 +25183,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25255,7 +25264,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ116">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25664,7 +25673,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ118">
         <v>1.74</v>
@@ -26410,7 +26419,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26491,7 +26500,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ122">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26616,7 +26625,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26694,7 +26703,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ123">
         <v>1.14</v>
@@ -26900,7 +26909,7 @@
         <v>0.13</v>
       </c>
       <c r="AP124">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ124">
         <v>1.14</v>
@@ -27312,10 +27321,10 @@
         <v>0.75</v>
       </c>
       <c r="AP126">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ126">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR126">
         <v>1.25</v>
@@ -27518,7 +27527,7 @@
         <v>1.22</v>
       </c>
       <c r="AP127">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27724,7 +27733,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ128">
         <v>1.23</v>
@@ -27852,7 +27861,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28058,7 +28067,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28264,7 +28273,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28551,7 +28560,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -29169,7 +29178,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ135">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR135">
         <v>1.88</v>
@@ -29372,10 +29381,10 @@
         <v>1.22</v>
       </c>
       <c r="AP136">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29581,7 +29590,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ137">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.11</v>
@@ -29706,7 +29715,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29784,7 +29793,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ138">
         <v>1.95</v>
@@ -29912,7 +29921,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30118,7 +30127,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30196,10 +30205,10 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ140">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30402,7 +30411,7 @@
         <v>0.7</v>
       </c>
       <c r="AP141">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ141">
         <v>0.73</v>
@@ -31148,7 +31157,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31435,7 +31444,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ146">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31766,7 +31775,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -32050,7 +32059,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ149">
         <v>1.36</v>
@@ -32259,7 +32268,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR150">
         <v>1.11</v>
@@ -32462,7 +32471,7 @@
         <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ151">
         <v>1.36</v>
@@ -32671,7 +32680,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ152">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32796,7 +32805,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32874,10 +32883,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ153">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR153">
         <v>1.22</v>
@@ -33080,10 +33089,10 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ154">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -33208,7 +33217,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33289,7 +33298,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ155">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33414,7 +33423,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33492,7 +33501,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33698,10 +33707,10 @@
         <v>2.09</v>
       </c>
       <c r="AP157">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ157">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR157">
         <v>1.57</v>
@@ -33904,10 +33913,10 @@
         <v>0.73</v>
       </c>
       <c r="AP158">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ158">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -34032,7 +34041,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34110,7 +34119,7 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ159">
         <v>1.64</v>
@@ -34525,7 +34534,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ161">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -35143,7 +35152,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR164">
         <v>1.15</v>
@@ -35268,7 +35277,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35555,7 +35564,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35680,7 +35689,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36379,7 +36388,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ170">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR170">
         <v>1.37</v>
@@ -36582,7 +36591,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ171">
         <v>0.73</v>
@@ -37328,7 +37337,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37534,7 +37543,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37612,10 +37621,10 @@
         <v>1.08</v>
       </c>
       <c r="AP176">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ176">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR176">
         <v>1.25</v>
@@ -37740,7 +37749,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37818,7 +37827,7 @@
         <v>0.91</v>
       </c>
       <c r="AP177">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ177">
         <v>1.22</v>
@@ -38230,7 +38239,7 @@
         <v>1.75</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ179">
         <v>1.74</v>
@@ -38358,7 +38367,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38436,10 +38445,10 @@
         <v>1.75</v>
       </c>
       <c r="AP180">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ180">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR180">
         <v>1.24</v>
@@ -38645,7 +38654,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ181">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38770,7 +38779,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -38848,7 +38857,7 @@
         <v>0.5</v>
       </c>
       <c r="AP182">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ182">
         <v>1.14</v>
@@ -39054,10 +39063,10 @@
         <v>1.85</v>
       </c>
       <c r="AP183">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ183">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39263,7 +39272,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ184">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR184">
         <v>1.15</v>
@@ -39388,7 +39397,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39594,7 +39603,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39675,7 +39684,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR186">
         <v>1.65</v>
@@ -40212,7 +40221,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40496,7 +40505,7 @@
         <v>1.54</v>
       </c>
       <c r="AP190">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ190">
         <v>1.32</v>
@@ -40705,7 +40714,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ191">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR191">
         <v>1.53</v>
@@ -40830,7 +40839,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -40908,7 +40917,7 @@
         <v>1.08</v>
       </c>
       <c r="AP192">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41036,7 +41045,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41320,7 +41329,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ194">
         <v>0.95</v>
@@ -41448,7 +41457,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41529,7 +41538,7 @@
         <v>0.73</v>
       </c>
       <c r="AQ195">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR195">
         <v>1.18</v>
@@ -41735,7 +41744,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ196">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR196">
         <v>1.08</v>
@@ -41941,7 +41950,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ197">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR197">
         <v>1.52</v>
@@ -42147,7 +42156,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ198">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR198">
         <v>1.44</v>
@@ -42556,7 +42565,7 @@
         <v>0.57</v>
       </c>
       <c r="AP200">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ200">
         <v>0.73</v>
@@ -42765,7 +42774,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ201">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -42968,7 +42977,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ202">
         <v>1.22</v>
@@ -43177,7 +43186,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ203">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43380,7 +43389,7 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ204">
         <v>1.23</v>
@@ -43714,7 +43723,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -43792,7 +43801,7 @@
         <v>1.29</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ206">
         <v>1.36</v>
@@ -43998,7 +44007,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ207">
         <v>1.14</v>
@@ -44126,7 +44135,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44616,7 +44625,7 @@
         <v>1.29</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ210">
         <v>1.14</v>
@@ -44744,7 +44753,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -44822,7 +44831,7 @@
         <v>1.07</v>
       </c>
       <c r="AP211">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ211">
         <v>0.95</v>
@@ -44950,7 +44959,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45031,7 +45040,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ212">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR212">
         <v>1.08</v>
@@ -45237,7 +45246,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ213">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45443,7 +45452,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ214">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45568,7 +45577,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -45646,10 +45655,10 @@
         <v>1.8</v>
       </c>
       <c r="AP215">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ215">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR215">
         <v>1.24</v>
@@ -45980,7 +45989,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46186,7 +46195,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46676,10 +46685,10 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR220">
         <v>1.45</v>
@@ -46804,7 +46813,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -46885,7 +46894,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ221">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR221">
         <v>1.56</v>
@@ -47294,7 +47303,7 @@
         <v>1.2</v>
       </c>
       <c r="AP223">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ223">
         <v>1.36</v>
@@ -47628,7 +47637,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47834,7 +47843,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -47912,7 +47921,7 @@
         <v>1.13</v>
       </c>
       <c r="AP226">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -48246,7 +48255,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48327,7 +48336,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ228">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR228">
         <v>1.48</v>
@@ -48452,7 +48461,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q229">
         <v>3.4</v>
@@ -48736,7 +48745,7 @@
         <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ230">
         <v>1.22</v>
@@ -48945,7 +48954,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ231">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR231">
         <v>1.1</v>
@@ -49354,7 +49363,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ233">
         <v>1.64</v>
@@ -49563,7 +49572,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ234">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49688,7 +49697,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49894,7 +49903,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -49972,7 +49981,7 @@
         <v>1.25</v>
       </c>
       <c r="AP236">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ236">
         <v>1.36</v>
@@ -50178,7 +50187,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ237">
         <v>1.14</v>
@@ -50306,7 +50315,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50384,10 +50393,10 @@
         <v>1.13</v>
       </c>
       <c r="AP238">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ238">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR238">
         <v>1.41</v>
@@ -50512,7 +50521,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50590,7 +50599,7 @@
         <v>1.06</v>
       </c>
       <c r="AP239">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ239">
         <v>1.22</v>
@@ -50796,10 +50805,10 @@
         <v>1.53</v>
       </c>
       <c r="AP240">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ240">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR240">
         <v>1.22</v>
@@ -51336,7 +51345,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51748,7 +51757,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51829,7 +51838,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ245">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR245">
         <v>1.55</v>
@@ -51954,7 +51963,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>318</v>
+        <v>269</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52035,7 +52044,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ246">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR246">
         <v>1.21</v>
@@ -52238,7 +52247,7 @@
         <v>1.41</v>
       </c>
       <c r="AP247">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ247">
         <v>1.41</v>
@@ -52366,7 +52375,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52447,7 +52456,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ248">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR248">
         <v>1.44</v>
@@ -52650,7 +52659,7 @@
         <v>1.82</v>
       </c>
       <c r="AP249">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ249">
         <v>1.64</v>
@@ -52859,7 +52868,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ250">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR250">
         <v>1.27</v>
@@ -52984,7 +52993,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53065,7 +53074,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ251">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR251">
         <v>1.53</v>
@@ -53268,7 +53277,7 @@
         <v>1.18</v>
       </c>
       <c r="AP252">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ252">
         <v>0.95</v>
@@ -53886,7 +53895,7 @@
         <v>1.44</v>
       </c>
       <c r="AP255">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ255">
         <v>1.64</v>
@@ -54092,7 +54101,7 @@
         <v>1.28</v>
       </c>
       <c r="AP256">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ256">
         <v>1.14</v>
@@ -54507,7 +54516,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ258">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR258">
         <v>1.14</v>
@@ -55044,7 +55053,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55122,10 +55131,10 @@
         <v>1.22</v>
       </c>
       <c r="AP261">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ261">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR261">
         <v>1.23</v>
@@ -55328,7 +55337,7 @@
         <v>1.56</v>
       </c>
       <c r="AP262">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ262">
         <v>1.74</v>
@@ -55537,7 +55546,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ263">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR263">
         <v>1.2</v>
@@ -55740,7 +55749,7 @@
         <v>1.11</v>
       </c>
       <c r="AP264">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ264">
         <v>1.23</v>
@@ -55949,7 +55958,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ265">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56074,7 +56083,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56358,7 +56367,7 @@
         <v>1.22</v>
       </c>
       <c r="AP267">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ267">
         <v>1.14</v>
@@ -56898,7 +56907,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57104,7 +57113,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57182,10 +57191,10 @@
         <v>1.53</v>
       </c>
       <c r="AP271">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ271">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR271">
         <v>1.2</v>
@@ -57594,7 +57603,7 @@
         <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ273">
         <v>1.32</v>
@@ -57928,7 +57937,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58006,7 +58015,7 @@
         <v>2</v>
       </c>
       <c r="AP275">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ275">
         <v>1.95</v>
@@ -58212,7 +58221,7 @@
         <v>1.68</v>
       </c>
       <c r="AP276">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ276">
         <v>1.64</v>
@@ -58421,7 +58430,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ277">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR277">
         <v>1.61</v>
@@ -58546,7 +58555,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58627,7 +58636,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ278">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR278">
         <v>1.18</v>
@@ -58830,10 +58839,10 @@
         <v>1.42</v>
       </c>
       <c r="AP279">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ279">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR279">
         <v>1.28</v>
@@ -59039,7 +59048,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ280">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR280">
         <v>1.54</v>
@@ -59448,7 +59457,7 @@
         <v>1.1</v>
       </c>
       <c r="AP282">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59576,7 +59585,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60400,7 +60409,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60481,7 +60490,7 @@
         <v>0.95</v>
       </c>
       <c r="AQ287">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AR287">
         <v>1.36</v>
@@ -60606,7 +60615,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60812,7 +60821,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -60890,7 +60899,7 @@
         <v>1.3</v>
       </c>
       <c r="AP289">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ289">
         <v>1.36</v>
@@ -61018,7 +61027,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61099,7 +61108,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ290">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AR290">
         <v>1.25</v>
@@ -61224,7 +61233,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61302,7 +61311,7 @@
         <v>1.5</v>
       </c>
       <c r="AP291">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AQ291">
         <v>1.64</v>
@@ -61430,7 +61439,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61636,7 +61645,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -61714,10 +61723,10 @@
         <v>1.15</v>
       </c>
       <c r="AP293">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ293">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AR293">
         <v>1.33</v>
@@ -61920,10 +61929,10 @@
         <v>1.45</v>
       </c>
       <c r="AP294">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AQ294">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AR294">
         <v>1.2</v>
@@ -62129,7 +62138,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ295">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AR295">
         <v>1.39</v>
@@ -62335,7 +62344,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ296">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AR296">
         <v>1.4</v>
@@ -62666,7 +62675,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -62950,7 +62959,7 @@
         <v>1.43</v>
       </c>
       <c r="AP299">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AQ299">
         <v>1.36</v>
@@ -63490,7 +63499,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63568,7 +63577,7 @@
         <v>1.57</v>
       </c>
       <c r="AP302">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AQ302">
         <v>1.64</v>
@@ -63696,7 +63705,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63902,7 +63911,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64108,7 +64117,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64186,7 +64195,7 @@
         <v>2</v>
       </c>
       <c r="AP305">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AQ305">
         <v>1.95</v>
@@ -64395,7 +64404,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ306">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AR306">
         <v>1.39</v>
@@ -64520,7 +64529,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64598,10 +64607,10 @@
         <v>1.05</v>
       </c>
       <c r="AP307">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AQ307">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR307">
         <v>1.26</v>
@@ -64804,10 +64813,10 @@
         <v>1.05</v>
       </c>
       <c r="AP308">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AQ308">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR308">
         <v>1.46</v>
@@ -65013,7 +65022,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ309">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="AR309">
         <v>1.23</v>
@@ -65138,7 +65147,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65295,6 +65304,1036 @@
       </c>
       <c r="BP310">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:68">
+      <c r="A311" s="1">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>7345420</v>
+      </c>
+      <c r="C311" t="s">
+        <v>68</v>
+      </c>
+      <c r="D311" t="s">
+        <v>69</v>
+      </c>
+      <c r="E311" s="2">
+        <v>45614.70833333334</v>
+      </c>
+      <c r="F311">
+        <v>23</v>
+      </c>
+      <c r="G311" t="s">
+        <v>90</v>
+      </c>
+      <c r="H311" t="s">
+        <v>77</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311">
+        <v>1</v>
+      </c>
+      <c r="O311" t="s">
+        <v>102</v>
+      </c>
+      <c r="P311" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q311">
+        <v>3.4</v>
+      </c>
+      <c r="R311">
+        <v>1.91</v>
+      </c>
+      <c r="S311">
+        <v>3.75</v>
+      </c>
+      <c r="T311">
+        <v>1.57</v>
+      </c>
+      <c r="U311">
+        <v>2.25</v>
+      </c>
+      <c r="V311">
+        <v>3.75</v>
+      </c>
+      <c r="W311">
+        <v>1.25</v>
+      </c>
+      <c r="X311">
+        <v>13</v>
+      </c>
+      <c r="Y311">
+        <v>1.04</v>
+      </c>
+      <c r="Z311">
+        <v>2.55</v>
+      </c>
+      <c r="AA311">
+        <v>2.9</v>
+      </c>
+      <c r="AB311">
+        <v>3</v>
+      </c>
+      <c r="AC311">
+        <v>1.09</v>
+      </c>
+      <c r="AD311">
+        <v>7</v>
+      </c>
+      <c r="AE311">
+        <v>1.48</v>
+      </c>
+      <c r="AF311">
+        <v>2.46</v>
+      </c>
+      <c r="AG311">
+        <v>2.7</v>
+      </c>
+      <c r="AH311">
+        <v>1.44</v>
+      </c>
+      <c r="AI311">
+        <v>2.1</v>
+      </c>
+      <c r="AJ311">
+        <v>1.67</v>
+      </c>
+      <c r="AK311">
+        <v>1.3</v>
+      </c>
+      <c r="AL311">
+        <v>1.3</v>
+      </c>
+      <c r="AM311">
+        <v>1.62</v>
+      </c>
+      <c r="AN311">
+        <v>1</v>
+      </c>
+      <c r="AO311">
+        <v>1.18</v>
+      </c>
+      <c r="AP311">
+        <v>0.96</v>
+      </c>
+      <c r="AQ311">
+        <v>1.26</v>
+      </c>
+      <c r="AR311">
+        <v>1.21</v>
+      </c>
+      <c r="AS311">
+        <v>1.25</v>
+      </c>
+      <c r="AT311">
+        <v>2.46</v>
+      </c>
+      <c r="AU311">
+        <v>4</v>
+      </c>
+      <c r="AV311">
+        <v>3</v>
+      </c>
+      <c r="AW311">
+        <v>9</v>
+      </c>
+      <c r="AX311">
+        <v>5</v>
+      </c>
+      <c r="AY311">
+        <v>14</v>
+      </c>
+      <c r="AZ311">
+        <v>8</v>
+      </c>
+      <c r="BA311">
+        <v>3</v>
+      </c>
+      <c r="BB311">
+        <v>1</v>
+      </c>
+      <c r="BC311">
+        <v>4</v>
+      </c>
+      <c r="BD311">
+        <v>1.6</v>
+      </c>
+      <c r="BE311">
+        <v>5.8</v>
+      </c>
+      <c r="BF311">
+        <v>2.48</v>
+      </c>
+      <c r="BG311">
+        <v>1.52</v>
+      </c>
+      <c r="BH311">
+        <v>2.33</v>
+      </c>
+      <c r="BI311">
+        <v>1.9</v>
+      </c>
+      <c r="BJ311">
+        <v>1.79</v>
+      </c>
+      <c r="BK311">
+        <v>2.4</v>
+      </c>
+      <c r="BL311">
+        <v>1.49</v>
+      </c>
+      <c r="BM311">
+        <v>3.2</v>
+      </c>
+      <c r="BN311">
+        <v>1.29</v>
+      </c>
+      <c r="BO311">
+        <v>4.35</v>
+      </c>
+      <c r="BP311">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:68">
+      <c r="A312" s="1">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>7345419</v>
+      </c>
+      <c r="C312" t="s">
+        <v>68</v>
+      </c>
+      <c r="D312" t="s">
+        <v>69</v>
+      </c>
+      <c r="E312" s="2">
+        <v>45614.80208333334</v>
+      </c>
+      <c r="F312">
+        <v>23</v>
+      </c>
+      <c r="G312" t="s">
+        <v>85</v>
+      </c>
+      <c r="H312" t="s">
+        <v>78</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>1</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="N312">
+        <v>2</v>
+      </c>
+      <c r="O312" t="s">
+        <v>269</v>
+      </c>
+      <c r="P312" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q312">
+        <v>2.63</v>
+      </c>
+      <c r="R312">
+        <v>2.05</v>
+      </c>
+      <c r="S312">
+        <v>4.75</v>
+      </c>
+      <c r="T312">
+        <v>1.5</v>
+      </c>
+      <c r="U312">
+        <v>2.5</v>
+      </c>
+      <c r="V312">
+        <v>3.5</v>
+      </c>
+      <c r="W312">
+        <v>1.29</v>
+      </c>
+      <c r="X312">
+        <v>11</v>
+      </c>
+      <c r="Y312">
+        <v>1.05</v>
+      </c>
+      <c r="Z312">
+        <v>1.91</v>
+      </c>
+      <c r="AA312">
+        <v>3.4</v>
+      </c>
+      <c r="AB312">
+        <v>4.2</v>
+      </c>
+      <c r="AC312">
+        <v>1.07</v>
+      </c>
+      <c r="AD312">
+        <v>7.61</v>
+      </c>
+      <c r="AE312">
+        <v>1.43</v>
+      </c>
+      <c r="AF312">
+        <v>2.75</v>
+      </c>
+      <c r="AG312">
+        <v>2.2</v>
+      </c>
+      <c r="AH312">
+        <v>1.65</v>
+      </c>
+      <c r="AI312">
+        <v>1.95</v>
+      </c>
+      <c r="AJ312">
+        <v>1.8</v>
+      </c>
+      <c r="AK312">
+        <v>1.19</v>
+      </c>
+      <c r="AL312">
+        <v>1.28</v>
+      </c>
+      <c r="AM312">
+        <v>2.05</v>
+      </c>
+      <c r="AN312">
+        <v>1.14</v>
+      </c>
+      <c r="AO312">
+        <v>1.41</v>
+      </c>
+      <c r="AP312">
+        <v>1.13</v>
+      </c>
+      <c r="AQ312">
+        <v>1.39</v>
+      </c>
+      <c r="AR312">
+        <v>1.36</v>
+      </c>
+      <c r="AS312">
+        <v>1.19</v>
+      </c>
+      <c r="AT312">
+        <v>2.55</v>
+      </c>
+      <c r="AU312">
+        <v>8</v>
+      </c>
+      <c r="AV312">
+        <v>4</v>
+      </c>
+      <c r="AW312">
+        <v>9</v>
+      </c>
+      <c r="AX312">
+        <v>6</v>
+      </c>
+      <c r="AY312">
+        <v>20</v>
+      </c>
+      <c r="AZ312">
+        <v>14</v>
+      </c>
+      <c r="BA312">
+        <v>8</v>
+      </c>
+      <c r="BB312">
+        <v>4</v>
+      </c>
+      <c r="BC312">
+        <v>12</v>
+      </c>
+      <c r="BD312">
+        <v>1.48</v>
+      </c>
+      <c r="BE312">
+        <v>6.5</v>
+      </c>
+      <c r="BF312">
+        <v>2.8</v>
+      </c>
+      <c r="BG312">
+        <v>1.41</v>
+      </c>
+      <c r="BH312">
+        <v>2.65</v>
+      </c>
+      <c r="BI312">
+        <v>1.7</v>
+      </c>
+      <c r="BJ312">
+        <v>2</v>
+      </c>
+      <c r="BK312">
+        <v>2.12</v>
+      </c>
+      <c r="BL312">
+        <v>1.63</v>
+      </c>
+      <c r="BM312">
+        <v>2.7</v>
+      </c>
+      <c r="BN312">
+        <v>1.38</v>
+      </c>
+      <c r="BO312">
+        <v>3.65</v>
+      </c>
+      <c r="BP312">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:68">
+      <c r="A313" s="1">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>7345417</v>
+      </c>
+      <c r="C313" t="s">
+        <v>68</v>
+      </c>
+      <c r="D313" t="s">
+        <v>69</v>
+      </c>
+      <c r="E313" s="2">
+        <v>45614.80208333334</v>
+      </c>
+      <c r="F313">
+        <v>23</v>
+      </c>
+      <c r="G313" t="s">
+        <v>88</v>
+      </c>
+      <c r="H313" t="s">
+        <v>74</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>1</v>
+      </c>
+      <c r="O313" t="s">
+        <v>270</v>
+      </c>
+      <c r="P313" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q313">
+        <v>2.75</v>
+      </c>
+      <c r="R313">
+        <v>1.83</v>
+      </c>
+      <c r="S313">
+        <v>5.5</v>
+      </c>
+      <c r="T313">
+        <v>1.67</v>
+      </c>
+      <c r="U313">
+        <v>2.1</v>
+      </c>
+      <c r="V313">
+        <v>4.33</v>
+      </c>
+      <c r="W313">
+        <v>1.2</v>
+      </c>
+      <c r="X313">
+        <v>15</v>
+      </c>
+      <c r="Y313">
+        <v>1.03</v>
+      </c>
+      <c r="Z313">
+        <v>1.95</v>
+      </c>
+      <c r="AA313">
+        <v>3</v>
+      </c>
+      <c r="AB313">
+        <v>4.75</v>
+      </c>
+      <c r="AC313">
+        <v>1.12</v>
+      </c>
+      <c r="AD313">
+        <v>5.87</v>
+      </c>
+      <c r="AE313">
+        <v>1.61</v>
+      </c>
+      <c r="AF313">
+        <v>2.22</v>
+      </c>
+      <c r="AG313">
+        <v>3.1</v>
+      </c>
+      <c r="AH313">
+        <v>1.36</v>
+      </c>
+      <c r="AI313">
+        <v>2.63</v>
+      </c>
+      <c r="AJ313">
+        <v>1.44</v>
+      </c>
+      <c r="AK313">
+        <v>1.32</v>
+      </c>
+      <c r="AL313">
+        <v>1.35</v>
+      </c>
+      <c r="AM313">
+        <v>1.63</v>
+      </c>
+      <c r="AN313">
+        <v>1.36</v>
+      </c>
+      <c r="AO313">
+        <v>1.27</v>
+      </c>
+      <c r="AP313">
+        <v>1.43</v>
+      </c>
+      <c r="AQ313">
+        <v>1.22</v>
+      </c>
+      <c r="AR313">
+        <v>1.2</v>
+      </c>
+      <c r="AS313">
+        <v>1.23</v>
+      </c>
+      <c r="AT313">
+        <v>2.43</v>
+      </c>
+      <c r="AU313">
+        <v>6</v>
+      </c>
+      <c r="AV313">
+        <v>2</v>
+      </c>
+      <c r="AW313">
+        <v>6</v>
+      </c>
+      <c r="AX313">
+        <v>3</v>
+      </c>
+      <c r="AY313">
+        <v>14</v>
+      </c>
+      <c r="AZ313">
+        <v>7</v>
+      </c>
+      <c r="BA313">
+        <v>6</v>
+      </c>
+      <c r="BB313">
+        <v>4</v>
+      </c>
+      <c r="BC313">
+        <v>10</v>
+      </c>
+      <c r="BD313">
+        <v>1.58</v>
+      </c>
+      <c r="BE313">
+        <v>6.1</v>
+      </c>
+      <c r="BF313">
+        <v>2.48</v>
+      </c>
+      <c r="BG313">
+        <v>1.56</v>
+      </c>
+      <c r="BH313">
+        <v>2.23</v>
+      </c>
+      <c r="BI313">
+        <v>1.95</v>
+      </c>
+      <c r="BJ313">
+        <v>1.74</v>
+      </c>
+      <c r="BK313">
+        <v>2.55</v>
+      </c>
+      <c r="BL313">
+        <v>1.44</v>
+      </c>
+      <c r="BM313">
+        <v>3.4</v>
+      </c>
+      <c r="BN313">
+        <v>1.26</v>
+      </c>
+      <c r="BO313">
+        <v>4.6</v>
+      </c>
+      <c r="BP313">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:68">
+      <c r="A314" s="1">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>7345421</v>
+      </c>
+      <c r="C314" t="s">
+        <v>68</v>
+      </c>
+      <c r="D314" t="s">
+        <v>69</v>
+      </c>
+      <c r="E314" s="2">
+        <v>45614.89583333334</v>
+      </c>
+      <c r="F314">
+        <v>23</v>
+      </c>
+      <c r="G314" t="s">
+        <v>86</v>
+      </c>
+      <c r="H314" t="s">
+        <v>71</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>1</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>1</v>
+      </c>
+      <c r="O314" t="s">
+        <v>264</v>
+      </c>
+      <c r="P314" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q314">
+        <v>3.1</v>
+      </c>
+      <c r="R314">
+        <v>1.91</v>
+      </c>
+      <c r="S314">
+        <v>4.33</v>
+      </c>
+      <c r="T314">
+        <v>1.57</v>
+      </c>
+      <c r="U314">
+        <v>2.25</v>
+      </c>
+      <c r="V314">
+        <v>3.75</v>
+      </c>
+      <c r="W314">
+        <v>1.25</v>
+      </c>
+      <c r="X314">
+        <v>13</v>
+      </c>
+      <c r="Y314">
+        <v>1.04</v>
+      </c>
+      <c r="Z314">
+        <v>2.3</v>
+      </c>
+      <c r="AA314">
+        <v>3</v>
+      </c>
+      <c r="AB314">
+        <v>3.5</v>
+      </c>
+      <c r="AC314">
+        <v>1.11</v>
+      </c>
+      <c r="AD314">
+        <v>6.28</v>
+      </c>
+      <c r="AE314">
+        <v>1.51</v>
+      </c>
+      <c r="AF314">
+        <v>2.45</v>
+      </c>
+      <c r="AG314">
+        <v>2.7</v>
+      </c>
+      <c r="AH314">
+        <v>1.44</v>
+      </c>
+      <c r="AI314">
+        <v>2.2</v>
+      </c>
+      <c r="AJ314">
+        <v>1.62</v>
+      </c>
+      <c r="AK314">
+        <v>1.32</v>
+      </c>
+      <c r="AL314">
+        <v>1.33</v>
+      </c>
+      <c r="AM314">
+        <v>1.65</v>
+      </c>
+      <c r="AN314">
+        <v>1.32</v>
+      </c>
+      <c r="AO314">
+        <v>1.18</v>
+      </c>
+      <c r="AP314">
+        <v>1.39</v>
+      </c>
+      <c r="AQ314">
+        <v>1.13</v>
+      </c>
+      <c r="AR314">
+        <v>1.3</v>
+      </c>
+      <c r="AS314">
+        <v>1.45</v>
+      </c>
+      <c r="AT314">
+        <v>2.75</v>
+      </c>
+      <c r="AU314">
+        <v>6</v>
+      </c>
+      <c r="AV314">
+        <v>2</v>
+      </c>
+      <c r="AW314">
+        <v>1</v>
+      </c>
+      <c r="AX314">
+        <v>7</v>
+      </c>
+      <c r="AY314">
+        <v>7</v>
+      </c>
+      <c r="AZ314">
+        <v>17</v>
+      </c>
+      <c r="BA314">
+        <v>5</v>
+      </c>
+      <c r="BB314">
+        <v>4</v>
+      </c>
+      <c r="BC314">
+        <v>9</v>
+      </c>
+      <c r="BD314">
+        <v>1.79</v>
+      </c>
+      <c r="BE314">
+        <v>6.1</v>
+      </c>
+      <c r="BF314">
+        <v>2.12</v>
+      </c>
+      <c r="BG314">
+        <v>1.36</v>
+      </c>
+      <c r="BH314">
+        <v>2.8</v>
+      </c>
+      <c r="BI314">
+        <v>1.63</v>
+      </c>
+      <c r="BJ314">
+        <v>2.12</v>
+      </c>
+      <c r="BK314">
+        <v>2</v>
+      </c>
+      <c r="BL314">
+        <v>1.71</v>
+      </c>
+      <c r="BM314">
+        <v>2.55</v>
+      </c>
+      <c r="BN314">
+        <v>1.44</v>
+      </c>
+      <c r="BO314">
+        <v>3.3</v>
+      </c>
+      <c r="BP314">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="315" spans="1:68">
+      <c r="A315" s="1">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>7345414</v>
+      </c>
+      <c r="C315" t="s">
+        <v>68</v>
+      </c>
+      <c r="D315" t="s">
+        <v>69</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45614.89583333334</v>
+      </c>
+      <c r="F315">
+        <v>23</v>
+      </c>
+      <c r="G315" t="s">
+        <v>81</v>
+      </c>
+      <c r="H315" t="s">
+        <v>73</v>
+      </c>
+      <c r="I315">
+        <v>2</v>
+      </c>
+      <c r="J315">
+        <v>1</v>
+      </c>
+      <c r="K315">
+        <v>3</v>
+      </c>
+      <c r="L315">
+        <v>4</v>
+      </c>
+      <c r="M315">
+        <v>2</v>
+      </c>
+      <c r="N315">
+        <v>6</v>
+      </c>
+      <c r="O315" t="s">
+        <v>271</v>
+      </c>
+      <c r="P315" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q315">
+        <v>3.1</v>
+      </c>
+      <c r="R315">
+        <v>1.91</v>
+      </c>
+      <c r="S315">
+        <v>4.5</v>
+      </c>
+      <c r="T315">
+        <v>1.62</v>
+      </c>
+      <c r="U315">
+        <v>2.2</v>
+      </c>
+      <c r="V315">
+        <v>4</v>
+      </c>
+      <c r="W315">
+        <v>1.22</v>
+      </c>
+      <c r="X315">
+        <v>15</v>
+      </c>
+      <c r="Y315">
+        <v>1.03</v>
+      </c>
+      <c r="Z315">
+        <v>2.2</v>
+      </c>
+      <c r="AA315">
+        <v>3.1</v>
+      </c>
+      <c r="AB315">
+        <v>3.6</v>
+      </c>
+      <c r="AC315">
+        <v>1.12</v>
+      </c>
+      <c r="AD315">
+        <v>5.87</v>
+      </c>
+      <c r="AE315">
+        <v>1.58</v>
+      </c>
+      <c r="AF315">
+        <v>2.3</v>
+      </c>
+      <c r="AG315">
+        <v>2.7</v>
+      </c>
+      <c r="AH315">
+        <v>1.44</v>
+      </c>
+      <c r="AI315">
+        <v>2.25</v>
+      </c>
+      <c r="AJ315">
+        <v>1.57</v>
+      </c>
+      <c r="AK315">
+        <v>1.4</v>
+      </c>
+      <c r="AL315">
+        <v>1.36</v>
+      </c>
+      <c r="AM315">
+        <v>1.52</v>
+      </c>
+      <c r="AN315">
+        <v>1.5</v>
+      </c>
+      <c r="AO315">
+        <v>1.82</v>
+      </c>
+      <c r="AP315">
+        <v>1.57</v>
+      </c>
+      <c r="AQ315">
+        <v>1.74</v>
+      </c>
+      <c r="AR315">
+        <v>1.46</v>
+      </c>
+      <c r="AS315">
+        <v>1.24</v>
+      </c>
+      <c r="AT315">
+        <v>2.7</v>
+      </c>
+      <c r="AU315">
+        <v>8</v>
+      </c>
+      <c r="AV315">
+        <v>4</v>
+      </c>
+      <c r="AW315">
+        <v>2</v>
+      </c>
+      <c r="AX315">
+        <v>4</v>
+      </c>
+      <c r="AY315">
+        <v>13</v>
+      </c>
+      <c r="AZ315">
+        <v>9</v>
+      </c>
+      <c r="BA315">
+        <v>3</v>
+      </c>
+      <c r="BB315">
+        <v>4</v>
+      </c>
+      <c r="BC315">
+        <v>7</v>
+      </c>
+      <c r="BD315">
+        <v>1.67</v>
+      </c>
+      <c r="BE315">
+        <v>5.8</v>
+      </c>
+      <c r="BF315">
+        <v>2.33</v>
+      </c>
+      <c r="BG315">
+        <v>1.44</v>
+      </c>
+      <c r="BH315">
+        <v>2.55</v>
+      </c>
+      <c r="BI315">
+        <v>1.74</v>
+      </c>
+      <c r="BJ315">
+        <v>1.95</v>
+      </c>
+      <c r="BK315">
+        <v>2.18</v>
+      </c>
+      <c r="BL315">
+        <v>1.58</v>
+      </c>
+      <c r="BM315">
+        <v>2.88</v>
+      </c>
+      <c r="BN315">
+        <v>1.35</v>
+      </c>
+      <c r="BO315">
+        <v>3.8</v>
+      </c>
+      <c r="BP315">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -823,7 +823,7 @@
     <t>['4', '36', '78']</t>
   </si>
   <si>
-    <t>['90+3']</t>
+    <t>['90+2']</t>
   </si>
   <si>
     <t>['90+1']</t>
@@ -890,9 +890,6 @@
   </si>
   <si>
     <t>['15', '70']</t>
-  </si>
-  <si>
-    <t>['90+2']</t>
   </si>
   <si>
     <t>['69']</t>
@@ -977,6 +974,9 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['22', '78']</t>
@@ -1078,7 +1078,7 @@
     <t>['66', '90']</t>
   </si>
   <si>
-    <t>['33', '74']</t>
+    <t>['33', '73']</t>
   </si>
 </sst>
 </file>
@@ -16531,7 +16531,7 @@
         <v>102</v>
       </c>
       <c r="P74" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16737,7 +16737,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16943,7 +16943,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17149,7 +17149,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17561,7 +17561,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17767,7 +17767,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18179,7 +18179,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18591,7 +18591,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -20033,7 +20033,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20445,7 +20445,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20651,7 +20651,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -22299,7 +22299,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22917,7 +22917,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -23123,7 +23123,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23329,7 +23329,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23535,7 +23535,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -24565,7 +24565,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25183,7 +25183,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -26419,7 +26419,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26625,7 +26625,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -28067,7 +28067,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -29715,7 +29715,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29921,7 +29921,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30127,7 +30127,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31157,7 +31157,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31775,7 +31775,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -33217,7 +33217,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33423,7 +33423,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -34041,7 +34041,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -35277,7 +35277,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35689,7 +35689,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -37337,7 +37337,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -38779,7 +38779,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -39603,7 +39603,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40221,7 +40221,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -41457,7 +41457,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -46195,7 +46195,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46813,7 +46813,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -48255,7 +48255,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -51963,7 +51963,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -56907,7 +56907,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57113,7 +57113,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -59585,7 +59585,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -61027,7 +61027,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -64117,7 +64117,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -65559,7 +65559,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q312">
         <v>2.63</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1095,6 +1095,9 @@
   <si>
     <t>['43']</t>
   </si>
+  <si>
+    <t>['26', '67']</t>
+  </si>
 </sst>
 </file>
 
@@ -1455,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP329"/>
+  <dimension ref="A1:BP332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1998,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2619,7 +2622,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ6">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3031,7 +3034,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ8">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3646,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
         <v>1.74</v>
@@ -3855,7 +3858,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ12">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4676,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>1.21</v>
@@ -4885,7 +4888,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -5500,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
         <v>0.96</v>
@@ -6324,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ24">
         <v>1.46</v>
@@ -6942,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -7151,7 +7154,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7563,7 +7566,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7972,10 +7975,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -8384,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ34">
         <v>1.57</v>
@@ -9211,7 +9214,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ38">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9829,7 +9832,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ41">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -10650,10 +10653,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -11062,7 +11065,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
         <v>1.21</v>
@@ -11268,7 +11271,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48">
         <v>1.7</v>
@@ -12504,7 +12507,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -12710,7 +12713,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55">
         <v>1.57</v>
@@ -13125,7 +13128,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13328,10 +13331,10 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ58">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13743,7 +13746,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -14155,7 +14158,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -15597,7 +15600,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ69">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -16006,7 +16009,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ71">
         <v>1.25</v>
@@ -16212,7 +16215,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>1.33</v>
@@ -16624,7 +16627,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ74">
         <v>0.91</v>
@@ -16830,7 +16833,7 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>1.38</v>
@@ -17036,7 +17039,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ76">
         <v>0.96</v>
@@ -18272,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
         <v>1.43</v>
@@ -18893,7 +18896,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ85">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19305,7 +19308,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ87">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19511,7 +19514,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ88">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -20747,7 +20750,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ94">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -21159,7 +21162,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ96">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -21362,7 +21365,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>1.43</v>
@@ -21774,7 +21777,7 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ99">
         <v>1.71</v>
@@ -23010,7 +23013,7 @@
         <v>1.43</v>
       </c>
       <c r="AP105">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23628,7 +23631,7 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
         <v>1.88</v>
@@ -23834,7 +23837,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ109">
         <v>1.21</v>
@@ -24040,7 +24043,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ110">
         <v>1.21</v>
@@ -24249,7 +24252,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR111">
         <v>1.59</v>
@@ -25073,7 +25076,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ115">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR115">
         <v>1.24</v>
@@ -26103,7 +26106,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ120">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR120">
         <v>1.12</v>
@@ -26309,7 +26312,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ121">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR121">
         <v>1.1</v>
@@ -26721,7 +26724,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR123">
         <v>1.54</v>
@@ -26927,7 +26930,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27133,7 +27136,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27542,7 +27545,7 @@
         <v>1.22</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ127">
         <v>0.96</v>
@@ -27954,7 +27957,7 @@
         <v>1.78</v>
       </c>
       <c r="AP129">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ129">
         <v>1.7</v>
@@ -28160,7 +28163,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130">
         <v>1.57</v>
@@ -28778,7 +28781,7 @@
         <v>1.22</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ133">
         <v>0.91</v>
@@ -28984,7 +28987,7 @@
         <v>1.44</v>
       </c>
       <c r="AP134">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
         <v>1.46</v>
@@ -29602,7 +29605,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP137">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ137">
         <v>1.13</v>
@@ -30429,7 +30432,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ141">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR141">
         <v>1.26</v>
@@ -30841,7 +30844,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ143">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31047,7 +31050,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR144">
         <v>1.16</v>
@@ -31665,7 +31668,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ147">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.36</v>
@@ -32489,7 +32492,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ151">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32695,7 +32698,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -33310,7 +33313,7 @@
         <v>1.09</v>
       </c>
       <c r="AP155">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
         <v>1.43</v>
@@ -33722,7 +33725,7 @@
         <v>2.09</v>
       </c>
       <c r="AP157">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ157">
         <v>1.71</v>
@@ -35164,7 +35167,7 @@
         <v>0.91</v>
       </c>
       <c r="AP164">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ164">
         <v>0.96</v>
@@ -35370,7 +35373,7 @@
         <v>1.91</v>
       </c>
       <c r="AP165">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ165">
         <v>1.88</v>
@@ -35576,7 +35579,7 @@
         <v>2</v>
       </c>
       <c r="AP166">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ166">
         <v>1.5</v>
@@ -35782,7 +35785,7 @@
         <v>1.27</v>
       </c>
       <c r="AP167">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -36609,7 +36612,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ171">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -36815,7 +36818,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ172">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR172">
         <v>1.29</v>
@@ -37021,7 +37024,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ173">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR173">
         <v>1.28</v>
@@ -37433,7 +37436,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR175">
         <v>1.16</v>
@@ -38669,7 +38672,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ181">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38875,7 +38878,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ182">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR182">
         <v>1.3</v>
@@ -39284,7 +39287,7 @@
         <v>1.85</v>
       </c>
       <c r="AP184">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
         <v>1.38</v>
@@ -40314,7 +40317,7 @@
         <v>1.23</v>
       </c>
       <c r="AP189">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
         <v>1.43</v>
@@ -41138,7 +41141,7 @@
         <v>1.77</v>
       </c>
       <c r="AP193">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ193">
         <v>1.7</v>
@@ -41344,7 +41347,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ194">
         <v>0.91</v>
@@ -41550,7 +41553,7 @@
         <v>0.85</v>
       </c>
       <c r="AP195">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ195">
         <v>0.96</v>
@@ -41756,7 +41759,7 @@
         <v>0.85</v>
       </c>
       <c r="AP196">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ196">
         <v>1.13</v>
@@ -42583,7 +42586,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ200">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -43201,7 +43204,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ203">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43819,7 +43822,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR206">
         <v>1.41</v>
@@ -44025,7 +44028,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ207">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR207">
         <v>1.29</v>
@@ -44231,7 +44234,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ208">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR208">
         <v>1.17</v>
@@ -44643,7 +44646,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ210">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR210">
         <v>1.31</v>
@@ -45052,7 +45055,7 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ212">
         <v>1.38</v>
@@ -45876,7 +45879,7 @@
         <v>1.4</v>
       </c>
       <c r="AP216">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ216">
         <v>1.46</v>
@@ -46082,10 +46085,10 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ217">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR217">
         <v>1.26</v>
@@ -46700,7 +46703,7 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ220">
         <v>1.5</v>
@@ -47524,7 +47527,7 @@
         <v>2.2</v>
       </c>
       <c r="AP224">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ224">
         <v>1.88</v>
@@ -47733,7 +47736,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ225">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR225">
         <v>1.44</v>
@@ -49175,7 +49178,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ232">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
         <v>1.31</v>
@@ -49587,7 +49590,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ234">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49790,10 +49793,10 @@
         <v>1.19</v>
       </c>
       <c r="AP235">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ235">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR235">
         <v>1.14</v>
@@ -50205,7 +50208,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR237">
         <v>1.27</v>
@@ -51232,10 +51235,10 @@
         <v>1.18</v>
       </c>
       <c r="AP242">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ242">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR242">
         <v>1.26</v>
@@ -52056,7 +52059,7 @@
         <v>1.24</v>
       </c>
       <c r="AP246">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ246">
         <v>1.43</v>
@@ -52674,7 +52677,7 @@
         <v>1.82</v>
       </c>
       <c r="AP249">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ249">
         <v>1.7</v>
@@ -52880,7 +52883,7 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ250">
         <v>0.96</v>
@@ -53501,7 +53504,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ253">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR253">
         <v>1.33</v>
@@ -53704,7 +53707,7 @@
         <v>1.44</v>
       </c>
       <c r="AP254">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ254">
         <v>1.35</v>
@@ -54119,7 +54122,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ256">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR256">
         <v>1.32</v>
@@ -54737,7 +54740,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ259">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR259">
         <v>1.34</v>
@@ -54940,7 +54943,7 @@
         <v>1.17</v>
       </c>
       <c r="AP260">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ260">
         <v>1.22</v>
@@ -55149,7 +55152,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ261">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR261">
         <v>1.23</v>
@@ -56385,7 +56388,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ267">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR267">
         <v>1.28</v>
@@ -56591,7 +56594,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ268">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR268">
         <v>1.54</v>
@@ -57000,10 +57003,10 @@
         <v>0.68</v>
       </c>
       <c r="AP270">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ270">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR270">
         <v>1.27</v>
@@ -57412,7 +57415,7 @@
         <v>1.11</v>
       </c>
       <c r="AP272">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ272">
         <v>1.22</v>
@@ -58030,7 +58033,7 @@
         <v>2</v>
       </c>
       <c r="AP275">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ275">
         <v>1.88</v>
@@ -58648,7 +58651,7 @@
         <v>0.84</v>
       </c>
       <c r="AP278">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ278">
         <v>1.13</v>
@@ -59678,10 +59681,10 @@
         <v>1.2</v>
       </c>
       <c r="AP283">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ283">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR283">
         <v>1.09</v>
@@ -60093,7 +60096,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ285">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR285">
         <v>1.45</v>
@@ -60708,7 +60711,7 @@
         <v>1.55</v>
       </c>
       <c r="AP288">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ288">
         <v>1.74</v>
@@ -60917,7 +60920,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ289">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR289">
         <v>1.24</v>
@@ -61741,7 +61744,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ293">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR293">
         <v>1.33</v>
@@ -62768,7 +62771,7 @@
         <v>1.19</v>
       </c>
       <c r="AP298">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AQ298">
         <v>1.22</v>
@@ -63180,7 +63183,7 @@
         <v>1.38</v>
       </c>
       <c r="AP300">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ300">
         <v>1.35</v>
@@ -63389,7 +63392,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ301">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AR301">
         <v>1.64</v>
@@ -63801,7 +63804,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ303">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AR303">
         <v>1.51</v>
@@ -64828,7 +64831,7 @@
         <v>1.05</v>
       </c>
       <c r="AP308">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AQ308">
         <v>0.96</v>
@@ -65034,7 +65037,7 @@
         <v>1.38</v>
       </c>
       <c r="AP309">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ309">
         <v>1.38</v>
@@ -66067,7 +66070,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ314">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="AR314">
         <v>1.3</v>
@@ -66479,7 +66482,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ316">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR316">
         <v>1.37</v>
@@ -66891,7 +66894,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ318">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AR318">
         <v>1.49</v>
@@ -67300,10 +67303,10 @@
         <v>1.36</v>
       </c>
       <c r="AP320">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="AQ320">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR320">
         <v>1.13</v>
@@ -67918,7 +67921,7 @@
         <v>1.64</v>
       </c>
       <c r="AP323">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AQ323">
         <v>1.57</v>
@@ -69233,6 +69236,624 @@
       </c>
       <c r="BP329">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="330" spans="1:68">
+      <c r="A330" s="1">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>7345426</v>
+      </c>
+      <c r="C330" t="s">
+        <v>68</v>
+      </c>
+      <c r="D330" t="s">
+        <v>69</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45621.79166666666</v>
+      </c>
+      <c r="F330">
+        <v>24</v>
+      </c>
+      <c r="G330" t="s">
+        <v>91</v>
+      </c>
+      <c r="H330" t="s">
+        <v>94</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>0</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="N330">
+        <v>1</v>
+      </c>
+      <c r="O330" t="s">
+        <v>102</v>
+      </c>
+      <c r="P330" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q330">
+        <v>3.25</v>
+      </c>
+      <c r="R330">
+        <v>1.8</v>
+      </c>
+      <c r="S330">
+        <v>4.5</v>
+      </c>
+      <c r="T330">
+        <v>1.62</v>
+      </c>
+      <c r="U330">
+        <v>2.2</v>
+      </c>
+      <c r="V330">
+        <v>4</v>
+      </c>
+      <c r="W330">
+        <v>1.22</v>
+      </c>
+      <c r="X330">
+        <v>13</v>
+      </c>
+      <c r="Y330">
+        <v>1.04</v>
+      </c>
+      <c r="Z330">
+        <v>2.3</v>
+      </c>
+      <c r="AA330">
+        <v>2.8</v>
+      </c>
+      <c r="AB330">
+        <v>3.7</v>
+      </c>
+      <c r="AC330">
+        <v>1.12</v>
+      </c>
+      <c r="AD330">
+        <v>5.87</v>
+      </c>
+      <c r="AE330">
+        <v>1.51</v>
+      </c>
+      <c r="AF330">
+        <v>2.35</v>
+      </c>
+      <c r="AG330">
+        <v>3.4</v>
+      </c>
+      <c r="AH330">
+        <v>1.33</v>
+      </c>
+      <c r="AI330">
+        <v>2.5</v>
+      </c>
+      <c r="AJ330">
+        <v>1.5</v>
+      </c>
+      <c r="AK330">
+        <v>1.33</v>
+      </c>
+      <c r="AL330">
+        <v>1.35</v>
+      </c>
+      <c r="AM330">
+        <v>1.6</v>
+      </c>
+      <c r="AN330">
+        <v>1.22</v>
+      </c>
+      <c r="AO330">
+        <v>1.13</v>
+      </c>
+      <c r="AP330">
+        <v>1.17</v>
+      </c>
+      <c r="AQ330">
+        <v>1.21</v>
+      </c>
+      <c r="AR330">
+        <v>1.26</v>
+      </c>
+      <c r="AS330">
+        <v>1.24</v>
+      </c>
+      <c r="AT330">
+        <v>2.5</v>
+      </c>
+      <c r="AU330">
+        <v>6</v>
+      </c>
+      <c r="AV330">
+        <v>4</v>
+      </c>
+      <c r="AW330">
+        <v>4</v>
+      </c>
+      <c r="AX330">
+        <v>4</v>
+      </c>
+      <c r="AY330">
+        <v>11</v>
+      </c>
+      <c r="AZ330">
+        <v>10</v>
+      </c>
+      <c r="BA330">
+        <v>1</v>
+      </c>
+      <c r="BB330">
+        <v>6</v>
+      </c>
+      <c r="BC330">
+        <v>7</v>
+      </c>
+      <c r="BD330">
+        <v>1.75</v>
+      </c>
+      <c r="BE330">
+        <v>6.5</v>
+      </c>
+      <c r="BF330">
+        <v>2.48</v>
+      </c>
+      <c r="BG330">
+        <v>1.48</v>
+      </c>
+      <c r="BH330">
+        <v>2.42</v>
+      </c>
+      <c r="BI330">
+        <v>1.9</v>
+      </c>
+      <c r="BJ330">
+        <v>1.78</v>
+      </c>
+      <c r="BK330">
+        <v>2.55</v>
+      </c>
+      <c r="BL330">
+        <v>1.44</v>
+      </c>
+      <c r="BM330">
+        <v>3.65</v>
+      </c>
+      <c r="BN330">
+        <v>1.23</v>
+      </c>
+      <c r="BO330">
+        <v>4.8</v>
+      </c>
+      <c r="BP330">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:68">
+      <c r="A331" s="1">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>7345429</v>
+      </c>
+      <c r="C331" t="s">
+        <v>68</v>
+      </c>
+      <c r="D331" t="s">
+        <v>69</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45621.88541666666</v>
+      </c>
+      <c r="F331">
+        <v>24</v>
+      </c>
+      <c r="G331" t="s">
+        <v>79</v>
+      </c>
+      <c r="H331" t="s">
+        <v>84</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>1</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>0</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>2</v>
+      </c>
+      <c r="O331" t="s">
+        <v>102</v>
+      </c>
+      <c r="P331" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q331">
+        <v>2.75</v>
+      </c>
+      <c r="R331">
+        <v>1.95</v>
+      </c>
+      <c r="S331">
+        <v>5.5</v>
+      </c>
+      <c r="T331">
+        <v>1.57</v>
+      </c>
+      <c r="U331">
+        <v>2.25</v>
+      </c>
+      <c r="V331">
+        <v>3.75</v>
+      </c>
+      <c r="W331">
+        <v>1.25</v>
+      </c>
+      <c r="X331">
+        <v>13</v>
+      </c>
+      <c r="Y331">
+        <v>1.04</v>
+      </c>
+      <c r="Z331">
+        <v>1.91</v>
+      </c>
+      <c r="AA331">
+        <v>3.25</v>
+      </c>
+      <c r="AB331">
+        <v>4.5</v>
+      </c>
+      <c r="AC331">
+        <v>1.1</v>
+      </c>
+      <c r="AD331">
+        <v>6.6</v>
+      </c>
+      <c r="AE331">
+        <v>1.49</v>
+      </c>
+      <c r="AF331">
+        <v>2.45</v>
+      </c>
+      <c r="AG331">
+        <v>2.6</v>
+      </c>
+      <c r="AH331">
+        <v>1.48</v>
+      </c>
+      <c r="AI331">
+        <v>2.25</v>
+      </c>
+      <c r="AJ331">
+        <v>1.57</v>
+      </c>
+      <c r="AK331">
+        <v>1.22</v>
+      </c>
+      <c r="AL331">
+        <v>1.3</v>
+      </c>
+      <c r="AM331">
+        <v>1.88</v>
+      </c>
+      <c r="AN331">
+        <v>1.35</v>
+      </c>
+      <c r="AO331">
+        <v>1.22</v>
+      </c>
+      <c r="AP331">
+        <v>1.29</v>
+      </c>
+      <c r="AQ331">
+        <v>1.29</v>
+      </c>
+      <c r="AR331">
+        <v>1.2</v>
+      </c>
+      <c r="AS331">
+        <v>1.18</v>
+      </c>
+      <c r="AT331">
+        <v>2.38</v>
+      </c>
+      <c r="AU331">
+        <v>8</v>
+      </c>
+      <c r="AV331">
+        <v>6</v>
+      </c>
+      <c r="AW331">
+        <v>6</v>
+      </c>
+      <c r="AX331">
+        <v>2</v>
+      </c>
+      <c r="AY331">
+        <v>18</v>
+      </c>
+      <c r="AZ331">
+        <v>10</v>
+      </c>
+      <c r="BA331">
+        <v>10</v>
+      </c>
+      <c r="BB331">
+        <v>5</v>
+      </c>
+      <c r="BC331">
+        <v>15</v>
+      </c>
+      <c r="BD331">
+        <v>1.5</v>
+      </c>
+      <c r="BE331">
+        <v>6.1</v>
+      </c>
+      <c r="BF331">
+        <v>3.3</v>
+      </c>
+      <c r="BG331">
+        <v>1.38</v>
+      </c>
+      <c r="BH331">
+        <v>2.78</v>
+      </c>
+      <c r="BI331">
+        <v>1.7</v>
+      </c>
+      <c r="BJ331">
+        <v>2</v>
+      </c>
+      <c r="BK331">
+        <v>2.22</v>
+      </c>
+      <c r="BL331">
+        <v>1.55</v>
+      </c>
+      <c r="BM331">
+        <v>3.05</v>
+      </c>
+      <c r="BN331">
+        <v>1.32</v>
+      </c>
+      <c r="BO331">
+        <v>4.2</v>
+      </c>
+      <c r="BP331">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:68">
+      <c r="A332" s="1">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>7345430</v>
+      </c>
+      <c r="C332" t="s">
+        <v>68</v>
+      </c>
+      <c r="D332" t="s">
+        <v>69</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45621.88541666666</v>
+      </c>
+      <c r="F332">
+        <v>24</v>
+      </c>
+      <c r="G332" t="s">
+        <v>71</v>
+      </c>
+      <c r="H332" t="s">
+        <v>87</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="L332">
+        <v>0</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332" t="s">
+        <v>102</v>
+      </c>
+      <c r="P332" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q332">
+        <v>2.05</v>
+      </c>
+      <c r="R332">
+        <v>2.2</v>
+      </c>
+      <c r="S332">
+        <v>7.5</v>
+      </c>
+      <c r="T332">
+        <v>1.57</v>
+      </c>
+      <c r="U332">
+        <v>2.25</v>
+      </c>
+      <c r="V332">
+        <v>3.75</v>
+      </c>
+      <c r="W332">
+        <v>1.25</v>
+      </c>
+      <c r="X332">
+        <v>13</v>
+      </c>
+      <c r="Y332">
+        <v>1.04</v>
+      </c>
+      <c r="Z332">
+        <v>1.48</v>
+      </c>
+      <c r="AA332">
+        <v>4.1</v>
+      </c>
+      <c r="AB332">
+        <v>7.5</v>
+      </c>
+      <c r="AC332">
+        <v>1.08</v>
+      </c>
+      <c r="AD332">
+        <v>7.29</v>
+      </c>
+      <c r="AE332">
+        <v>1.48</v>
+      </c>
+      <c r="AF332">
+        <v>2.46</v>
+      </c>
+      <c r="AG332">
+        <v>2.15</v>
+      </c>
+      <c r="AH332">
+        <v>1.67</v>
+      </c>
+      <c r="AI332">
+        <v>2.25</v>
+      </c>
+      <c r="AJ332">
+        <v>1.57</v>
+      </c>
+      <c r="AK332">
+        <v>1.08</v>
+      </c>
+      <c r="AL332">
+        <v>1.22</v>
+      </c>
+      <c r="AM332">
+        <v>2.6</v>
+      </c>
+      <c r="AN332">
+        <v>1.13</v>
+      </c>
+      <c r="AO332">
+        <v>0.74</v>
+      </c>
+      <c r="AP332">
+        <v>1.08</v>
+      </c>
+      <c r="AQ332">
+        <v>0.83</v>
+      </c>
+      <c r="AR332">
+        <v>1.43</v>
+      </c>
+      <c r="AS332">
+        <v>1.14</v>
+      </c>
+      <c r="AT332">
+        <v>2.57</v>
+      </c>
+      <c r="AU332">
+        <v>6</v>
+      </c>
+      <c r="AV332">
+        <v>4</v>
+      </c>
+      <c r="AW332">
+        <v>8</v>
+      </c>
+      <c r="AX332">
+        <v>2</v>
+      </c>
+      <c r="AY332">
+        <v>21</v>
+      </c>
+      <c r="AZ332">
+        <v>10</v>
+      </c>
+      <c r="BA332">
+        <v>11</v>
+      </c>
+      <c r="BB332">
+        <v>1</v>
+      </c>
+      <c r="BC332">
+        <v>12</v>
+      </c>
+      <c r="BD332">
+        <v>1.09</v>
+      </c>
+      <c r="BE332">
+        <v>11.5</v>
+      </c>
+      <c r="BF332">
+        <v>8.1</v>
+      </c>
+      <c r="BG332">
+        <v>1.24</v>
+      </c>
+      <c r="BH332">
+        <v>3.55</v>
+      </c>
+      <c r="BI332">
+        <v>1.47</v>
+      </c>
+      <c r="BJ332">
+        <v>2.45</v>
+      </c>
+      <c r="BK332">
+        <v>2.38</v>
+      </c>
+      <c r="BL332">
+        <v>1.85</v>
+      </c>
+      <c r="BM332">
+        <v>2.42</v>
+      </c>
+      <c r="BN332">
+        <v>1.48</v>
+      </c>
+      <c r="BO332">
+        <v>3.4</v>
+      </c>
+      <c r="BP332">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2060" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,9 @@
     <t>['5', '48']</t>
   </si>
   <si>
+    <t>['5', '90']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -935,9 +938,6 @@
   </si>
   <si>
     <t>['72']</t>
-  </si>
-  <si>
-    <t>['5', '90']</t>
   </si>
   <si>
     <t>['34', '53', '70']</t>
@@ -1100,6 +1100,9 @@
   </si>
   <si>
     <t>['26', '67']</t>
+  </si>
+  <si>
+    <t>['30', '45+3', '61']</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP333"/>
+  <dimension ref="A1:BP335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1720,7 +1723,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ2">
         <v>1.38</v>
@@ -1926,7 +1929,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2213,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2544,7 +2547,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2750,7 +2753,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2831,7 +2834,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3574,7 +3577,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3780,7 +3783,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4476,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.96</v>
@@ -5222,7 +5225,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5303,7 +5306,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5509,7 +5512,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR20">
         <v>1</v>
@@ -5712,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5918,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
         <v>1.5</v>
@@ -6046,7 +6049,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6252,7 +6255,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6458,7 +6461,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6870,7 +6873,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7488,7 +7491,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7694,7 +7697,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7900,7 +7903,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8805,7 +8808,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ36">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -9214,7 +9217,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -9832,7 +9835,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -10041,7 +10044,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -10862,7 +10865,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.46</v>
@@ -11196,7 +11199,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11277,7 +11280,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.05</v>
@@ -11895,7 +11898,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ51">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR51">
         <v>1.56</v>
@@ -12432,7 +12435,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12719,7 +12722,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -13462,7 +13465,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13668,7 +13671,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14364,7 +14367,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ63">
         <v>1.35</v>
@@ -14492,7 +14495,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -15188,10 +15191,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -15394,7 +15397,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1.22</v>
@@ -15934,7 +15937,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16758,7 +16761,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16964,7 +16967,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17045,7 +17048,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ76">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR76">
         <v>1.36</v>
@@ -17170,7 +17173,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17582,7 +17585,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17788,7 +17791,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18075,7 +18078,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ81">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -18200,7 +18203,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18281,7 +18284,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18487,7 +18490,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ83">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.22</v>
@@ -18612,7 +18615,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -19720,7 +19723,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>1.13</v>
@@ -19926,7 +19929,7 @@
         <v>2.17</v>
       </c>
       <c r="AP90">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ90">
         <v>1.74</v>
@@ -20054,7 +20057,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20466,7 +20469,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20544,7 +20547,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>1.88</v>
@@ -20672,7 +20675,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21989,7 +21992,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ100">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -22320,7 +22323,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22401,7 +22404,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -22607,7 +22610,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ103">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR103">
         <v>1.83</v>
@@ -22938,7 +22941,7 @@
         <v>102</v>
       </c>
       <c r="P105" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="Q105">
         <v>4.33</v>
@@ -23225,7 +23228,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -24252,7 +24255,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>1.21</v>
@@ -25204,7 +25207,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25282,7 +25285,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25900,7 +25903,7 @@
         <v>1.63</v>
       </c>
       <c r="AP119">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
         <v>1.57</v>
@@ -26106,7 +26109,7 @@
         <v>1.75</v>
       </c>
       <c r="AP120">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ120">
         <v>1.29</v>
@@ -27342,7 +27345,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>0.96</v>
@@ -27551,7 +27554,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ127">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR127">
         <v>1.51</v>
@@ -27882,7 +27885,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -27963,7 +27966,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ129">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -28169,7 +28172,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28294,7 +28297,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -29405,7 +29408,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -30432,7 +30435,7 @@
         <v>0.7</v>
       </c>
       <c r="AP141">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
         <v>0.83</v>
@@ -31668,7 +31671,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ147">
         <v>1.29</v>
@@ -32286,7 +32289,7 @@
         <v>0.9</v>
       </c>
       <c r="AP150">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ150">
         <v>1.25</v>
@@ -32698,7 +32701,7 @@
         <v>1.3</v>
       </c>
       <c r="AP152">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
         <v>1.08</v>
@@ -32826,7 +32829,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33319,7 +33322,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33444,7 +33447,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33525,7 +33528,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ156">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR156">
         <v>1.29</v>
@@ -34143,7 +34146,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ159">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR159">
         <v>1.34</v>
@@ -34349,7 +34352,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ160">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR160">
         <v>1.44</v>
@@ -36200,7 +36203,7 @@
         <v>1.42</v>
       </c>
       <c r="AP169">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ169">
         <v>1.21</v>
@@ -36406,7 +36409,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ170">
         <v>1.38</v>
@@ -37230,7 +37233,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ174">
         <v>1.35</v>
@@ -37848,7 +37851,7 @@
         <v>0.91</v>
       </c>
       <c r="AP177">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
         <v>1.22</v>
@@ -38800,7 +38803,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -39499,7 +39502,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ185">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR185">
         <v>1.4</v>
@@ -39624,7 +39627,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40735,7 +40738,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ191">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR191">
         <v>1.53</v>
@@ -40941,7 +40944,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ192">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR192">
         <v>1.26</v>
@@ -41147,7 +41150,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ193">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -42174,7 +42177,7 @@
         <v>1.38</v>
       </c>
       <c r="AP198">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ198">
         <v>1.21</v>
@@ -43616,7 +43619,7 @@
         <v>1.71</v>
       </c>
       <c r="AP205">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ205">
         <v>1.74</v>
@@ -44028,7 +44031,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207">
         <v>1.21</v>
@@ -44234,7 +44237,7 @@
         <v>0.71</v>
       </c>
       <c r="AP208">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ208">
         <v>1.17</v>
@@ -44980,7 +44983,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -46297,7 +46300,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ218">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR218">
         <v>1.65</v>
@@ -46500,10 +46503,10 @@
         <v>1.8</v>
       </c>
       <c r="AP219">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ219">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR219">
         <v>1.22</v>
@@ -46915,7 +46918,7 @@
         <v>1.74</v>
       </c>
       <c r="AQ221">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR221">
         <v>1.56</v>
@@ -47736,7 +47739,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>1.17</v>
@@ -47945,7 +47948,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ226">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR226">
         <v>1.27</v>
@@ -49178,7 +49181,7 @@
         <v>1.5</v>
       </c>
       <c r="AP232">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ232">
         <v>1.29</v>
@@ -49384,7 +49387,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ233">
         <v>1.57</v>
@@ -49718,7 +49721,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -51032,7 +51035,7 @@
         <v>1.35</v>
       </c>
       <c r="AP241">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ241">
         <v>1.33</v>
@@ -52065,7 +52068,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ246">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR246">
         <v>1.21</v>
@@ -52474,7 +52477,7 @@
         <v>1.71</v>
       </c>
       <c r="AP248">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ248">
         <v>1.71</v>
@@ -52683,7 +52686,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ249">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -54331,7 +54334,7 @@
         <v>1</v>
       </c>
       <c r="AQ257">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR257">
         <v>1.37</v>
@@ -55152,7 +55155,7 @@
         <v>1.22</v>
       </c>
       <c r="AP261">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261">
         <v>1.08</v>
@@ -55976,7 +55979,7 @@
         <v>1.33</v>
       </c>
       <c r="AP265">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ265">
         <v>1.25</v>
@@ -56185,7 +56188,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ266">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR266">
         <v>1.48</v>
@@ -56800,7 +56803,7 @@
         <v>1.37</v>
       </c>
       <c r="AP269">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ269">
         <v>1.38</v>
@@ -57830,7 +57833,7 @@
         <v>1.11</v>
       </c>
       <c r="AP274">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58245,7 +58248,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ276">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR276">
         <v>1.2</v>
@@ -58863,7 +58866,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ279">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR279">
         <v>1.28</v>
@@ -59481,7 +59484,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ282">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR282">
         <v>1.48</v>
@@ -60305,7 +60308,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ286">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR286">
         <v>1.16</v>
@@ -60842,7 +60845,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61538,7 +61541,7 @@
         <v>1.15</v>
       </c>
       <c r="AP292">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ292">
         <v>1.21</v>
@@ -61950,7 +61953,7 @@
         <v>1.45</v>
       </c>
       <c r="AP294">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ294">
         <v>1.38</v>
@@ -62362,7 +62365,7 @@
         <v>1.57</v>
       </c>
       <c r="AP296">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ296">
         <v>1.5</v>
@@ -63601,7 +63604,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ302">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -64010,7 +64013,7 @@
         <v>1.33</v>
       </c>
       <c r="AP304">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AQ304">
         <v>1.46</v>
@@ -64138,7 +64141,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64425,7 +64428,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ306">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR306">
         <v>1.39</v>
@@ -65864,7 +65867,7 @@
         <v>1.27</v>
       </c>
       <c r="AP313">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ313">
         <v>1.21</v>
@@ -67103,7 +67106,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ319">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR319">
         <v>1.26</v>
@@ -67512,10 +67515,10 @@
         <v>1</v>
       </c>
       <c r="AP321">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AQ321">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="AR321">
         <v>1.37</v>
@@ -69802,13 +69805,13 @@
         <v>8</v>
       </c>
       <c r="AX332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY332">
         <v>21</v>
       </c>
       <c r="AZ332">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA332">
         <v>11</v>
@@ -70005,16 +70008,16 @@
         <v>7</v>
       </c>
       <c r="AW333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX333">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY333">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ333">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA333">
         <v>0</v>
@@ -70063,6 +70066,418 @@
       </c>
       <c r="BP333">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="334" spans="1:68">
+      <c r="A334" s="1">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>7345435</v>
+      </c>
+      <c r="C334" t="s">
+        <v>68</v>
+      </c>
+      <c r="D334" t="s">
+        <v>69</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45622.88541666666</v>
+      </c>
+      <c r="F334">
+        <v>24</v>
+      </c>
+      <c r="G334" t="s">
+        <v>70</v>
+      </c>
+      <c r="H334" t="s">
+        <v>88</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>1</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>1</v>
+      </c>
+      <c r="O334" t="s">
+        <v>179</v>
+      </c>
+      <c r="P334" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q334">
+        <v>4.75</v>
+      </c>
+      <c r="R334">
+        <v>1.8</v>
+      </c>
+      <c r="S334">
+        <v>3.25</v>
+      </c>
+      <c r="T334">
+        <v>1.73</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>5</v>
+      </c>
+      <c r="W334">
+        <v>1.17</v>
+      </c>
+      <c r="X334">
+        <v>17</v>
+      </c>
+      <c r="Y334">
+        <v>1.03</v>
+      </c>
+      <c r="Z334">
+        <v>3.6</v>
+      </c>
+      <c r="AA334">
+        <v>2.9</v>
+      </c>
+      <c r="AB334">
+        <v>2.35</v>
+      </c>
+      <c r="AC334">
+        <v>1.14</v>
+      </c>
+      <c r="AD334">
+        <v>5.31</v>
+      </c>
+      <c r="AE334">
+        <v>1.55</v>
+      </c>
+      <c r="AF334">
+        <v>2.2</v>
+      </c>
+      <c r="AG334">
+        <v>3.5</v>
+      </c>
+      <c r="AH334">
+        <v>1.3</v>
+      </c>
+      <c r="AI334">
+        <v>2.63</v>
+      </c>
+      <c r="AJ334">
+        <v>1.44</v>
+      </c>
+      <c r="AK334">
+        <v>1.58</v>
+      </c>
+      <c r="AL334">
+        <v>1.38</v>
+      </c>
+      <c r="AM334">
+        <v>1.32</v>
+      </c>
+      <c r="AN334">
+        <v>0.96</v>
+      </c>
+      <c r="AO334">
+        <v>1.43</v>
+      </c>
+      <c r="AP334">
+        <v>1.04</v>
+      </c>
+      <c r="AQ334">
+        <v>1.38</v>
+      </c>
+      <c r="AR334">
+        <v>1.12</v>
+      </c>
+      <c r="AS334">
+        <v>1.22</v>
+      </c>
+      <c r="AT334">
+        <v>2.34</v>
+      </c>
+      <c r="AU334">
+        <v>6</v>
+      </c>
+      <c r="AV334">
+        <v>4</v>
+      </c>
+      <c r="AW334">
+        <v>5</v>
+      </c>
+      <c r="AX334">
+        <v>4</v>
+      </c>
+      <c r="AY334">
+        <v>14</v>
+      </c>
+      <c r="AZ334">
+        <v>10</v>
+      </c>
+      <c r="BA334">
+        <v>1</v>
+      </c>
+      <c r="BB334">
+        <v>4</v>
+      </c>
+      <c r="BC334">
+        <v>5</v>
+      </c>
+      <c r="BD334">
+        <v>2.38</v>
+      </c>
+      <c r="BE334">
+        <v>5.6</v>
+      </c>
+      <c r="BF334">
+        <v>1.88</v>
+      </c>
+      <c r="BG334">
+        <v>1.45</v>
+      </c>
+      <c r="BH334">
+        <v>2.52</v>
+      </c>
+      <c r="BI334">
+        <v>1.82</v>
+      </c>
+      <c r="BJ334">
+        <v>1.85</v>
+      </c>
+      <c r="BK334">
+        <v>2.45</v>
+      </c>
+      <c r="BL334">
+        <v>1.47</v>
+      </c>
+      <c r="BM334">
+        <v>3.4</v>
+      </c>
+      <c r="BN334">
+        <v>1.26</v>
+      </c>
+      <c r="BO334">
+        <v>4.65</v>
+      </c>
+      <c r="BP334">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:68">
+      <c r="A335" s="1">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>7345436</v>
+      </c>
+      <c r="C335" t="s">
+        <v>68</v>
+      </c>
+      <c r="D335" t="s">
+        <v>69</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45622.88541666666</v>
+      </c>
+      <c r="F335">
+        <v>24</v>
+      </c>
+      <c r="G335" t="s">
+        <v>83</v>
+      </c>
+      <c r="H335" t="s">
+        <v>89</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335">
+        <v>2</v>
+      </c>
+      <c r="K335">
+        <v>3</v>
+      </c>
+      <c r="L335">
+        <v>2</v>
+      </c>
+      <c r="M335">
+        <v>3</v>
+      </c>
+      <c r="N335">
+        <v>5</v>
+      </c>
+      <c r="O335" t="s">
+        <v>277</v>
+      </c>
+      <c r="P335" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q335">
+        <v>3.75</v>
+      </c>
+      <c r="R335">
+        <v>1.8</v>
+      </c>
+      <c r="S335">
+        <v>3.75</v>
+      </c>
+      <c r="T335">
+        <v>1.57</v>
+      </c>
+      <c r="U335">
+        <v>2.25</v>
+      </c>
+      <c r="V335">
+        <v>3.75</v>
+      </c>
+      <c r="W335">
+        <v>1.25</v>
+      </c>
+      <c r="X335">
+        <v>13</v>
+      </c>
+      <c r="Y335">
+        <v>1.04</v>
+      </c>
+      <c r="Z335">
+        <v>2.8</v>
+      </c>
+      <c r="AA335">
+        <v>2.88</v>
+      </c>
+      <c r="AB335">
+        <v>2.88</v>
+      </c>
+      <c r="AC335">
+        <v>1.09</v>
+      </c>
+      <c r="AD335">
+        <v>6.71</v>
+      </c>
+      <c r="AE335">
+        <v>1.47</v>
+      </c>
+      <c r="AF335">
+        <v>2.39</v>
+      </c>
+      <c r="AG335">
+        <v>3.1</v>
+      </c>
+      <c r="AH335">
+        <v>1.36</v>
+      </c>
+      <c r="AI335">
+        <v>2.38</v>
+      </c>
+      <c r="AJ335">
+        <v>1.53</v>
+      </c>
+      <c r="AK335">
+        <v>1.35</v>
+      </c>
+      <c r="AL335">
+        <v>1.33</v>
+      </c>
+      <c r="AM335">
+        <v>1.6</v>
+      </c>
+      <c r="AN335">
+        <v>1.57</v>
+      </c>
+      <c r="AO335">
+        <v>1.7</v>
+      </c>
+      <c r="AP335">
+        <v>1.5</v>
+      </c>
+      <c r="AQ335">
+        <v>1.75</v>
+      </c>
+      <c r="AR335">
+        <v>1.37</v>
+      </c>
+      <c r="AS335">
+        <v>1.38</v>
+      </c>
+      <c r="AT335">
+        <v>2.75</v>
+      </c>
+      <c r="AU335">
+        <v>7</v>
+      </c>
+      <c r="AV335">
+        <v>5</v>
+      </c>
+      <c r="AW335">
+        <v>5</v>
+      </c>
+      <c r="AX335">
+        <v>6</v>
+      </c>
+      <c r="AY335">
+        <v>19</v>
+      </c>
+      <c r="AZ335">
+        <v>11</v>
+      </c>
+      <c r="BA335">
+        <v>5</v>
+      </c>
+      <c r="BB335">
+        <v>4</v>
+      </c>
+      <c r="BC335">
+        <v>9</v>
+      </c>
+      <c r="BD335">
+        <v>1.54</v>
+      </c>
+      <c r="BE335">
+        <v>6.4</v>
+      </c>
+      <c r="BF335">
+        <v>2.55</v>
+      </c>
+      <c r="BG335">
+        <v>1.5</v>
+      </c>
+      <c r="BH335">
+        <v>2.38</v>
+      </c>
+      <c r="BI335">
+        <v>1.73</v>
+      </c>
+      <c r="BJ335">
+        <v>2</v>
+      </c>
+      <c r="BK335">
+        <v>2.35</v>
+      </c>
+      <c r="BL335">
+        <v>1.5</v>
+      </c>
+      <c r="BM335">
+        <v>3.15</v>
+      </c>
+      <c r="BN335">
+        <v>1.3</v>
+      </c>
+      <c r="BO335">
+        <v>4.1</v>
+      </c>
+      <c r="BP335">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -69184,13 +69184,13 @@
         <v>3</v>
       </c>
       <c r="AW329">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX329">
         <v>9</v>
       </c>
       <c r="AY329">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ329">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1104,6 +1104,18 @@
   <si>
     <t>['30', '45+3', '61']</t>
   </si>
+  <si>
+    <t>['30', '82']</t>
+  </si>
+  <si>
+    <t>['4', '9']</t>
+  </si>
+  <si>
+    <t>['48', '90']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
 </sst>
 </file>
 
@@ -1464,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP335"/>
+  <dimension ref="A1:BP339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2010,7 +2022,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ3">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3037,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ8">
         <v>1.17</v>
@@ -3246,7 +3258,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3452,7 +3464,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3655,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3861,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -4482,7 +4494,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4891,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -6127,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ23">
         <v>1.71</v>
@@ -6539,10 +6551,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6745,7 +6757,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.38</v>
@@ -6951,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ27">
         <v>1.25</v>
@@ -7157,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ28">
         <v>1.08</v>
@@ -7572,7 +7584,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ30">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7778,7 +7790,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7981,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ32">
         <v>1.17</v>
@@ -8187,10 +8199,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ33">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -8396,7 +8408,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -9426,7 +9438,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10247,7 +10259,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10659,7 +10671,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ45">
         <v>1.08</v>
@@ -11071,10 +11083,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ47">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11689,7 +11701,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.25</v>
@@ -11895,7 +11907,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ51">
         <v>1.04</v>
@@ -12101,7 +12113,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
         <v>1.21</v>
@@ -12925,7 +12937,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13134,7 +13146,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ57">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13546,7 +13558,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ59">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13958,7 +13970,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -14164,7 +14176,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -14370,7 +14382,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ63">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14779,10 +14791,10 @@
         <v>2.5</v>
       </c>
       <c r="AP65">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ65">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR65">
         <v>1.55</v>
@@ -15400,7 +15412,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -16839,7 +16851,7 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ75">
         <v>1.38</v>
@@ -17045,7 +17057,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ76">
         <v>1.04</v>
@@ -17251,7 +17263,7 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17457,7 +17469,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ78">
         <v>1.21</v>
@@ -17663,7 +17675,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ79">
         <v>1.5</v>
@@ -17869,10 +17881,10 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -18075,7 +18087,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -19108,7 +19120,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -19932,7 +19944,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ90">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20138,7 +20150,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ91">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -20344,7 +20356,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ92">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20753,10 +20765,10 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -21577,7 +21589,7 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21783,7 +21795,7 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ99">
         <v>1.71</v>
@@ -21989,7 +22001,7 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -22195,7 +22207,7 @@
         <v>1.43</v>
       </c>
       <c r="AP101">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101">
         <v>1.33</v>
@@ -22401,7 +22413,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22607,7 +22619,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
         <v>1.04</v>
@@ -23846,7 +23858,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ109">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -24049,7 +24061,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ110">
         <v>1.21</v>
@@ -24258,7 +24270,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR111">
         <v>1.59</v>
@@ -24464,7 +24476,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ112">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR112">
         <v>1.1</v>
@@ -24670,7 +24682,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -25494,7 +25506,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
         <v>1.13</v>
@@ -25700,7 +25712,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR118">
         <v>1.2</v>
@@ -25906,7 +25918,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR119">
         <v>1.57</v>
@@ -26112,7 +26124,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ120">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR120">
         <v>1.12</v>
@@ -26521,7 +26533,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ122">
         <v>1.25</v>
@@ -27142,7 +27154,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ125">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27348,7 +27360,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR126">
         <v>1.25</v>
@@ -27760,7 +27772,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR128">
         <v>1.12</v>
@@ -28169,7 +28181,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ130">
         <v>1.5</v>
@@ -28375,7 +28387,7 @@
         <v>1.11</v>
       </c>
       <c r="AP131">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ131">
         <v>1.33</v>
@@ -28581,7 +28593,7 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ132">
         <v>1.5</v>
@@ -28787,7 +28799,7 @@
         <v>1.22</v>
       </c>
       <c r="AP133">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -29199,7 +29211,7 @@
         <v>2.11</v>
       </c>
       <c r="AP135">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ135">
         <v>1.71</v>
@@ -29817,7 +29829,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ138">
         <v>1.88</v>
@@ -30023,7 +30035,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ139">
         <v>1.38</v>
@@ -30644,7 +30656,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -30847,7 +30859,7 @@
         <v>0.4</v>
       </c>
       <c r="AP143">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ143">
         <v>1.17</v>
@@ -31056,7 +31068,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR144">
         <v>1.16</v>
@@ -31262,7 +31274,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR145">
         <v>1.45</v>
@@ -31880,7 +31892,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ148">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR148">
         <v>1.18</v>
@@ -32086,7 +32098,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ149">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32498,7 +32510,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ151">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -33116,7 +33128,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ154">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -34349,7 +34361,7 @@
         <v>1.82</v>
       </c>
       <c r="AP160">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ160">
         <v>1.75</v>
@@ -34555,7 +34567,7 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ161">
         <v>1.21</v>
@@ -34761,7 +34773,7 @@
         <v>1.27</v>
       </c>
       <c r="AP162">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ162">
         <v>1.38</v>
@@ -34967,7 +34979,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ163">
         <v>1</v>
@@ -35176,7 +35188,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ164">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR164">
         <v>1.15</v>
@@ -35585,7 +35597,7 @@
         <v>2</v>
       </c>
       <c r="AP166">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ166">
         <v>1.5</v>
@@ -35791,7 +35803,7 @@
         <v>1.27</v>
       </c>
       <c r="AP167">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ167">
         <v>1.33</v>
@@ -35997,7 +36009,7 @@
         <v>1.55</v>
       </c>
       <c r="AP168">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ168">
         <v>1.46</v>
@@ -36206,7 +36218,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ169">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR169">
         <v>1.13</v>
@@ -36824,7 +36836,7 @@
         <v>1</v>
       </c>
       <c r="AQ172">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR172">
         <v>1.29</v>
@@ -37236,7 +37248,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ174">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR174">
         <v>1.37</v>
@@ -37442,7 +37454,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ175">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR175">
         <v>1.16</v>
@@ -37854,7 +37866,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR177">
         <v>1.31</v>
@@ -38060,7 +38072,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ178">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38266,7 +38278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR179">
         <v>1.48</v>
@@ -38469,7 +38481,7 @@
         <v>1.75</v>
       </c>
       <c r="AP180">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ180">
         <v>1.38</v>
@@ -39499,7 +39511,7 @@
         <v>1.77</v>
       </c>
       <c r="AP185">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ185">
         <v>1.5</v>
@@ -39705,7 +39717,7 @@
         <v>1.92</v>
       </c>
       <c r="AP186">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ186">
         <v>1.5</v>
@@ -39911,7 +39923,7 @@
         <v>2.08</v>
       </c>
       <c r="AP187">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ187">
         <v>1.88</v>
@@ -40117,7 +40129,7 @@
         <v>1.62</v>
       </c>
       <c r="AP188">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ188">
         <v>1.46</v>
@@ -40323,7 +40335,7 @@
         <v>1.23</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ189">
         <v>1.38</v>
@@ -40735,7 +40747,7 @@
         <v>1.15</v>
       </c>
       <c r="AP191">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ191">
         <v>1.38</v>
@@ -41147,7 +41159,7 @@
         <v>1.77</v>
       </c>
       <c r="AP193">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ193">
         <v>1.75</v>
@@ -41562,7 +41574,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ195">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR195">
         <v>1.18</v>
@@ -42386,7 +42398,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ199">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR199">
         <v>1.17</v>
@@ -43004,7 +43016,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ202">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR202">
         <v>1.28</v>
@@ -43416,7 +43428,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ204">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR204">
         <v>1.23</v>
@@ -43622,7 +43634,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ205">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -43828,7 +43840,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR206">
         <v>1.41</v>
@@ -44034,7 +44046,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ207">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR207">
         <v>1.29</v>
@@ -44446,7 +44458,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ209">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR209">
         <v>1.33</v>
@@ -44649,7 +44661,7 @@
         <v>1.29</v>
       </c>
       <c r="AP210">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ210">
         <v>1.29</v>
@@ -45267,10 +45279,10 @@
         <v>1.13</v>
       </c>
       <c r="AP213">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ213">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45473,7 +45485,7 @@
         <v>0.8</v>
       </c>
       <c r="AP214">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ214">
         <v>1.13</v>
@@ -45885,7 +45897,7 @@
         <v>1.4</v>
       </c>
       <c r="AP216">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ216">
         <v>1.46</v>
@@ -46297,7 +46309,7 @@
         <v>1.8</v>
       </c>
       <c r="AP218">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ218">
         <v>1.75</v>
@@ -46915,7 +46927,7 @@
         <v>1.27</v>
       </c>
       <c r="AP221">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ221">
         <v>1.38</v>
@@ -47121,7 +47133,7 @@
         <v>1.47</v>
       </c>
       <c r="AP222">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ222">
         <v>1.33</v>
@@ -47533,7 +47545,7 @@
         <v>2.2</v>
       </c>
       <c r="AP224">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ224">
         <v>1.88</v>
@@ -48154,7 +48166,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ227">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR227">
         <v>1.33</v>
@@ -48566,7 +48578,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR229">
         <v>1.39</v>
@@ -48772,7 +48784,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR230">
         <v>1.3</v>
@@ -49184,7 +49196,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ232">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR232">
         <v>1.31</v>
@@ -49390,7 +49402,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ233">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR233">
         <v>1.3</v>
@@ -50005,10 +50017,10 @@
         <v>1.25</v>
       </c>
       <c r="AP236">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ236">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -50214,7 +50226,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR237">
         <v>1.27</v>
@@ -50626,7 +50638,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ239">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR239">
         <v>1.23</v>
@@ -51447,7 +51459,7 @@
         <v>1.29</v>
       </c>
       <c r="AP243">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ243">
         <v>1.38</v>
@@ -51653,7 +51665,7 @@
         <v>2.12</v>
       </c>
       <c r="AP244">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ244">
         <v>1.88</v>
@@ -51859,7 +51871,7 @@
         <v>0.88</v>
       </c>
       <c r="AP245">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ245">
         <v>1.13</v>
@@ -52065,7 +52077,7 @@
         <v>1.24</v>
       </c>
       <c r="AP246">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ246">
         <v>1.38</v>
@@ -52889,10 +52901,10 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ250">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR250">
         <v>1.27</v>
@@ -53095,7 +53107,7 @@
         <v>1.65</v>
       </c>
       <c r="AP251">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ251">
         <v>1.38</v>
@@ -53507,7 +53519,7 @@
         <v>0.71</v>
       </c>
       <c r="AP253">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ253">
         <v>0.83</v>
@@ -53716,7 +53728,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ254">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR254">
         <v>1.13</v>
@@ -53922,7 +53934,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ255">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR255">
         <v>1.28</v>
@@ -54128,7 +54140,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ256">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR256">
         <v>1.32</v>
@@ -54746,7 +54758,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ259">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR259">
         <v>1.34</v>
@@ -54952,7 +54964,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ260">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR260">
         <v>1.12</v>
@@ -55361,10 +55373,10 @@
         <v>1.56</v>
       </c>
       <c r="AP262">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ262">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR262">
         <v>1.27</v>
@@ -55776,7 +55788,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ264">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR264">
         <v>1.47</v>
@@ -56597,7 +56609,7 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ268">
         <v>1.29</v>
@@ -57009,7 +57021,7 @@
         <v>0.68</v>
       </c>
       <c r="AP270">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ270">
         <v>0.83</v>
@@ -57424,7 +57436,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ272">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR272">
         <v>1.28</v>
@@ -58451,10 +58463,10 @@
         <v>1.11</v>
       </c>
       <c r="AP277">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ277">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR277">
         <v>1.61</v>
@@ -58657,7 +58669,7 @@
         <v>0.84</v>
       </c>
       <c r="AP278">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ278">
         <v>1.13</v>
@@ -59069,7 +59081,7 @@
         <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ280">
         <v>1.38</v>
@@ -59275,7 +59287,7 @@
         <v>1.32</v>
       </c>
       <c r="AP281">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ281">
         <v>1.46</v>
@@ -59690,7 +59702,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ283">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR283">
         <v>1.09</v>
@@ -59893,10 +59905,10 @@
         <v>1.4</v>
       </c>
       <c r="AP284">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ284">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR284">
         <v>1.29</v>
@@ -60720,7 +60732,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ288">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR288">
         <v>1.15</v>
@@ -60923,10 +60935,10 @@
         <v>1.3</v>
       </c>
       <c r="AP289">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ289">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR289">
         <v>1.24</v>
@@ -61338,7 +61350,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ291">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR291">
         <v>1.32</v>
@@ -61544,7 +61556,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ292">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR292">
         <v>1.33</v>
@@ -62777,10 +62789,10 @@
         <v>1.19</v>
       </c>
       <c r="AP298">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ298">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AR298">
         <v>1.25</v>
@@ -63192,7 +63204,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ300">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AR300">
         <v>1.26</v>
@@ -63395,7 +63407,7 @@
         <v>0.76</v>
       </c>
       <c r="AP301">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AQ301">
         <v>0.83</v>
@@ -63807,7 +63819,7 @@
         <v>1.19</v>
       </c>
       <c r="AP303">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AQ303">
         <v>1.29</v>
@@ -64425,7 +64437,7 @@
         <v>1.38</v>
       </c>
       <c r="AP306">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ306">
         <v>1.38</v>
@@ -64840,7 +64852,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ308">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR308">
         <v>1.46</v>
@@ -65043,7 +65055,7 @@
         <v>1.38</v>
       </c>
       <c r="AP309">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ309">
         <v>1.38</v>
@@ -65249,10 +65261,10 @@
         <v>1.68</v>
       </c>
       <c r="AP310">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ310">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="AR310">
         <v>1.26</v>
@@ -65455,7 +65467,7 @@
         <v>1.18</v>
       </c>
       <c r="AP311">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AQ311">
         <v>1.25</v>
@@ -66694,7 +66706,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ317">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AR317">
         <v>1.41</v>
@@ -66897,10 +66909,10 @@
         <v>1.14</v>
       </c>
       <c r="AP318">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="AQ318">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR318">
         <v>1.49</v>
@@ -67312,7 +67324,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ320">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR320">
         <v>1.13</v>
@@ -67930,7 +67942,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ323">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AR323">
         <v>1.12</v>
@@ -68548,7 +68560,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ326">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="AR326">
         <v>1.19</v>
@@ -69163,7 +69175,7 @@
         <v>1.13</v>
       </c>
       <c r="AP329">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AQ329">
         <v>1.13</v>
@@ -69372,7 +69384,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ330">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR330">
         <v>1.26</v>
@@ -69575,7 +69587,7 @@
         <v>1.22</v>
       </c>
       <c r="AP331">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ331">
         <v>1.29</v>
@@ -70478,6 +70490,830 @@
       </c>
       <c r="BP335">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="336" spans="1:68">
+      <c r="A336" s="1">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>7345451</v>
+      </c>
+      <c r="C336" t="s">
+        <v>68</v>
+      </c>
+      <c r="D336" t="s">
+        <v>69</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45625.79166666666</v>
+      </c>
+      <c r="F336">
+        <v>25</v>
+      </c>
+      <c r="G336" t="s">
+        <v>92</v>
+      </c>
+      <c r="H336" t="s">
+        <v>79</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>1</v>
+      </c>
+      <c r="K336">
+        <v>1</v>
+      </c>
+      <c r="L336">
+        <v>0</v>
+      </c>
+      <c r="M336">
+        <v>2</v>
+      </c>
+      <c r="N336">
+        <v>2</v>
+      </c>
+      <c r="O336" t="s">
+        <v>102</v>
+      </c>
+      <c r="P336" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q336">
+        <v>3</v>
+      </c>
+      <c r="R336">
+        <v>1.83</v>
+      </c>
+      <c r="S336">
+        <v>5</v>
+      </c>
+      <c r="T336">
+        <v>1.67</v>
+      </c>
+      <c r="U336">
+        <v>2.1</v>
+      </c>
+      <c r="V336">
+        <v>4.33</v>
+      </c>
+      <c r="W336">
+        <v>1.2</v>
+      </c>
+      <c r="X336">
+        <v>15</v>
+      </c>
+      <c r="Y336">
+        <v>1.03</v>
+      </c>
+      <c r="Z336">
+        <v>2.15</v>
+      </c>
+      <c r="AA336">
+        <v>2.9</v>
+      </c>
+      <c r="AB336">
+        <v>4</v>
+      </c>
+      <c r="AC336">
+        <v>1.13</v>
+      </c>
+      <c r="AD336">
+        <v>5.7</v>
+      </c>
+      <c r="AE336">
+        <v>1.65</v>
+      </c>
+      <c r="AF336">
+        <v>2.15</v>
+      </c>
+      <c r="AG336">
+        <v>3.1</v>
+      </c>
+      <c r="AH336">
+        <v>1.36</v>
+      </c>
+      <c r="AI336">
+        <v>2.38</v>
+      </c>
+      <c r="AJ336">
+        <v>1.53</v>
+      </c>
+      <c r="AK336">
+        <v>1.28</v>
+      </c>
+      <c r="AL336">
+        <v>1.36</v>
+      </c>
+      <c r="AM336">
+        <v>1.66</v>
+      </c>
+      <c r="AN336">
+        <v>1.22</v>
+      </c>
+      <c r="AO336">
+        <v>1.29</v>
+      </c>
+      <c r="AP336">
+        <v>1.17</v>
+      </c>
+      <c r="AQ336">
+        <v>1.36</v>
+      </c>
+      <c r="AR336">
+        <v>1.25</v>
+      </c>
+      <c r="AS336">
+        <v>1.23</v>
+      </c>
+      <c r="AT336">
+        <v>2.48</v>
+      </c>
+      <c r="AU336">
+        <v>5</v>
+      </c>
+      <c r="AV336">
+        <v>7</v>
+      </c>
+      <c r="AW336">
+        <v>11</v>
+      </c>
+      <c r="AX336">
+        <v>1</v>
+      </c>
+      <c r="AY336">
+        <v>21</v>
+      </c>
+      <c r="AZ336">
+        <v>9</v>
+      </c>
+      <c r="BA336">
+        <v>13</v>
+      </c>
+      <c r="BB336">
+        <v>3</v>
+      </c>
+      <c r="BC336">
+        <v>16</v>
+      </c>
+      <c r="BD336">
+        <v>1.63</v>
+      </c>
+      <c r="BE336">
+        <v>6.1</v>
+      </c>
+      <c r="BF336">
+        <v>2.43</v>
+      </c>
+      <c r="BG336">
+        <v>1.48</v>
+      </c>
+      <c r="BH336">
+        <v>2.43</v>
+      </c>
+      <c r="BI336">
+        <v>1.79</v>
+      </c>
+      <c r="BJ336">
+        <v>1.9</v>
+      </c>
+      <c r="BK336">
+        <v>2.05</v>
+      </c>
+      <c r="BL336">
+        <v>1.7</v>
+      </c>
+      <c r="BM336">
+        <v>2.95</v>
+      </c>
+      <c r="BN336">
+        <v>1.33</v>
+      </c>
+      <c r="BO336">
+        <v>3.95</v>
+      </c>
+      <c r="BP336">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:68">
+      <c r="A337" s="1">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>7345452</v>
+      </c>
+      <c r="C337" t="s">
+        <v>68</v>
+      </c>
+      <c r="D337" t="s">
+        <v>69</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45625.875</v>
+      </c>
+      <c r="F337">
+        <v>25</v>
+      </c>
+      <c r="G337" t="s">
+        <v>93</v>
+      </c>
+      <c r="H337" t="s">
+        <v>76</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>2</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+      <c r="L337">
+        <v>1</v>
+      </c>
+      <c r="M337">
+        <v>2</v>
+      </c>
+      <c r="N337">
+        <v>3</v>
+      </c>
+      <c r="O337" t="s">
+        <v>264</v>
+      </c>
+      <c r="P337" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q337">
+        <v>4.33</v>
+      </c>
+      <c r="R337">
+        <v>1.95</v>
+      </c>
+      <c r="S337">
+        <v>3</v>
+      </c>
+      <c r="T337">
+        <v>1.55</v>
+      </c>
+      <c r="U337">
+        <v>2.34</v>
+      </c>
+      <c r="V337">
+        <v>3.52</v>
+      </c>
+      <c r="W337">
+        <v>1.26</v>
+      </c>
+      <c r="X337">
+        <v>10</v>
+      </c>
+      <c r="Y337">
+        <v>1.04</v>
+      </c>
+      <c r="Z337">
+        <v>3.75</v>
+      </c>
+      <c r="AA337">
+        <v>2.9</v>
+      </c>
+      <c r="AB337">
+        <v>2.2</v>
+      </c>
+      <c r="AC337">
+        <v>1.08</v>
+      </c>
+      <c r="AD337">
+        <v>7.15</v>
+      </c>
+      <c r="AE337">
+        <v>1.47</v>
+      </c>
+      <c r="AF337">
+        <v>2.62</v>
+      </c>
+      <c r="AG337">
+        <v>2.4</v>
+      </c>
+      <c r="AH337">
+        <v>1.53</v>
+      </c>
+      <c r="AI337">
+        <v>2.05</v>
+      </c>
+      <c r="AJ337">
+        <v>1.7</v>
+      </c>
+      <c r="AK337">
+        <v>1.63</v>
+      </c>
+      <c r="AL337">
+        <v>1.33</v>
+      </c>
+      <c r="AM337">
+        <v>1.33</v>
+      </c>
+      <c r="AN337">
+        <v>1.35</v>
+      </c>
+      <c r="AO337">
+        <v>1.57</v>
+      </c>
+      <c r="AP337">
+        <v>1.29</v>
+      </c>
+      <c r="AQ337">
+        <v>1.63</v>
+      </c>
+      <c r="AR337">
+        <v>1.49</v>
+      </c>
+      <c r="AS337">
+        <v>1.71</v>
+      </c>
+      <c r="AT337">
+        <v>3.2</v>
+      </c>
+      <c r="AU337">
+        <v>12</v>
+      </c>
+      <c r="AV337">
+        <v>5</v>
+      </c>
+      <c r="AW337">
+        <v>10</v>
+      </c>
+      <c r="AX337">
+        <v>3</v>
+      </c>
+      <c r="AY337">
+        <v>26</v>
+      </c>
+      <c r="AZ337">
+        <v>9</v>
+      </c>
+      <c r="BA337">
+        <v>4</v>
+      </c>
+      <c r="BB337">
+        <v>3</v>
+      </c>
+      <c r="BC337">
+        <v>7</v>
+      </c>
+      <c r="BD337">
+        <v>1.98</v>
+      </c>
+      <c r="BE337">
+        <v>6.4</v>
+      </c>
+      <c r="BF337">
+        <v>1.9</v>
+      </c>
+      <c r="BG337">
+        <v>1.3</v>
+      </c>
+      <c r="BH337">
+        <v>3.05</v>
+      </c>
+      <c r="BI337">
+        <v>1.54</v>
+      </c>
+      <c r="BJ337">
+        <v>2.3</v>
+      </c>
+      <c r="BK337">
+        <v>1.88</v>
+      </c>
+      <c r="BL337">
+        <v>1.81</v>
+      </c>
+      <c r="BM337">
+        <v>2.33</v>
+      </c>
+      <c r="BN337">
+        <v>1.52</v>
+      </c>
+      <c r="BO337">
+        <v>3</v>
+      </c>
+      <c r="BP337">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="338" spans="1:68">
+      <c r="A338" s="1">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>7345453</v>
+      </c>
+      <c r="C338" t="s">
+        <v>68</v>
+      </c>
+      <c r="D338" t="s">
+        <v>69</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45626.8125</v>
+      </c>
+      <c r="F338">
+        <v>25</v>
+      </c>
+      <c r="G338" t="s">
+        <v>94</v>
+      </c>
+      <c r="H338" t="s">
+        <v>95</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>0</v>
+      </c>
+      <c r="M338">
+        <v>2</v>
+      </c>
+      <c r="N338">
+        <v>2</v>
+      </c>
+      <c r="O338" t="s">
+        <v>102</v>
+      </c>
+      <c r="P338" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q338">
+        <v>4</v>
+      </c>
+      <c r="R338">
+        <v>1.91</v>
+      </c>
+      <c r="S338">
+        <v>3.25</v>
+      </c>
+      <c r="T338">
+        <v>1.57</v>
+      </c>
+      <c r="U338">
+        <v>2.25</v>
+      </c>
+      <c r="V338">
+        <v>3.75</v>
+      </c>
+      <c r="W338">
+        <v>1.25</v>
+      </c>
+      <c r="X338">
+        <v>13</v>
+      </c>
+      <c r="Y338">
+        <v>1.04</v>
+      </c>
+      <c r="Z338">
+        <v>3.3</v>
+      </c>
+      <c r="AA338">
+        <v>3</v>
+      </c>
+      <c r="AB338">
+        <v>2.35</v>
+      </c>
+      <c r="AC338">
+        <v>1.09</v>
+      </c>
+      <c r="AD338">
+        <v>6.71</v>
+      </c>
+      <c r="AE338">
+        <v>1.5</v>
+      </c>
+      <c r="AF338">
+        <v>2.4</v>
+      </c>
+      <c r="AG338">
+        <v>2.7</v>
+      </c>
+      <c r="AH338">
+        <v>1.44</v>
+      </c>
+      <c r="AI338">
+        <v>2.2</v>
+      </c>
+      <c r="AJ338">
+        <v>1.62</v>
+      </c>
+      <c r="AK338">
+        <v>1.52</v>
+      </c>
+      <c r="AL338">
+        <v>1.33</v>
+      </c>
+      <c r="AM338">
+        <v>1.42</v>
+      </c>
+      <c r="AN338">
+        <v>1.21</v>
+      </c>
+      <c r="AO338">
+        <v>1.74</v>
+      </c>
+      <c r="AP338">
+        <v>1.16</v>
+      </c>
+      <c r="AQ338">
+        <v>1.79</v>
+      </c>
+      <c r="AR338">
+        <v>1.24</v>
+      </c>
+      <c r="AS338">
+        <v>1.51</v>
+      </c>
+      <c r="AT338">
+        <v>2.75</v>
+      </c>
+      <c r="AU338">
+        <v>2</v>
+      </c>
+      <c r="AV338">
+        <v>7</v>
+      </c>
+      <c r="AW338">
+        <v>9</v>
+      </c>
+      <c r="AX338">
+        <v>8</v>
+      </c>
+      <c r="AY338">
+        <v>12</v>
+      </c>
+      <c r="AZ338">
+        <v>17</v>
+      </c>
+      <c r="BA338">
+        <v>6</v>
+      </c>
+      <c r="BB338">
+        <v>3</v>
+      </c>
+      <c r="BC338">
+        <v>9</v>
+      </c>
+      <c r="BD338">
+        <v>2.08</v>
+      </c>
+      <c r="BE338">
+        <v>5.8</v>
+      </c>
+      <c r="BF338">
+        <v>1.84</v>
+      </c>
+      <c r="BG338">
+        <v>1.49</v>
+      </c>
+      <c r="BH338">
+        <v>2.4</v>
+      </c>
+      <c r="BI338">
+        <v>1.7</v>
+      </c>
+      <c r="BJ338">
+        <v>2.05</v>
+      </c>
+      <c r="BK338">
+        <v>2.33</v>
+      </c>
+      <c r="BL338">
+        <v>1.52</v>
+      </c>
+      <c r="BM338">
+        <v>3.05</v>
+      </c>
+      <c r="BN338">
+        <v>1.32</v>
+      </c>
+      <c r="BO338">
+        <v>4.1</v>
+      </c>
+      <c r="BP338">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="339" spans="1:68">
+      <c r="A339" s="1">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>7345447</v>
+      </c>
+      <c r="C339" t="s">
+        <v>68</v>
+      </c>
+      <c r="D339" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45626.8125</v>
+      </c>
+      <c r="F339">
+        <v>25</v>
+      </c>
+      <c r="G339" t="s">
+        <v>90</v>
+      </c>
+      <c r="H339" t="s">
+        <v>80</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>0</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="N339">
+        <v>1</v>
+      </c>
+      <c r="O339" t="s">
+        <v>102</v>
+      </c>
+      <c r="P339" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q339">
+        <v>4.5</v>
+      </c>
+      <c r="R339">
+        <v>1.83</v>
+      </c>
+      <c r="S339">
+        <v>3.25</v>
+      </c>
+      <c r="T339">
+        <v>1.57</v>
+      </c>
+      <c r="U339">
+        <v>2.25</v>
+      </c>
+      <c r="V339">
+        <v>3.75</v>
+      </c>
+      <c r="W339">
+        <v>1.25</v>
+      </c>
+      <c r="X339">
+        <v>13</v>
+      </c>
+      <c r="Y339">
+        <v>1.04</v>
+      </c>
+      <c r="Z339">
+        <v>3.6</v>
+      </c>
+      <c r="AA339">
+        <v>2.88</v>
+      </c>
+      <c r="AB339">
+        <v>2.35</v>
+      </c>
+      <c r="AC339">
+        <v>1.1</v>
+      </c>
+      <c r="AD339">
+        <v>6.6</v>
+      </c>
+      <c r="AE339">
+        <v>1.5</v>
+      </c>
+      <c r="AF339">
+        <v>2.4</v>
+      </c>
+      <c r="AG339">
+        <v>3.1</v>
+      </c>
+      <c r="AH339">
+        <v>1.36</v>
+      </c>
+      <c r="AI339">
+        <v>2.25</v>
+      </c>
+      <c r="AJ339">
+        <v>1.57</v>
+      </c>
+      <c r="AK339">
+        <v>1.52</v>
+      </c>
+      <c r="AL339">
+        <v>1.35</v>
+      </c>
+      <c r="AM339">
+        <v>1.42</v>
+      </c>
+      <c r="AN339">
+        <v>0.96</v>
+      </c>
+      <c r="AO339">
+        <v>1.21</v>
+      </c>
+      <c r="AP339">
+        <v>0.92</v>
+      </c>
+      <c r="AQ339">
+        <v>1.28</v>
+      </c>
+      <c r="AR339">
+        <v>1.2</v>
+      </c>
+      <c r="AS339">
+        <v>1.39</v>
+      </c>
+      <c r="AT339">
+        <v>2.59</v>
+      </c>
+      <c r="AU339">
+        <v>2</v>
+      </c>
+      <c r="AV339">
+        <v>5</v>
+      </c>
+      <c r="AW339">
+        <v>12</v>
+      </c>
+      <c r="AX339">
+        <v>4</v>
+      </c>
+      <c r="AY339">
+        <v>16</v>
+      </c>
+      <c r="AZ339">
+        <v>11</v>
+      </c>
+      <c r="BA339">
+        <v>7</v>
+      </c>
+      <c r="BB339">
+        <v>2</v>
+      </c>
+      <c r="BC339">
+        <v>9</v>
+      </c>
+      <c r="BD339">
+        <v>1.68</v>
+      </c>
+      <c r="BE339">
+        <v>6.25</v>
+      </c>
+      <c r="BF339">
+        <v>2.32</v>
+      </c>
+      <c r="BG339">
+        <v>1.38</v>
+      </c>
+      <c r="BH339">
+        <v>2.7</v>
+      </c>
+      <c r="BI339">
+        <v>1.66</v>
+      </c>
+      <c r="BJ339">
+        <v>2.06</v>
+      </c>
+      <c r="BK339">
+        <v>2.05</v>
+      </c>
+      <c r="BL339">
+        <v>1.7</v>
+      </c>
+      <c r="BM339">
+        <v>2.65</v>
+      </c>
+      <c r="BN339">
+        <v>1.41</v>
+      </c>
+      <c r="BO339">
+        <v>3.45</v>
+      </c>
+      <c r="BP339">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="370">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -850,6 +850,12 @@
     <t>['5', '90']</t>
   </si>
   <si>
+    <t>['64', '69']</t>
+  </si>
+  <si>
+    <t>['38', '41']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1115,6 +1121,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP339"/>
+  <dimension ref="A1:BP341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1744,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1816,7 +1825,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ2">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1941,7 +1950,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2434,7 +2443,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2559,7 +2568,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2637,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ6">
         <v>0.83</v>
@@ -2765,7 +2774,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3461,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ10">
         <v>1.17</v>
@@ -3589,7 +3598,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3795,7 +3804,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4700,7 +4709,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ16">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -5109,7 +5118,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5237,7 +5246,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5315,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ19">
         <v>1.5</v>
@@ -6061,7 +6070,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6267,7 +6276,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6473,7 +6482,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6760,7 +6769,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -6885,7 +6894,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7503,7 +7512,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7581,7 +7590,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ30">
         <v>1.16</v>
@@ -7709,7 +7718,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7915,7 +7924,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8614,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -9026,7 +9035,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR37">
         <v>1.37</v>
@@ -10262,7 +10271,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -11211,7 +11220,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11495,7 +11504,7 @@
         <v>2.33</v>
       </c>
       <c r="AP49">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -12116,7 +12125,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12319,7 +12328,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ53">
         <v>1.38</v>
@@ -12447,7 +12456,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13143,7 +13152,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ57">
         <v>1.16</v>
@@ -13477,7 +13486,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13683,7 +13692,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13967,7 +13976,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ61">
         <v>1.63</v>
@@ -14507,7 +14516,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14588,7 +14597,7 @@
         <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR64">
         <v>1.34</v>
@@ -15824,7 +15833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -15949,7 +15958,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16439,7 +16448,7 @@
         <v>1.2</v>
       </c>
       <c r="AP73">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16773,7 +16782,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16854,7 +16863,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16979,7 +16988,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17185,7 +17194,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17472,7 +17481,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ78">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17597,7 +17606,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17803,7 +17812,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18215,7 +18224,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18627,7 +18636,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -18705,7 +18714,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>1.46</v>
@@ -18911,7 +18920,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ85">
         <v>1.08</v>
@@ -19738,7 +19747,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -20069,7 +20078,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20147,7 +20156,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ91">
         <v>1.63</v>
@@ -20481,7 +20490,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20687,7 +20696,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20974,7 +20983,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -22335,7 +22344,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22825,7 +22834,7 @@
         <v>1.33</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104">
         <v>1.46</v>
@@ -23159,7 +23168,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23237,7 +23246,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106">
         <v>1.38</v>
@@ -23365,7 +23374,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23446,7 +23455,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -23571,7 +23580,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -24064,7 +24073,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR110">
         <v>1.26</v>
@@ -24601,7 +24610,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24888,7 +24897,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR114">
         <v>1.13</v>
@@ -25091,7 +25100,7 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ115">
         <v>1.08</v>
@@ -25219,7 +25228,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25300,7 +25309,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -26455,7 +26464,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26661,7 +26670,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26945,7 +26954,7 @@
         <v>0.13</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ124">
         <v>1.17</v>
@@ -27769,7 +27778,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ128">
         <v>1.28</v>
@@ -27897,7 +27906,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28103,7 +28112,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28309,7 +28318,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -29417,7 +29426,7 @@
         <v>1.22</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ136">
         <v>1.38</v>
@@ -29626,7 +29635,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.11</v>
@@ -29751,7 +29760,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29957,7 +29966,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30163,7 +30172,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30244,7 +30253,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ140">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -31193,7 +31202,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31480,7 +31489,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR146">
         <v>1.18</v>
@@ -31811,7 +31820,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -32841,7 +32850,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32919,10 +32928,10 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ153">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR153">
         <v>1.22</v>
@@ -33125,7 +33134,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ154">
         <v>0.92</v>
@@ -33253,7 +33262,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33459,7 +33468,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33537,7 +33546,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ156">
         <v>1.04</v>
@@ -33949,10 +33958,10 @@
         <v>0.73</v>
       </c>
       <c r="AP158">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -34077,7 +34086,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34570,7 +34579,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ161">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -35313,7 +35322,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35725,7 +35734,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36424,7 +36433,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ170">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR170">
         <v>1.37</v>
@@ -36627,7 +36636,7 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ171">
         <v>0.83</v>
@@ -37373,7 +37382,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37579,7 +37588,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37785,7 +37794,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38403,7 +38412,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38484,7 +38493,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ180">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR180">
         <v>1.24</v>
@@ -38815,7 +38824,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -38893,7 +38902,7 @@
         <v>0.5</v>
       </c>
       <c r="AP182">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ182">
         <v>1.17</v>
@@ -39099,7 +39108,7 @@
         <v>1.85</v>
       </c>
       <c r="AP183">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ183">
         <v>1.71</v>
@@ -39308,7 +39317,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR184">
         <v>1.15</v>
@@ -39433,7 +39442,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39639,7 +39648,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40257,7 +40266,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40875,7 +40884,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -40953,7 +40962,7 @@
         <v>1.08</v>
       </c>
       <c r="AP192">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ192">
         <v>1.04</v>
@@ -41081,7 +41090,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41493,7 +41502,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41780,7 +41789,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ196">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR196">
         <v>1.08</v>
@@ -41986,7 +41995,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ197">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR197">
         <v>1.52</v>
@@ -42192,7 +42201,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR198">
         <v>1.44</v>
@@ -42601,7 +42610,7 @@
         <v>0.57</v>
       </c>
       <c r="AP200">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
         <v>0.83</v>
@@ -43013,7 +43022,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ202">
         <v>1.17</v>
@@ -43759,7 +43768,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -44171,7 +44180,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44789,7 +44798,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -44867,7 +44876,7 @@
         <v>1.07</v>
       </c>
       <c r="AP211">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -44995,7 +45004,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45076,7 +45085,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ212">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR212">
         <v>1.08</v>
@@ -45488,7 +45497,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ214">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -45613,7 +45622,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -45691,7 +45700,7 @@
         <v>1.8</v>
       </c>
       <c r="AP215">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ215">
         <v>1.71</v>
@@ -46025,7 +46034,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46231,7 +46240,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46849,7 +46858,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -47673,7 +47682,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47879,7 +47888,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -48291,7 +48300,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48372,7 +48381,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ228">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR228">
         <v>1.48</v>
@@ -48497,7 +48506,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q229">
         <v>3.4</v>
@@ -48781,7 +48790,7 @@
         <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ230">
         <v>1.17</v>
@@ -48990,7 +48999,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ231">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR231">
         <v>1.1</v>
@@ -49733,7 +49742,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49939,7 +49948,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50223,7 +50232,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ237">
         <v>1.16</v>
@@ -50351,7 +50360,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50557,7 +50566,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50635,7 +50644,7 @@
         <v>1.06</v>
       </c>
       <c r="AP239">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ239">
         <v>1.17</v>
@@ -50841,7 +50850,7 @@
         <v>1.53</v>
       </c>
       <c r="AP240">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ240">
         <v>1.5</v>
@@ -51381,7 +51390,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51793,7 +51802,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51874,7 +51883,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ245">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR245">
         <v>1.55</v>
@@ -51999,7 +52008,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52411,7 +52420,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -53029,7 +53038,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53110,7 +53119,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ251">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR251">
         <v>1.53</v>
@@ -53313,7 +53322,7 @@
         <v>1.18</v>
       </c>
       <c r="AP252">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ252">
         <v>1</v>
@@ -53931,7 +53940,7 @@
         <v>1.44</v>
       </c>
       <c r="AP255">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ255">
         <v>1.63</v>
@@ -54137,7 +54146,7 @@
         <v>1.28</v>
       </c>
       <c r="AP256">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ256">
         <v>1.16</v>
@@ -54552,7 +54561,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ258">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR258">
         <v>1.14</v>
@@ -55089,7 +55098,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55582,7 +55591,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ263">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR263">
         <v>1.2</v>
@@ -56119,7 +56128,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56943,7 +56952,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57149,7 +57158,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57227,7 +57236,7 @@
         <v>1.53</v>
       </c>
       <c r="AP271">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ271">
         <v>1.5</v>
@@ -57973,7 +57982,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58257,7 +58266,7 @@
         <v>1.68</v>
       </c>
       <c r="AP276">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ276">
         <v>1.75</v>
@@ -58591,7 +58600,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58672,7 +58681,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ278">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR278">
         <v>1.18</v>
@@ -59084,7 +59093,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ280">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR280">
         <v>1.54</v>
@@ -59621,7 +59630,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60445,7 +60454,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60651,7 +60660,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60857,7 +60866,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61063,7 +61072,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61144,7 +61153,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ290">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR290">
         <v>1.25</v>
@@ -61269,7 +61278,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61347,7 +61356,7 @@
         <v>1.5</v>
       </c>
       <c r="AP291">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ291">
         <v>1.63</v>
@@ -61475,7 +61484,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61681,7 +61690,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -61759,7 +61768,7 @@
         <v>1.15</v>
       </c>
       <c r="AP293">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ293">
         <v>1.08</v>
@@ -61968,7 +61977,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ294">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR294">
         <v>1.2</v>
@@ -62711,7 +62720,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -63535,7 +63544,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63613,7 +63622,7 @@
         <v>1.57</v>
       </c>
       <c r="AP302">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ302">
         <v>1.75</v>
@@ -63741,7 +63750,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63947,7 +63956,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64153,7 +64162,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64231,7 +64240,7 @@
         <v>2</v>
       </c>
       <c r="AP305">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ305">
         <v>1.88</v>
@@ -64565,7 +64574,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64646,7 +64655,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ307">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR307">
         <v>1.26</v>
@@ -65058,7 +65067,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ309">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR309">
         <v>1.23</v>
@@ -65183,7 +65192,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65595,7 +65604,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -65673,10 +65682,10 @@
         <v>1.41</v>
       </c>
       <c r="AP312">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AQ312">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AR312">
         <v>1.36</v>
@@ -65882,7 +65891,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ313">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AR313">
         <v>1.2</v>
@@ -66085,7 +66094,7 @@
         <v>1.18</v>
       </c>
       <c r="AP314">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ314">
         <v>1.08</v>
@@ -66213,7 +66222,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66419,7 +66428,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66831,7 +66840,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -68148,7 +68157,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ324">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR324">
         <v>1.24</v>
@@ -68557,7 +68566,7 @@
         <v>0.96</v>
       </c>
       <c r="AP326">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="AQ326">
         <v>0.92</v>
@@ -68969,7 +68978,7 @@
         <v>1.91</v>
       </c>
       <c r="AP328">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AQ328">
         <v>1.88</v>
@@ -69178,7 +69187,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ329">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AR329">
         <v>1.36</v>
@@ -69303,7 +69312,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69509,7 +69518,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69921,7 +69930,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70333,7 +70342,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70539,7 +70548,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70745,7 +70754,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -70951,7 +70960,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71050,16 +71059,16 @@
         <v>7</v>
       </c>
       <c r="AW338">
+        <v>6</v>
+      </c>
+      <c r="AX338">
+        <v>6</v>
+      </c>
+      <c r="AY338">
         <v>9</v>
       </c>
-      <c r="AX338">
-        <v>8</v>
-      </c>
-      <c r="AY338">
-        <v>12</v>
-      </c>
       <c r="AZ338">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA338">
         <v>6</v>
@@ -71157,7 +71166,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q339">
         <v>4.5</v>
@@ -71256,16 +71265,16 @@
         <v>5</v>
       </c>
       <c r="AW339">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AX339">
         <v>4</v>
       </c>
       <c r="AY339">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ339">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA339">
         <v>7</v>
@@ -71314,6 +71323,418 @@
       </c>
       <c r="BP339">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="340" spans="1:68">
+      <c r="A340" s="1">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>7345448</v>
+      </c>
+      <c r="C340" t="s">
+        <v>68</v>
+      </c>
+      <c r="D340" t="s">
+        <v>69</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45626.90625</v>
+      </c>
+      <c r="F340">
+        <v>25</v>
+      </c>
+      <c r="G340" t="s">
+        <v>86</v>
+      </c>
+      <c r="H340" t="s">
+        <v>78</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>1</v>
+      </c>
+      <c r="K340">
+        <v>1</v>
+      </c>
+      <c r="L340">
+        <v>2</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="N340">
+        <v>3</v>
+      </c>
+      <c r="O340" t="s">
+        <v>278</v>
+      </c>
+      <c r="P340" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q340">
+        <v>2.5</v>
+      </c>
+      <c r="R340">
+        <v>2.05</v>
+      </c>
+      <c r="S340">
+        <v>5</v>
+      </c>
+      <c r="T340">
+        <v>1.5</v>
+      </c>
+      <c r="U340">
+        <v>2.5</v>
+      </c>
+      <c r="V340">
+        <v>3.5</v>
+      </c>
+      <c r="W340">
+        <v>1.29</v>
+      </c>
+      <c r="X340">
+        <v>11</v>
+      </c>
+      <c r="Y340">
+        <v>1.05</v>
+      </c>
+      <c r="Z340">
+        <v>1.8</v>
+      </c>
+      <c r="AA340">
+        <v>3.5</v>
+      </c>
+      <c r="AB340">
+        <v>4.75</v>
+      </c>
+      <c r="AC340">
+        <v>1.07</v>
+      </c>
+      <c r="AD340">
+        <v>7.61</v>
+      </c>
+      <c r="AE340">
+        <v>1.45</v>
+      </c>
+      <c r="AF340">
+        <v>2.66</v>
+      </c>
+      <c r="AG340">
+        <v>2.3</v>
+      </c>
+      <c r="AH340">
+        <v>1.6</v>
+      </c>
+      <c r="AI340">
+        <v>2.05</v>
+      </c>
+      <c r="AJ340">
+        <v>1.7</v>
+      </c>
+      <c r="AK340">
+        <v>1.15</v>
+      </c>
+      <c r="AL340">
+        <v>1.26</v>
+      </c>
+      <c r="AM340">
+        <v>2.2</v>
+      </c>
+      <c r="AN340">
+        <v>1.38</v>
+      </c>
+      <c r="AO340">
+        <v>1.38</v>
+      </c>
+      <c r="AP340">
+        <v>1.44</v>
+      </c>
+      <c r="AQ340">
+        <v>1.32</v>
+      </c>
+      <c r="AR340">
+        <v>1.29</v>
+      </c>
+      <c r="AS340">
+        <v>1.19</v>
+      </c>
+      <c r="AT340">
+        <v>2.48</v>
+      </c>
+      <c r="AU340">
+        <v>5</v>
+      </c>
+      <c r="AV340">
+        <v>4</v>
+      </c>
+      <c r="AW340">
+        <v>4</v>
+      </c>
+      <c r="AX340">
+        <v>6</v>
+      </c>
+      <c r="AY340">
+        <v>18</v>
+      </c>
+      <c r="AZ340">
+        <v>11</v>
+      </c>
+      <c r="BA340">
+        <v>4</v>
+      </c>
+      <c r="BB340">
+        <v>2</v>
+      </c>
+      <c r="BC340">
+        <v>6</v>
+      </c>
+      <c r="BD340">
+        <v>1.38</v>
+      </c>
+      <c r="BE340">
+        <v>6.75</v>
+      </c>
+      <c r="BF340">
+        <v>3.15</v>
+      </c>
+      <c r="BG340">
+        <v>1.38</v>
+      </c>
+      <c r="BH340">
+        <v>2.7</v>
+      </c>
+      <c r="BI340">
+        <v>1.66</v>
+      </c>
+      <c r="BJ340">
+        <v>2.07</v>
+      </c>
+      <c r="BK340">
+        <v>2.05</v>
+      </c>
+      <c r="BL340">
+        <v>1.67</v>
+      </c>
+      <c r="BM340">
+        <v>2.65</v>
+      </c>
+      <c r="BN340">
+        <v>1.41</v>
+      </c>
+      <c r="BO340">
+        <v>3.45</v>
+      </c>
+      <c r="BP340">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:68">
+      <c r="A341" s="1">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>7345446</v>
+      </c>
+      <c r="C341" t="s">
+        <v>68</v>
+      </c>
+      <c r="D341" t="s">
+        <v>69</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45626.90625</v>
+      </c>
+      <c r="F341">
+        <v>25</v>
+      </c>
+      <c r="G341" t="s">
+        <v>85</v>
+      </c>
+      <c r="H341" t="s">
+        <v>74</v>
+      </c>
+      <c r="I341">
+        <v>2</v>
+      </c>
+      <c r="J341">
+        <v>1</v>
+      </c>
+      <c r="K341">
+        <v>3</v>
+      </c>
+      <c r="L341">
+        <v>2</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="N341">
+        <v>3</v>
+      </c>
+      <c r="O341" t="s">
+        <v>279</v>
+      </c>
+      <c r="P341" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q341">
+        <v>2.5</v>
+      </c>
+      <c r="R341">
+        <v>2.1</v>
+      </c>
+      <c r="S341">
+        <v>5</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
+        <v>2.5</v>
+      </c>
+      <c r="V341">
+        <v>3.5</v>
+      </c>
+      <c r="W341">
+        <v>1.29</v>
+      </c>
+      <c r="X341">
+        <v>11</v>
+      </c>
+      <c r="Y341">
+        <v>1.05</v>
+      </c>
+      <c r="Z341">
+        <v>1.83</v>
+      </c>
+      <c r="AA341">
+        <v>3.6</v>
+      </c>
+      <c r="AB341">
+        <v>4.33</v>
+      </c>
+      <c r="AC341">
+        <v>1.06</v>
+      </c>
+      <c r="AD341">
+        <v>8.09</v>
+      </c>
+      <c r="AE341">
+        <v>1.43</v>
+      </c>
+      <c r="AF341">
+        <v>2.76</v>
+      </c>
+      <c r="AG341">
+        <v>2.08</v>
+      </c>
+      <c r="AH341">
+        <v>1.73</v>
+      </c>
+      <c r="AI341">
+        <v>1.95</v>
+      </c>
+      <c r="AJ341">
+        <v>1.8</v>
+      </c>
+      <c r="AK341">
+        <v>1.25</v>
+      </c>
+      <c r="AL341">
+        <v>1.28</v>
+      </c>
+      <c r="AM341">
+        <v>1.85</v>
+      </c>
+      <c r="AN341">
+        <v>1.13</v>
+      </c>
+      <c r="AO341">
+        <v>1.21</v>
+      </c>
+      <c r="AP341">
+        <v>1.2</v>
+      </c>
+      <c r="AQ341">
+        <v>1.16</v>
+      </c>
+      <c r="AR341">
+        <v>1.39</v>
+      </c>
+      <c r="AS341">
+        <v>1.2</v>
+      </c>
+      <c r="AT341">
+        <v>2.59</v>
+      </c>
+      <c r="AU341">
+        <v>3</v>
+      </c>
+      <c r="AV341">
+        <v>5</v>
+      </c>
+      <c r="AW341">
+        <v>0</v>
+      </c>
+      <c r="AX341">
+        <v>7</v>
+      </c>
+      <c r="AY341">
+        <v>7</v>
+      </c>
+      <c r="AZ341">
+        <v>15</v>
+      </c>
+      <c r="BA341">
+        <v>0</v>
+      </c>
+      <c r="BB341">
+        <v>6</v>
+      </c>
+      <c r="BC341">
+        <v>6</v>
+      </c>
+      <c r="BD341">
+        <v>1.58</v>
+      </c>
+      <c r="BE341">
+        <v>6.1</v>
+      </c>
+      <c r="BF341">
+        <v>2.48</v>
+      </c>
+      <c r="BG341">
+        <v>1.4</v>
+      </c>
+      <c r="BH341">
+        <v>2.65</v>
+      </c>
+      <c r="BI341">
+        <v>1.7</v>
+      </c>
+      <c r="BJ341">
+        <v>2</v>
+      </c>
+      <c r="BK341">
+        <v>2.1</v>
+      </c>
+      <c r="BL341">
+        <v>1.64</v>
+      </c>
+      <c r="BM341">
+        <v>2.7</v>
+      </c>
+      <c r="BN341">
+        <v>1.38</v>
+      </c>
+      <c r="BO341">
+        <v>3.55</v>
+      </c>
+      <c r="BP341">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -859,6 +859,12 @@
     <t>['4', '44']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['7', '30']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1121,9 +1127,6 @@
   </si>
   <si>
     <t>['48', '90']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['18']</t>
@@ -1488,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP343"/>
+  <dimension ref="A1:BP349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1750,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1953,7 +1956,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2031,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ3">
         <v>1.16</v>
@@ -2240,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2443,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5">
         <v>1.2</v>
@@ -2571,7 +2574,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2652,7 +2655,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ6">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2777,7 +2780,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2858,7 +2861,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3267,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ9">
         <v>1.29</v>
@@ -3601,7 +3604,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3807,7 +3810,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3888,7 +3891,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4091,10 +4094,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ13">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4297,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ14">
         <v>1.92</v>
@@ -4503,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>0.92</v>
@@ -4709,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ16">
         <v>1.16</v>
@@ -5124,7 +5127,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -5249,7 +5252,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5330,7 +5333,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR19">
         <v>1.17</v>
@@ -5533,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5739,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ21">
         <v>1.44</v>
@@ -5945,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6073,7 +6076,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6154,7 +6157,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ23">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR23">
         <v>0.71</v>
@@ -6279,7 +6282,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6360,7 +6363,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ24">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6485,7 +6488,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6897,7 +6900,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6978,7 +6981,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ27">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -7184,7 +7187,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ28">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7515,7 +7518,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7721,7 +7724,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7799,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ31">
         <v>1.79</v>
@@ -7927,7 +7930,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8417,7 +8420,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ34">
         <v>1.63</v>
@@ -8829,10 +8832,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -9035,7 +9038,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ37">
         <v>1.44</v>
@@ -9244,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9447,7 +9450,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ39">
         <v>0.92</v>
@@ -9859,10 +9862,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -10065,10 +10068,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ42">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -10480,7 +10483,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10686,7 +10689,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ45">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10889,10 +10892,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ46">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -11223,7 +11226,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11304,7 +11307,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR48">
         <v>1.05</v>
@@ -11510,7 +11513,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR49">
         <v>1.11</v>
@@ -11716,7 +11719,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ50">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR50">
         <v>2.19</v>
@@ -12459,7 +12462,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12537,10 +12540,10 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12743,10 +12746,10 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>0.9399999999999999</v>
@@ -13361,7 +13364,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ58">
         <v>1.12</v>
@@ -13489,7 +13492,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13695,7 +13698,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13773,10 +13776,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -14185,7 +14188,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ62">
         <v>1.36</v>
@@ -14519,7 +14522,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -15009,7 +15012,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ66">
         <v>1.92</v>
@@ -15215,10 +15218,10 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ67">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -15421,7 +15424,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>1.17</v>
@@ -15627,10 +15630,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15833,7 +15836,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ70">
         <v>1.2</v>
@@ -15961,7 +15964,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16039,10 +16042,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16245,10 +16248,10 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -16657,7 +16660,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16785,7 +16788,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16991,7 +16994,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17197,7 +17200,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17278,7 +17281,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ77">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17609,7 +17612,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17690,7 +17693,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17815,7 +17818,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18102,7 +18105,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR81">
         <v>1.85</v>
@@ -18227,7 +18230,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18308,7 +18311,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18514,7 +18517,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR83">
         <v>1.22</v>
@@ -18639,7 +18642,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -18720,7 +18723,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR84">
         <v>1.27</v>
@@ -18926,7 +18929,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ85">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19129,7 +19132,7 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ86">
         <v>1.17</v>
@@ -19338,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19544,7 +19547,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -19747,7 +19750,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>1.2</v>
@@ -20081,7 +20084,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20365,7 +20368,7 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ92">
         <v>1.29</v>
@@ -20493,7 +20496,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20571,7 +20574,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>1.92</v>
@@ -20699,7 +20702,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20983,7 +20986,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ95">
         <v>1.44</v>
@@ -21189,7 +21192,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ96">
         <v>1.12</v>
@@ -21395,7 +21398,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ97">
         <v>1.44</v>
@@ -21810,7 +21813,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ99">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -22016,7 +22019,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -22222,7 +22225,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR101">
         <v>1.73</v>
@@ -22347,7 +22350,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22428,7 +22431,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR102">
         <v>1.71</v>
@@ -22840,7 +22843,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ104">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR104">
         <v>1.17</v>
@@ -23043,10 +23046,10 @@
         <v>1.43</v>
       </c>
       <c r="AP105">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -23171,7 +23174,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23252,7 +23255,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23377,7 +23380,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23455,7 +23458,7 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ107">
         <v>1.32</v>
@@ -23583,7 +23586,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23867,7 +23870,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ109">
         <v>1.28</v>
@@ -24279,7 +24282,7 @@
         <v>1.29</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ111">
         <v>1.16</v>
@@ -24485,7 +24488,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ112">
         <v>0.92</v>
@@ -24613,7 +24616,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25106,7 +25109,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ115">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR115">
         <v>1.24</v>
@@ -25231,7 +25234,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25309,7 +25312,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ116">
         <v>1.44</v>
@@ -25721,7 +25724,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ118">
         <v>1.79</v>
@@ -25927,7 +25930,7 @@
         <v>1.63</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ119">
         <v>1.63</v>
@@ -26339,10 +26342,10 @@
         <v>0.63</v>
       </c>
       <c r="AP121">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ121">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR121">
         <v>1.1</v>
@@ -26467,7 +26470,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26548,7 +26551,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ122">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26673,7 +26676,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26751,10 +26754,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ123">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
         <v>1.54</v>
@@ -27163,7 +27166,7 @@
         <v>1.13</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ125">
         <v>1.16</v>
@@ -27369,7 +27372,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ126">
         <v>0.92</v>
@@ -27575,7 +27578,7 @@
         <v>1.22</v>
       </c>
       <c r="AP127">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27909,7 +27912,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -27987,10 +27990,10 @@
         <v>1.78</v>
       </c>
       <c r="AP129">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ129">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -28115,7 +28118,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28196,7 +28199,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR130">
         <v>1.22</v>
@@ -28321,7 +28324,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28402,7 +28405,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28608,7 +28611,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -29017,10 +29020,10 @@
         <v>1.44</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ134">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR134">
         <v>1.12</v>
@@ -29226,7 +29229,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ135">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR135">
         <v>1.88</v>
@@ -29432,7 +29435,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ136">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29763,7 +29766,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29969,7 +29972,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30175,7 +30178,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30253,7 +30256,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ140">
         <v>1.16</v>
@@ -30459,10 +30462,10 @@
         <v>0.7</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR141">
         <v>1.26</v>
@@ -31205,7 +31208,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31283,7 +31286,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ145">
         <v>1.63</v>
@@ -31695,10 +31698,10 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR147">
         <v>1.36</v>
@@ -31823,7 +31826,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -31901,7 +31904,7 @@
         <v>0.78</v>
       </c>
       <c r="AP148">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ148">
         <v>1.17</v>
@@ -32107,7 +32110,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ149">
         <v>1.29</v>
@@ -32316,7 +32319,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR150">
         <v>1.11</v>
@@ -32519,7 +32522,7 @@
         <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ151">
         <v>1.36</v>
@@ -32725,10 +32728,10 @@
         <v>1.3</v>
       </c>
       <c r="AP152">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ152">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32853,7 +32856,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33265,7 +33268,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33343,10 +33346,10 @@
         <v>1.09</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ155">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33471,7 +33474,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33755,10 +33758,10 @@
         <v>2.09</v>
       </c>
       <c r="AP157">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ157">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR157">
         <v>1.57</v>
@@ -34089,7 +34092,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34167,10 +34170,10 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ159">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR159">
         <v>1.34</v>
@@ -34376,7 +34379,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ160">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR160">
         <v>1.44</v>
@@ -35325,7 +35328,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35403,7 +35406,7 @@
         <v>1.91</v>
       </c>
       <c r="AP165">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ165">
         <v>1.92</v>
@@ -35612,7 +35615,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ166">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35737,7 +35740,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -35818,7 +35821,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR167">
         <v>1.22</v>
@@ -36024,7 +36027,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ168">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -36433,7 +36436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP170">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ170">
         <v>1.32</v>
@@ -36642,7 +36645,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -37054,7 +37057,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ173">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR173">
         <v>1.28</v>
@@ -37257,7 +37260,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ174">
         <v>1.29</v>
@@ -37385,7 +37388,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37463,7 +37466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP175">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ175">
         <v>1.16</v>
@@ -37591,7 +37594,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37669,10 +37672,10 @@
         <v>1.08</v>
       </c>
       <c r="AP176">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ176">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR176">
         <v>1.25</v>
@@ -37797,7 +37800,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37875,7 +37878,7 @@
         <v>0.91</v>
       </c>
       <c r="AP177">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ177">
         <v>1.17</v>
@@ -38287,7 +38290,7 @@
         <v>1.75</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ179">
         <v>1.79</v>
@@ -38415,7 +38418,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38699,10 +38702,10 @@
         <v>1.17</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ181">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38827,7 +38830,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -39114,7 +39117,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39445,7 +39448,7 @@
         <v>207</v>
       </c>
       <c r="P185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>3.25</v>
@@ -39526,7 +39529,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ185">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR185">
         <v>1.4</v>
@@ -39651,7 +39654,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39732,7 +39735,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR186">
         <v>1.65</v>
@@ -40144,7 +40147,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ188">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR188">
         <v>1.6</v>
@@ -40269,7 +40272,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40553,10 +40556,10 @@
         <v>1.54</v>
       </c>
       <c r="AP190">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ190">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR190">
         <v>1.29</v>
@@ -40762,7 +40765,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ191">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR191">
         <v>1.53</v>
@@ -40887,7 +40890,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41093,7 +41096,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41174,7 +41177,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ193">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -41377,7 +41380,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ194">
         <v>1</v>
@@ -41505,7 +41508,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41583,7 +41586,7 @@
         <v>0.85</v>
       </c>
       <c r="AP195">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ195">
         <v>0.92</v>
@@ -41789,7 +41792,7 @@
         <v>0.85</v>
       </c>
       <c r="AP196">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ196">
         <v>1.2</v>
@@ -41995,7 +41998,7 @@
         <v>1.57</v>
       </c>
       <c r="AP197">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ197">
         <v>1.32</v>
@@ -42201,7 +42204,7 @@
         <v>1.38</v>
       </c>
       <c r="AP198">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ198">
         <v>1.16</v>
@@ -42407,7 +42410,7 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ199">
         <v>1.63</v>
@@ -42616,7 +42619,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ200">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -42822,7 +42825,7 @@
         <v>1</v>
       </c>
       <c r="AQ201">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -43234,7 +43237,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ203">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43437,7 +43440,7 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ204">
         <v>1.28</v>
@@ -43643,7 +43646,7 @@
         <v>1.71</v>
       </c>
       <c r="AP205">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ205">
         <v>1.79</v>
@@ -43771,7 +43774,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -43849,7 +43852,7 @@
         <v>1.29</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ206">
         <v>1.36</v>
@@ -44055,7 +44058,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ207">
         <v>1.16</v>
@@ -44183,7 +44186,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44676,7 +44679,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ210">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR210">
         <v>1.31</v>
@@ -44801,7 +44804,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -45007,7 +45010,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45085,7 +45088,7 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ212">
         <v>1.44</v>
@@ -45625,7 +45628,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -45706,7 +45709,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ215">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR215">
         <v>1.24</v>
@@ -45912,7 +45915,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ216">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR216">
         <v>1.21</v>
@@ -46037,7 +46040,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46118,7 +46121,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR217">
         <v>1.26</v>
@@ -46243,7 +46246,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46324,7 +46327,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ218">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR218">
         <v>1.65</v>
@@ -46530,7 +46533,7 @@
         <v>1</v>
       </c>
       <c r="AQ219">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR219">
         <v>1.22</v>
@@ -46733,10 +46736,10 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ220">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR220">
         <v>1.45</v>
@@ -46861,7 +46864,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -46942,7 +46945,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ221">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR221">
         <v>1.56</v>
@@ -47148,7 +47151,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ222">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47351,7 +47354,7 @@
         <v>1.2</v>
       </c>
       <c r="AP223">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ223">
         <v>1.44</v>
@@ -47685,7 +47688,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47763,7 +47766,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ225">
         <v>1.12</v>
@@ -47891,7 +47894,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -47969,7 +47972,7 @@
         <v>1.13</v>
       </c>
       <c r="AP226">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -48303,7 +48306,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48381,7 +48384,7 @@
         <v>1.27</v>
       </c>
       <c r="AP228">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ228">
         <v>1.16</v>
@@ -48509,7 +48512,7 @@
         <v>230</v>
       </c>
       <c r="P229" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q229">
         <v>3.4</v>
@@ -49205,7 +49208,7 @@
         <v>1.5</v>
       </c>
       <c r="AP232">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ232">
         <v>1.36</v>
@@ -49411,7 +49414,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ233">
         <v>1.63</v>
@@ -49617,10 +49620,10 @@
         <v>1.19</v>
       </c>
       <c r="AP234">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ234">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49745,7 +49748,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49823,10 +49826,10 @@
         <v>1.19</v>
       </c>
       <c r="AP235">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ235">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR235">
         <v>1.14</v>
@@ -49951,7 +49954,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50363,7 +50366,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50441,10 +50444,10 @@
         <v>1.13</v>
       </c>
       <c r="AP238">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ238">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR238">
         <v>1.41</v>
@@ -50569,7 +50572,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50856,7 +50859,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ240">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR240">
         <v>1.22</v>
@@ -51062,7 +51065,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR241">
         <v>1.2</v>
@@ -51268,7 +51271,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ242">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR242">
         <v>1.26</v>
@@ -51393,7 +51396,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51805,7 +51808,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52011,7 +52014,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52092,7 +52095,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ246">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR246">
         <v>1.21</v>
@@ -52295,10 +52298,10 @@
         <v>1.41</v>
       </c>
       <c r="AP247">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ247">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR247">
         <v>1.28</v>
@@ -52423,7 +52426,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52501,10 +52504,10 @@
         <v>1.71</v>
       </c>
       <c r="AP248">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ248">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR248">
         <v>1.44</v>
@@ -52707,10 +52710,10 @@
         <v>1.82</v>
       </c>
       <c r="AP249">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ249">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -53041,7 +53044,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53534,7 +53537,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ253">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR253">
         <v>1.33</v>
@@ -53737,7 +53740,7 @@
         <v>1.44</v>
       </c>
       <c r="AP254">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ254">
         <v>1.29</v>
@@ -54973,7 +54976,7 @@
         <v>1.17</v>
       </c>
       <c r="AP260">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ260">
         <v>1.17</v>
@@ -55101,7 +55104,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55179,10 +55182,10 @@
         <v>1.22</v>
       </c>
       <c r="AP261">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ261">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR261">
         <v>1.23</v>
@@ -55591,7 +55594,7 @@
         <v>1.5</v>
       </c>
       <c r="AP263">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ263">
         <v>1.32</v>
@@ -55797,7 +55800,7 @@
         <v>1.11</v>
       </c>
       <c r="AP264">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ264">
         <v>1.28</v>
@@ -56003,10 +56006,10 @@
         <v>1.33</v>
       </c>
       <c r="AP265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ265">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56131,7 +56134,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56209,10 +56212,10 @@
         <v>1.5</v>
       </c>
       <c r="AP266">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ266">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR266">
         <v>1.48</v>
@@ -56415,7 +56418,7 @@
         <v>1.22</v>
       </c>
       <c r="AP267">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ267">
         <v>1.12</v>
@@ -56624,7 +56627,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ268">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR268">
         <v>1.54</v>
@@ -56955,7 +56958,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57036,7 +57039,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ270">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR270">
         <v>1.27</v>
@@ -57161,7 +57164,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57242,7 +57245,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ271">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR271">
         <v>1.2</v>
@@ -57651,10 +57654,10 @@
         <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ273">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR273">
         <v>1.28</v>
@@ -57857,7 +57860,7 @@
         <v>1.11</v>
       </c>
       <c r="AP274">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -57985,7 +57988,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58063,7 +58066,7 @@
         <v>2</v>
       </c>
       <c r="AP275">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ275">
         <v>1.92</v>
@@ -58272,7 +58275,7 @@
         <v>1.32</v>
       </c>
       <c r="AQ276">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR276">
         <v>1.2</v>
@@ -58603,7 +58606,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58887,10 +58890,10 @@
         <v>1.42</v>
       </c>
       <c r="AP279">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ279">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR279">
         <v>1.28</v>
@@ -59302,7 +59305,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ281">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR281">
         <v>1.38</v>
@@ -59505,7 +59508,7 @@
         <v>1.1</v>
       </c>
       <c r="AP282">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59633,7 +59636,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59711,7 +59714,7 @@
         <v>1.2</v>
       </c>
       <c r="AP283">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ283">
         <v>1.16</v>
@@ -60123,7 +60126,7 @@
         <v>1.15</v>
       </c>
       <c r="AP285">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ285">
         <v>1.12</v>
@@ -60332,7 +60335,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ286">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR286">
         <v>1.16</v>
@@ -60457,7 +60460,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60538,7 +60541,7 @@
         <v>1</v>
       </c>
       <c r="AQ287">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR287">
         <v>1.36</v>
@@ -60663,7 +60666,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60741,7 +60744,7 @@
         <v>1.55</v>
       </c>
       <c r="AP288">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ288">
         <v>1.79</v>
@@ -60869,7 +60872,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61075,7 +61078,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61153,7 +61156,7 @@
         <v>1.4</v>
       </c>
       <c r="AP290">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ290">
         <v>1.16</v>
@@ -61281,7 +61284,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61487,7 +61490,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61565,7 +61568,7 @@
         <v>1.15</v>
       </c>
       <c r="AP292">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ292">
         <v>1.28</v>
@@ -61693,7 +61696,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -61774,7 +61777,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ293">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR293">
         <v>1.33</v>
@@ -61977,7 +61980,7 @@
         <v>1.45</v>
       </c>
       <c r="AP294">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ294">
         <v>1.32</v>
@@ -62186,7 +62189,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ295">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR295">
         <v>1.39</v>
@@ -62389,10 +62392,10 @@
         <v>1.57</v>
       </c>
       <c r="AP296">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ296">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR296">
         <v>1.4</v>
@@ -62595,7 +62598,7 @@
         <v>1</v>
       </c>
       <c r="AP297">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ297">
         <v>1</v>
@@ -62723,7 +62726,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -63007,7 +63010,7 @@
         <v>1.43</v>
       </c>
       <c r="AP299">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ299">
         <v>1.44</v>
@@ -63422,7 +63425,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ301">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR301">
         <v>1.64</v>
@@ -63547,7 +63550,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63628,7 +63631,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ302">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -63753,7 +63756,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63834,7 +63837,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ303">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR303">
         <v>1.51</v>
@@ -63959,7 +63962,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64040,7 +64043,7 @@
         <v>1</v>
       </c>
       <c r="AQ304">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR304">
         <v>1.15</v>
@@ -64165,7 +64168,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64452,7 +64455,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ306">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR306">
         <v>1.39</v>
@@ -64577,7 +64580,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64655,7 +64658,7 @@
         <v>1.05</v>
       </c>
       <c r="AP307">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ307">
         <v>1.2</v>
@@ -64861,7 +64864,7 @@
         <v>1.05</v>
       </c>
       <c r="AP308">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ308">
         <v>0.92</v>
@@ -65195,7 +65198,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65482,7 +65485,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ311">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AR311">
         <v>1.21</v>
@@ -65607,7 +65610,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -65891,7 +65894,7 @@
         <v>1.27</v>
       </c>
       <c r="AP313">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AQ313">
         <v>1.16</v>
@@ -66100,7 +66103,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ314">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AR314">
         <v>1.3</v>
@@ -66225,7 +66228,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66303,10 +66306,10 @@
         <v>1.82</v>
       </c>
       <c r="AP315">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AQ315">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AR315">
         <v>1.46</v>
@@ -66431,7 +66434,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66843,7 +66846,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -67127,10 +67130,10 @@
         <v>1.64</v>
       </c>
       <c r="AP319">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AQ319">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR319">
         <v>1.26</v>
@@ -67333,7 +67336,7 @@
         <v>1.36</v>
       </c>
       <c r="AP320">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AQ320">
         <v>1.36</v>
@@ -67539,7 +67542,7 @@
         <v>1</v>
       </c>
       <c r="AP321">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AQ321">
         <v>1</v>
@@ -67748,7 +67751,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ322">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AR322">
         <v>1.17</v>
@@ -67951,7 +67954,7 @@
         <v>1.64</v>
       </c>
       <c r="AP323">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ323">
         <v>1.63</v>
@@ -68157,7 +68160,7 @@
         <v>1.39</v>
       </c>
       <c r="AP324">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AQ324">
         <v>1.44</v>
@@ -68363,10 +68366,10 @@
         <v>1.48</v>
       </c>
       <c r="AP325">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="AQ325">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AR325">
         <v>1.23</v>
@@ -68775,10 +68778,10 @@
         <v>1.57</v>
       </c>
       <c r="AP327">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AQ327">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AR327">
         <v>1.41</v>
@@ -69315,7 +69318,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69521,7 +69524,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69602,7 +69605,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ331">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AR331">
         <v>1.2</v>
@@ -69805,10 +69808,10 @@
         <v>0.74</v>
       </c>
       <c r="AP332">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AQ332">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AR332">
         <v>1.43</v>
@@ -69933,7 +69936,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70220,7 +70223,7 @@
         <v>1</v>
       </c>
       <c r="AQ334">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AR334">
         <v>1.12</v>
@@ -70345,7 +70348,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70423,10 +70426,10 @@
         <v>1.7</v>
       </c>
       <c r="AP335">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ335">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AR335">
         <v>1.37</v>
@@ -70551,7 +70554,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70757,7 +70760,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -70963,7 +70966,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71169,7 +71172,7 @@
         <v>102</v>
       </c>
       <c r="P339" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="Q339">
         <v>4.5</v>
@@ -71581,7 +71584,7 @@
         <v>279</v>
       </c>
       <c r="P341" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -71880,19 +71883,19 @@
         <v>2.49</v>
       </c>
       <c r="AU342">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV342">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX342">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY342">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ342">
         <v>13</v>
@@ -72086,22 +72089,22 @@
         <v>2.51</v>
       </c>
       <c r="AU343">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW343">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX343">
         <v>2</v>
       </c>
       <c r="AY343">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ343">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA343">
         <v>10</v>
@@ -72150,6 +72153,1242 @@
       </c>
       <c r="BP343">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="344" spans="1:68">
+      <c r="A344" s="1">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>7345442</v>
+      </c>
+      <c r="C344" t="s">
+        <v>68</v>
+      </c>
+      <c r="D344" t="s">
+        <v>69</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45627.90625</v>
+      </c>
+      <c r="F344">
+        <v>25</v>
+      </c>
+      <c r="G344" t="s">
+        <v>97</v>
+      </c>
+      <c r="H344" t="s">
+        <v>82</v>
+      </c>
+      <c r="I344">
+        <v>1</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>1</v>
+      </c>
+      <c r="L344">
+        <v>1</v>
+      </c>
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>1</v>
+      </c>
+      <c r="O344" t="s">
+        <v>167</v>
+      </c>
+      <c r="P344" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q344">
+        <v>2.63</v>
+      </c>
+      <c r="R344">
+        <v>2</v>
+      </c>
+      <c r="S344">
+        <v>5</v>
+      </c>
+      <c r="T344">
+        <v>1.5</v>
+      </c>
+      <c r="U344">
+        <v>2.5</v>
+      </c>
+      <c r="V344">
+        <v>3.4</v>
+      </c>
+      <c r="W344">
+        <v>1.3</v>
+      </c>
+      <c r="X344">
+        <v>10</v>
+      </c>
+      <c r="Y344">
+        <v>1.06</v>
+      </c>
+      <c r="Z344">
+        <v>1.91</v>
+      </c>
+      <c r="AA344">
+        <v>3.3</v>
+      </c>
+      <c r="AB344">
+        <v>4.5</v>
+      </c>
+      <c r="AC344">
+        <v>1.06</v>
+      </c>
+      <c r="AD344">
+        <v>8.09</v>
+      </c>
+      <c r="AE344">
+        <v>1.43</v>
+      </c>
+      <c r="AF344">
+        <v>2.76</v>
+      </c>
+      <c r="AG344">
+        <v>2.35</v>
+      </c>
+      <c r="AH344">
+        <v>1.57</v>
+      </c>
+      <c r="AI344">
+        <v>2.05</v>
+      </c>
+      <c r="AJ344">
+        <v>1.7</v>
+      </c>
+      <c r="AK344">
+        <v>1.2</v>
+      </c>
+      <c r="AL344">
+        <v>1.28</v>
+      </c>
+      <c r="AM344">
+        <v>2</v>
+      </c>
+      <c r="AN344">
+        <v>1.46</v>
+      </c>
+      <c r="AO344">
+        <v>1.33</v>
+      </c>
+      <c r="AP344">
+        <v>1.52</v>
+      </c>
+      <c r="AQ344">
+        <v>1.28</v>
+      </c>
+      <c r="AR344">
+        <v>1.23</v>
+      </c>
+      <c r="AS344">
+        <v>1.42</v>
+      </c>
+      <c r="AT344">
+        <v>2.65</v>
+      </c>
+      <c r="AU344">
+        <v>5</v>
+      </c>
+      <c r="AV344">
+        <v>4</v>
+      </c>
+      <c r="AW344">
+        <v>8</v>
+      </c>
+      <c r="AX344">
+        <v>1</v>
+      </c>
+      <c r="AY344">
+        <v>17</v>
+      </c>
+      <c r="AZ344">
+        <v>5</v>
+      </c>
+      <c r="BA344">
+        <v>11</v>
+      </c>
+      <c r="BB344">
+        <v>2</v>
+      </c>
+      <c r="BC344">
+        <v>13</v>
+      </c>
+      <c r="BD344">
+        <v>1.31</v>
+      </c>
+      <c r="BE344">
+        <v>8.1</v>
+      </c>
+      <c r="BF344">
+        <v>4.15</v>
+      </c>
+      <c r="BG344">
+        <v>1.35</v>
+      </c>
+      <c r="BH344">
+        <v>3.05</v>
+      </c>
+      <c r="BI344">
+        <v>1.61</v>
+      </c>
+      <c r="BJ344">
+        <v>2.23</v>
+      </c>
+      <c r="BK344">
+        <v>2.01</v>
+      </c>
+      <c r="BL344">
+        <v>1.74</v>
+      </c>
+      <c r="BM344">
+        <v>2.63</v>
+      </c>
+      <c r="BN344">
+        <v>1.45</v>
+      </c>
+      <c r="BO344">
+        <v>3.55</v>
+      </c>
+      <c r="BP344">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:68">
+      <c r="A345" s="1">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>7345449</v>
+      </c>
+      <c r="C345" t="s">
+        <v>68</v>
+      </c>
+      <c r="D345" t="s">
+        <v>69</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45628.70833333334</v>
+      </c>
+      <c r="F345">
+        <v>25</v>
+      </c>
+      <c r="G345" t="s">
+        <v>87</v>
+      </c>
+      <c r="H345" t="s">
+        <v>77</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>0</v>
+      </c>
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345" t="s">
+        <v>102</v>
+      </c>
+      <c r="P345" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q345">
+        <v>4.33</v>
+      </c>
+      <c r="R345">
+        <v>1.83</v>
+      </c>
+      <c r="S345">
+        <v>3.2</v>
+      </c>
+      <c r="T345">
+        <v>1.53</v>
+      </c>
+      <c r="U345">
+        <v>2.38</v>
+      </c>
+      <c r="V345">
+        <v>3.75</v>
+      </c>
+      <c r="W345">
+        <v>1.25</v>
+      </c>
+      <c r="X345">
+        <v>11</v>
+      </c>
+      <c r="Y345">
+        <v>1.05</v>
+      </c>
+      <c r="Z345">
+        <v>3.7</v>
+      </c>
+      <c r="AA345">
+        <v>3</v>
+      </c>
+      <c r="AB345">
+        <v>2.25</v>
+      </c>
+      <c r="AC345">
+        <v>1.08</v>
+      </c>
+      <c r="AD345">
+        <v>7.15</v>
+      </c>
+      <c r="AE345">
+        <v>1.46</v>
+      </c>
+      <c r="AF345">
+        <v>2.65</v>
+      </c>
+      <c r="AG345">
+        <v>2.88</v>
+      </c>
+      <c r="AH345">
+        <v>1.4</v>
+      </c>
+      <c r="AI345">
+        <v>2.25</v>
+      </c>
+      <c r="AJ345">
+        <v>1.57</v>
+      </c>
+      <c r="AK345">
+        <v>1.6</v>
+      </c>
+      <c r="AL345">
+        <v>1.32</v>
+      </c>
+      <c r="AM345">
+        <v>1.36</v>
+      </c>
+      <c r="AN345">
+        <v>0.83</v>
+      </c>
+      <c r="AO345">
+        <v>1.25</v>
+      </c>
+      <c r="AP345">
+        <v>0.84</v>
+      </c>
+      <c r="AQ345">
+        <v>1.24</v>
+      </c>
+      <c r="AR345">
+        <v>1.13</v>
+      </c>
+      <c r="AS345">
+        <v>1.25</v>
+      </c>
+      <c r="AT345">
+        <v>2.38</v>
+      </c>
+      <c r="AU345">
+        <v>3</v>
+      </c>
+      <c r="AV345">
+        <v>6</v>
+      </c>
+      <c r="AW345">
+        <v>4</v>
+      </c>
+      <c r="AX345">
+        <v>6</v>
+      </c>
+      <c r="AY345">
+        <v>12</v>
+      </c>
+      <c r="AZ345">
+        <v>14</v>
+      </c>
+      <c r="BA345">
+        <v>4</v>
+      </c>
+      <c r="BB345">
+        <v>5</v>
+      </c>
+      <c r="BC345">
+        <v>9</v>
+      </c>
+      <c r="BD345">
+        <v>2.05</v>
+      </c>
+      <c r="BE345">
+        <v>5.75</v>
+      </c>
+      <c r="BF345">
+        <v>2.15</v>
+      </c>
+      <c r="BG345">
+        <v>1.37</v>
+      </c>
+      <c r="BH345">
+        <v>2.95</v>
+      </c>
+      <c r="BI345">
+        <v>1.64</v>
+      </c>
+      <c r="BJ345">
+        <v>2.17</v>
+      </c>
+      <c r="BK345">
+        <v>2.06</v>
+      </c>
+      <c r="BL345">
+        <v>1.71</v>
+      </c>
+      <c r="BM345">
+        <v>2.7</v>
+      </c>
+      <c r="BN345">
+        <v>1.43</v>
+      </c>
+      <c r="BO345">
+        <v>3.68</v>
+      </c>
+      <c r="BP345">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="346" spans="1:68">
+      <c r="A346" s="1">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>7345444</v>
+      </c>
+      <c r="C346" t="s">
+        <v>68</v>
+      </c>
+      <c r="D346" t="s">
+        <v>69</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45628.80208333334</v>
+      </c>
+      <c r="F346">
+        <v>25</v>
+      </c>
+      <c r="G346" t="s">
+        <v>88</v>
+      </c>
+      <c r="H346" t="s">
+        <v>83</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>1</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>1</v>
+      </c>
+      <c r="O346" t="s">
+        <v>281</v>
+      </c>
+      <c r="P346" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q346">
+        <v>3.25</v>
+      </c>
+      <c r="R346">
+        <v>1.73</v>
+      </c>
+      <c r="S346">
+        <v>5.5</v>
+      </c>
+      <c r="T346">
+        <v>1.67</v>
+      </c>
+      <c r="U346">
+        <v>2.1</v>
+      </c>
+      <c r="V346">
+        <v>4.5</v>
+      </c>
+      <c r="W346">
+        <v>1.18</v>
+      </c>
+      <c r="X346">
+        <v>15</v>
+      </c>
+      <c r="Y346">
+        <v>1.03</v>
+      </c>
+      <c r="Z346">
+        <v>2.2</v>
+      </c>
+      <c r="AA346">
+        <v>2.6</v>
+      </c>
+      <c r="AB346">
+        <v>4.5</v>
+      </c>
+      <c r="AC346">
+        <v>1.14</v>
+      </c>
+      <c r="AD346">
+        <v>5.38</v>
+      </c>
+      <c r="AE346">
+        <v>1.7</v>
+      </c>
+      <c r="AF346">
+        <v>2.05</v>
+      </c>
+      <c r="AG346">
+        <v>4.2</v>
+      </c>
+      <c r="AH346">
+        <v>1.22</v>
+      </c>
+      <c r="AI346">
+        <v>3</v>
+      </c>
+      <c r="AJ346">
+        <v>1.36</v>
+      </c>
+      <c r="AK346">
+        <v>1.33</v>
+      </c>
+      <c r="AL346">
+        <v>1.36</v>
+      </c>
+      <c r="AM346">
+        <v>1.58</v>
+      </c>
+      <c r="AN346">
+        <v>1.38</v>
+      </c>
+      <c r="AO346">
+        <v>1.5</v>
+      </c>
+      <c r="AP346">
+        <v>1.44</v>
+      </c>
+      <c r="AQ346">
+        <v>1.44</v>
+      </c>
+      <c r="AR346">
+        <v>1.22</v>
+      </c>
+      <c r="AS346">
+        <v>1.38</v>
+      </c>
+      <c r="AT346">
+        <v>2.6</v>
+      </c>
+      <c r="AU346">
+        <v>5</v>
+      </c>
+      <c r="AV346">
+        <v>4</v>
+      </c>
+      <c r="AW346">
+        <v>3</v>
+      </c>
+      <c r="AX346">
+        <v>5</v>
+      </c>
+      <c r="AY346">
+        <v>12</v>
+      </c>
+      <c r="AZ346">
+        <v>10</v>
+      </c>
+      <c r="BA346">
+        <v>1</v>
+      </c>
+      <c r="BB346">
+        <v>4</v>
+      </c>
+      <c r="BC346">
+        <v>5</v>
+      </c>
+      <c r="BD346">
+        <v>1.75</v>
+      </c>
+      <c r="BE346">
+        <v>5.6</v>
+      </c>
+      <c r="BF346">
+        <v>2.62</v>
+      </c>
+      <c r="BG346">
+        <v>1.65</v>
+      </c>
+      <c r="BH346">
+        <v>2.16</v>
+      </c>
+      <c r="BI346">
+        <v>2</v>
+      </c>
+      <c r="BJ346">
+        <v>1.8</v>
+      </c>
+      <c r="BK346">
+        <v>2.82</v>
+      </c>
+      <c r="BL346">
+        <v>1.4</v>
+      </c>
+      <c r="BM346">
+        <v>3.92</v>
+      </c>
+      <c r="BN346">
+        <v>1.23</v>
+      </c>
+      <c r="BO346">
+        <v>5.65</v>
+      </c>
+      <c r="BP346">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="347" spans="1:68">
+      <c r="A347" s="1">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>7345443</v>
+      </c>
+      <c r="C347" t="s">
+        <v>68</v>
+      </c>
+      <c r="D347" t="s">
+        <v>69</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45628.82291666666</v>
+      </c>
+      <c r="F347">
+        <v>25</v>
+      </c>
+      <c r="G347" t="s">
+        <v>89</v>
+      </c>
+      <c r="H347" t="s">
+        <v>73</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347" t="s">
+        <v>264</v>
+      </c>
+      <c r="P347" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q347">
+        <v>2.75</v>
+      </c>
+      <c r="R347">
+        <v>1.8</v>
+      </c>
+      <c r="S347">
+        <v>6</v>
+      </c>
+      <c r="T347">
+        <v>1.62</v>
+      </c>
+      <c r="U347">
+        <v>2.2</v>
+      </c>
+      <c r="V347">
+        <v>4</v>
+      </c>
+      <c r="W347">
+        <v>1.22</v>
+      </c>
+      <c r="X347">
+        <v>13</v>
+      </c>
+      <c r="Y347">
+        <v>1.04</v>
+      </c>
+      <c r="Z347">
+        <v>1.9</v>
+      </c>
+      <c r="AA347">
+        <v>2.88</v>
+      </c>
+      <c r="AB347">
+        <v>5.25</v>
+      </c>
+      <c r="AC347">
+        <v>1.11</v>
+      </c>
+      <c r="AD347">
+        <v>6.28</v>
+      </c>
+      <c r="AE347">
+        <v>1.57</v>
+      </c>
+      <c r="AF347">
+        <v>2.25</v>
+      </c>
+      <c r="AG347">
+        <v>3.5</v>
+      </c>
+      <c r="AH347">
+        <v>1.3</v>
+      </c>
+      <c r="AI347">
+        <v>2.75</v>
+      </c>
+      <c r="AJ347">
+        <v>1.4</v>
+      </c>
+      <c r="AK347">
+        <v>1.25</v>
+      </c>
+      <c r="AL347">
+        <v>1.32</v>
+      </c>
+      <c r="AM347">
+        <v>1.78</v>
+      </c>
+      <c r="AN347">
+        <v>1.75</v>
+      </c>
+      <c r="AO347">
+        <v>1.71</v>
+      </c>
+      <c r="AP347">
+        <v>1.8</v>
+      </c>
+      <c r="AQ347">
+        <v>1.64</v>
+      </c>
+      <c r="AR347">
+        <v>1.37</v>
+      </c>
+      <c r="AS347">
+        <v>1.21</v>
+      </c>
+      <c r="AT347">
+        <v>2.58</v>
+      </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
+      <c r="AV347">
+        <v>2</v>
+      </c>
+      <c r="AW347">
+        <v>9</v>
+      </c>
+      <c r="AX347">
+        <v>5</v>
+      </c>
+      <c r="AY347">
+        <v>18</v>
+      </c>
+      <c r="AZ347">
+        <v>8</v>
+      </c>
+      <c r="BA347">
+        <v>4</v>
+      </c>
+      <c r="BB347">
+        <v>4</v>
+      </c>
+      <c r="BC347">
+        <v>8</v>
+      </c>
+      <c r="BD347">
+        <v>1.68</v>
+      </c>
+      <c r="BE347">
+        <v>5.8</v>
+      </c>
+      <c r="BF347">
+        <v>2.78</v>
+      </c>
+      <c r="BG347">
+        <v>1.5</v>
+      </c>
+      <c r="BH347">
+        <v>2.5</v>
+      </c>
+      <c r="BI347">
+        <v>1.85</v>
+      </c>
+      <c r="BJ347">
+        <v>1.95</v>
+      </c>
+      <c r="BK347">
+        <v>2.41</v>
+      </c>
+      <c r="BL347">
+        <v>1.53</v>
+      </c>
+      <c r="BM347">
+        <v>3.25</v>
+      </c>
+      <c r="BN347">
+        <v>1.31</v>
+      </c>
+      <c r="BO347">
+        <v>4.55</v>
+      </c>
+      <c r="BP347">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:68">
+      <c r="A348" s="1">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>7345450</v>
+      </c>
+      <c r="C348" t="s">
+        <v>68</v>
+      </c>
+      <c r="D348" t="s">
+        <v>69</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45628.89583333334</v>
+      </c>
+      <c r="F348">
+        <v>25</v>
+      </c>
+      <c r="G348" t="s">
+        <v>84</v>
+      </c>
+      <c r="H348" t="s">
+        <v>71</v>
+      </c>
+      <c r="I348">
+        <v>2</v>
+      </c>
+      <c r="J348">
+        <v>1</v>
+      </c>
+      <c r="K348">
+        <v>3</v>
+      </c>
+      <c r="L348">
+        <v>2</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>3</v>
+      </c>
+      <c r="O348" t="s">
+        <v>282</v>
+      </c>
+      <c r="P348" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q348">
+        <v>4</v>
+      </c>
+      <c r="R348">
+        <v>1.8</v>
+      </c>
+      <c r="S348">
+        <v>3.6</v>
+      </c>
+      <c r="T348">
+        <v>1.62</v>
+      </c>
+      <c r="U348">
+        <v>2.2</v>
+      </c>
+      <c r="V348">
+        <v>4</v>
+      </c>
+      <c r="W348">
+        <v>1.22</v>
+      </c>
+      <c r="X348">
+        <v>13</v>
+      </c>
+      <c r="Y348">
+        <v>1.04</v>
+      </c>
+      <c r="Z348">
+        <v>3.1</v>
+      </c>
+      <c r="AA348">
+        <v>2.75</v>
+      </c>
+      <c r="AB348">
+        <v>2.7</v>
+      </c>
+      <c r="AC348">
+        <v>1.1</v>
+      </c>
+      <c r="AD348">
+        <v>6.6</v>
+      </c>
+      <c r="AE348">
+        <v>1.53</v>
+      </c>
+      <c r="AF348">
+        <v>2.37</v>
+      </c>
+      <c r="AG348">
+        <v>3.4</v>
+      </c>
+      <c r="AH348">
+        <v>1.33</v>
+      </c>
+      <c r="AI348">
+        <v>2.38</v>
+      </c>
+      <c r="AJ348">
+        <v>1.53</v>
+      </c>
+      <c r="AK348">
+        <v>1.45</v>
+      </c>
+      <c r="AL348">
+        <v>1.33</v>
+      </c>
+      <c r="AM348">
+        <v>1.48</v>
+      </c>
+      <c r="AN348">
+        <v>1.29</v>
+      </c>
+      <c r="AO348">
+        <v>1.08</v>
+      </c>
+      <c r="AP348">
+        <v>1.36</v>
+      </c>
+      <c r="AQ348">
+        <v>1.04</v>
+      </c>
+      <c r="AR348">
+        <v>1.18</v>
+      </c>
+      <c r="AS348">
+        <v>1.44</v>
+      </c>
+      <c r="AT348">
+        <v>2.62</v>
+      </c>
+      <c r="AU348">
+        <v>4</v>
+      </c>
+      <c r="AV348">
+        <v>5</v>
+      </c>
+      <c r="AW348">
+        <v>4</v>
+      </c>
+      <c r="AX348">
+        <v>9</v>
+      </c>
+      <c r="AY348">
+        <v>10</v>
+      </c>
+      <c r="AZ348">
+        <v>20</v>
+      </c>
+      <c r="BA348">
+        <v>4</v>
+      </c>
+      <c r="BB348">
+        <v>8</v>
+      </c>
+      <c r="BC348">
+        <v>12</v>
+      </c>
+      <c r="BD348">
+        <v>2.42</v>
+      </c>
+      <c r="BE348">
+        <v>5.65</v>
+      </c>
+      <c r="BF348">
+        <v>1.85</v>
+      </c>
+      <c r="BG348">
+        <v>1.49</v>
+      </c>
+      <c r="BH348">
+        <v>2.52</v>
+      </c>
+      <c r="BI348">
+        <v>1.85</v>
+      </c>
+      <c r="BJ348">
+        <v>1.95</v>
+      </c>
+      <c r="BK348">
+        <v>2.39</v>
+      </c>
+      <c r="BL348">
+        <v>1.54</v>
+      </c>
+      <c r="BM348">
+        <v>3.22</v>
+      </c>
+      <c r="BN348">
+        <v>1.32</v>
+      </c>
+      <c r="BO348">
+        <v>4.5</v>
+      </c>
+      <c r="BP348">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:68">
+      <c r="A349" s="1">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>7345441</v>
+      </c>
+      <c r="C349" t="s">
+        <v>68</v>
+      </c>
+      <c r="D349" t="s">
+        <v>69</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45628.91666666666</v>
+      </c>
+      <c r="F349">
+        <v>25</v>
+      </c>
+      <c r="G349" t="s">
+        <v>81</v>
+      </c>
+      <c r="H349" t="s">
+        <v>72</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349" t="s">
+        <v>102</v>
+      </c>
+      <c r="P349" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q349">
+        <v>2.5</v>
+      </c>
+      <c r="R349">
+        <v>2</v>
+      </c>
+      <c r="S349">
+        <v>5.5</v>
+      </c>
+      <c r="T349">
+        <v>1.53</v>
+      </c>
+      <c r="U349">
+        <v>2.38</v>
+      </c>
+      <c r="V349">
+        <v>3.75</v>
+      </c>
+      <c r="W349">
+        <v>1.25</v>
+      </c>
+      <c r="X349">
+        <v>11</v>
+      </c>
+      <c r="Y349">
+        <v>1.05</v>
+      </c>
+      <c r="Z349">
+        <v>1.83</v>
+      </c>
+      <c r="AA349">
+        <v>3.4</v>
+      </c>
+      <c r="AB349">
+        <v>4.75</v>
+      </c>
+      <c r="AC349">
+        <v>1.08</v>
+      </c>
+      <c r="AD349">
+        <v>7.15</v>
+      </c>
+      <c r="AE349">
+        <v>1.46</v>
+      </c>
+      <c r="AF349">
+        <v>2.65</v>
+      </c>
+      <c r="AG349">
+        <v>2.3</v>
+      </c>
+      <c r="AH349">
+        <v>1.6</v>
+      </c>
+      <c r="AI349">
+        <v>2.1</v>
+      </c>
+      <c r="AJ349">
+        <v>1.67</v>
+      </c>
+      <c r="AK349">
+        <v>1.19</v>
+      </c>
+      <c r="AL349">
+        <v>1.28</v>
+      </c>
+      <c r="AM349">
+        <v>2</v>
+      </c>
+      <c r="AN349">
+        <v>1.5</v>
+      </c>
+      <c r="AO349">
+        <v>1</v>
+      </c>
+      <c r="AP349">
+        <v>1.48</v>
+      </c>
+      <c r="AQ349">
+        <v>1</v>
+      </c>
+      <c r="AR349">
+        <v>1.47</v>
+      </c>
+      <c r="AS349">
+        <v>1.37</v>
+      </c>
+      <c r="AT349">
+        <v>2.84</v>
+      </c>
+      <c r="AU349">
+        <v>2</v>
+      </c>
+      <c r="AV349">
+        <v>4</v>
+      </c>
+      <c r="AW349">
+        <v>9</v>
+      </c>
+      <c r="AX349">
+        <v>6</v>
+      </c>
+      <c r="AY349">
+        <v>16</v>
+      </c>
+      <c r="AZ349">
+        <v>12</v>
+      </c>
+      <c r="BA349">
+        <v>7</v>
+      </c>
+      <c r="BB349">
+        <v>4</v>
+      </c>
+      <c r="BC349">
+        <v>11</v>
+      </c>
+      <c r="BD349">
+        <v>1.5</v>
+      </c>
+      <c r="BE349">
+        <v>6.2</v>
+      </c>
+      <c r="BF349">
+        <v>3.3</v>
+      </c>
+      <c r="BG349">
+        <v>1.33</v>
+      </c>
+      <c r="BH349">
+        <v>3.15</v>
+      </c>
+      <c r="BI349">
+        <v>1.57</v>
+      </c>
+      <c r="BJ349">
+        <v>2.31</v>
+      </c>
+      <c r="BK349">
+        <v>2</v>
+      </c>
+      <c r="BL349">
+        <v>1.8</v>
+      </c>
+      <c r="BM349">
+        <v>2.52</v>
+      </c>
+      <c r="BN349">
+        <v>1.48</v>
+      </c>
+      <c r="BO349">
+        <v>3.4</v>
+      </c>
+      <c r="BP349">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1500,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP351"/>
+  <dimension ref="A1:BP353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2458,7 +2458,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ5">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ6">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ10">
         <v>1.16</v>
@@ -5133,7 +5133,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
         <v>1.28</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ26">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR26">
         <v>1.01</v>
@@ -7605,7 +7605,7 @@
         <v>0.5</v>
       </c>
       <c r="AP30">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ30">
         <v>1.16</v>
@@ -8638,7 +8638,7 @@
         <v>1</v>
       </c>
       <c r="AQ35">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR35">
         <v>1.3</v>
@@ -9874,7 +9874,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR41">
         <v>1.52</v>
@@ -10286,7 +10286,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ43">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>2.06</v>
@@ -12343,7 +12343,7 @@
         <v>0.67</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ53">
         <v>1.44</v>
@@ -12549,7 +12549,7 @@
         <v>2.33</v>
       </c>
       <c r="AP54">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ54">
         <v>1.64</v>
@@ -13788,7 +13788,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ60">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR60">
         <v>1.73</v>
@@ -13991,7 +13991,7 @@
         <v>2.25</v>
       </c>
       <c r="AP61">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ61">
         <v>1.6</v>
@@ -15848,7 +15848,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR70">
         <v>1.69</v>
@@ -16669,7 +16669,7 @@
         <v>1.2</v>
       </c>
       <c r="AP74">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16878,7 +16878,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ75">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -18729,7 +18729,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ84">
         <v>1.52</v>
@@ -18935,7 +18935,7 @@
         <v>1.5</v>
       </c>
       <c r="AP85">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85">
         <v>1.04</v>
@@ -19556,7 +19556,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR88">
         <v>1.06</v>
@@ -19762,7 +19762,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ89">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR89">
         <v>1.46</v>
@@ -23055,7 +23055,7 @@
         <v>1.43</v>
       </c>
       <c r="AP105">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ105">
         <v>1.48</v>
@@ -23261,7 +23261,7 @@
         <v>1.14</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -23470,7 +23470,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ107">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR107">
         <v>1.16</v>
@@ -24912,7 +24912,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ114">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR114">
         <v>1.13</v>
@@ -26354,7 +26354,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ121">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR121">
         <v>1.1</v>
@@ -26969,7 +26969,7 @@
         <v>0.13</v>
       </c>
       <c r="AP124">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
         <v>1.12</v>
@@ -27793,7 +27793,7 @@
         <v>1.67</v>
       </c>
       <c r="AP128">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ128">
         <v>1.28</v>
@@ -27999,7 +27999,7 @@
         <v>1.78</v>
       </c>
       <c r="AP129">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ129">
         <v>1.8</v>
@@ -29650,7 +29650,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ137">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR137">
         <v>1.11</v>
@@ -30474,7 +30474,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ141">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR141">
         <v>1.26</v>
@@ -32946,7 +32946,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ153">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR153">
         <v>1.22</v>
@@ -33149,7 +33149,7 @@
         <v>1</v>
       </c>
       <c r="AP154">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ154">
         <v>0.92</v>
@@ -33561,7 +33561,7 @@
         <v>1.18</v>
       </c>
       <c r="AP156">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ156">
         <v>1</v>
@@ -33976,7 +33976,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ158">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR158">
         <v>1.18</v>
@@ -35415,7 +35415,7 @@
         <v>1.91</v>
       </c>
       <c r="AP165">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ165">
         <v>1.92</v>
@@ -36448,7 +36448,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ170">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR170">
         <v>1.37</v>
@@ -36651,10 +36651,10 @@
         <v>0.67</v>
       </c>
       <c r="AP171">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ171">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR171">
         <v>1.3</v>
@@ -39123,7 +39123,7 @@
         <v>1.85</v>
       </c>
       <c r="AP183">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ183">
         <v>1.64</v>
@@ -41595,7 +41595,7 @@
         <v>0.85</v>
       </c>
       <c r="AP195">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ195">
         <v>0.92</v>
@@ -41804,7 +41804,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ196">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR196">
         <v>1.08</v>
@@ -42010,7 +42010,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ197">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR197">
         <v>1.52</v>
@@ -42628,7 +42628,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ200">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR200">
         <v>1.29</v>
@@ -43037,7 +43037,7 @@
         <v>1</v>
       </c>
       <c r="AP202">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ202">
         <v>1.16</v>
@@ -44891,7 +44891,7 @@
         <v>1.07</v>
       </c>
       <c r="AP211">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -45512,7 +45512,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ214">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR214">
         <v>1.52</v>
@@ -46130,7 +46130,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ217">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR217">
         <v>1.26</v>
@@ -49014,7 +49014,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ231">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR231">
         <v>1.1</v>
@@ -49835,7 +49835,7 @@
         <v>1.19</v>
       </c>
       <c r="AP235">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ235">
         <v>1.36</v>
@@ -50247,7 +50247,7 @@
         <v>1.38</v>
       </c>
       <c r="AP237">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ237">
         <v>1.16</v>
@@ -50865,7 +50865,7 @@
         <v>1.53</v>
       </c>
       <c r="AP240">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ240">
         <v>1.48</v>
@@ -51898,7 +51898,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ245">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR245">
         <v>1.55</v>
@@ -53546,7 +53546,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ253">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR253">
         <v>1.33</v>
@@ -53749,7 +53749,7 @@
         <v>1.44</v>
       </c>
       <c r="AP254">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ254">
         <v>1.36</v>
@@ -53955,7 +53955,7 @@
         <v>1.44</v>
       </c>
       <c r="AP255">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ255">
         <v>1.6</v>
@@ -55606,7 +55606,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ263">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR263">
         <v>1.2</v>
@@ -57048,7 +57048,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ270">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR270">
         <v>1.27</v>
@@ -58281,7 +58281,7 @@
         <v>1.68</v>
       </c>
       <c r="AP276">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ276">
         <v>1.8</v>
@@ -58696,7 +58696,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ278">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR278">
         <v>1.18</v>
@@ -60753,7 +60753,7 @@
         <v>1.55</v>
       </c>
       <c r="AP288">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ288">
         <v>1.72</v>
@@ -61783,7 +61783,7 @@
         <v>1.15</v>
       </c>
       <c r="AP293">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ293">
         <v>1.04</v>
@@ -61992,7 +61992,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ294">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR294">
         <v>1.2</v>
@@ -63434,7 +63434,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ301">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR301">
         <v>1.64</v>
@@ -64255,7 +64255,7 @@
         <v>2</v>
       </c>
       <c r="AP305">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ305">
         <v>1.92</v>
@@ -64670,7 +64670,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ307">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR307">
         <v>1.26</v>
@@ -65697,10 +65697,10 @@
         <v>1.41</v>
       </c>
       <c r="AP312">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ312">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR312">
         <v>1.36</v>
@@ -67345,7 +67345,7 @@
         <v>1.36</v>
       </c>
       <c r="AP320">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ320">
         <v>1.36</v>
@@ -68581,7 +68581,7 @@
         <v>0.96</v>
       </c>
       <c r="AP326">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AQ326">
         <v>0.92</v>
@@ -69202,7 +69202,7 @@
         <v>1.28</v>
       </c>
       <c r="AQ329">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AR329">
         <v>1.36</v>
@@ -69820,7 +69820,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ332">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AR332">
         <v>1.43</v>
@@ -71468,7 +71468,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ340">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AR340">
         <v>1.29</v>
@@ -71671,7 +71671,7 @@
         <v>1.21</v>
       </c>
       <c r="AP341">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ341">
         <v>1.16</v>
@@ -72495,7 +72495,7 @@
         <v>1.25</v>
       </c>
       <c r="AP345">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AQ345">
         <v>1.24</v>
@@ -73810,6 +73810,418 @@
       </c>
       <c r="BP351">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="352" spans="1:68">
+      <c r="A352" s="1">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>7345459</v>
+      </c>
+      <c r="C352" t="s">
+        <v>68</v>
+      </c>
+      <c r="D352" t="s">
+        <v>69</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45632.70833333334</v>
+      </c>
+      <c r="F352">
+        <v>26</v>
+      </c>
+      <c r="G352" t="s">
+        <v>78</v>
+      </c>
+      <c r="H352" t="s">
+        <v>87</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>0</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352" t="s">
+        <v>102</v>
+      </c>
+      <c r="P352" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q352">
+        <v>2.63</v>
+      </c>
+      <c r="R352">
+        <v>1.95</v>
+      </c>
+      <c r="S352">
+        <v>5.5</v>
+      </c>
+      <c r="T352">
+        <v>1.5</v>
+      </c>
+      <c r="U352">
+        <v>2.5</v>
+      </c>
+      <c r="V352">
+        <v>3.4</v>
+      </c>
+      <c r="W352">
+        <v>1.3</v>
+      </c>
+      <c r="X352">
+        <v>10</v>
+      </c>
+      <c r="Y352">
+        <v>1.06</v>
+      </c>
+      <c r="Z352">
+        <v>1.83</v>
+      </c>
+      <c r="AA352">
+        <v>3.3</v>
+      </c>
+      <c r="AB352">
+        <v>4.75</v>
+      </c>
+      <c r="AC352">
+        <v>1.09</v>
+      </c>
+      <c r="AD352">
+        <v>6.83</v>
+      </c>
+      <c r="AE352">
+        <v>1.49</v>
+      </c>
+      <c r="AF352">
+        <v>2.4</v>
+      </c>
+      <c r="AG352">
+        <v>2.5</v>
+      </c>
+      <c r="AH352">
+        <v>1.5</v>
+      </c>
+      <c r="AI352">
+        <v>2.25</v>
+      </c>
+      <c r="AJ352">
+        <v>1.57</v>
+      </c>
+      <c r="AK352">
+        <v>1.19</v>
+      </c>
+      <c r="AL352">
+        <v>1.28</v>
+      </c>
+      <c r="AM352">
+        <v>1.96</v>
+      </c>
+      <c r="AN352">
+        <v>1.32</v>
+      </c>
+      <c r="AO352">
+        <v>0.84</v>
+      </c>
+      <c r="AP352">
+        <v>1.31</v>
+      </c>
+      <c r="AQ352">
+        <v>0.85</v>
+      </c>
+      <c r="AR352">
+        <v>1.19</v>
+      </c>
+      <c r="AS352">
+        <v>1.13</v>
+      </c>
+      <c r="AT352">
+        <v>2.32</v>
+      </c>
+      <c r="AU352">
+        <v>4</v>
+      </c>
+      <c r="AV352">
+        <v>5</v>
+      </c>
+      <c r="AW352">
+        <v>6</v>
+      </c>
+      <c r="AX352">
+        <v>13</v>
+      </c>
+      <c r="AY352">
+        <v>11</v>
+      </c>
+      <c r="AZ352">
+        <v>18</v>
+      </c>
+      <c r="BA352">
+        <v>3</v>
+      </c>
+      <c r="BB352">
+        <v>4</v>
+      </c>
+      <c r="BC352">
+        <v>7</v>
+      </c>
+      <c r="BD352">
+        <v>1.5</v>
+      </c>
+      <c r="BE352">
+        <v>6.2</v>
+      </c>
+      <c r="BF352">
+        <v>3.25</v>
+      </c>
+      <c r="BG352">
+        <v>1.31</v>
+      </c>
+      <c r="BH352">
+        <v>3.1</v>
+      </c>
+      <c r="BI352">
+        <v>1.55</v>
+      </c>
+      <c r="BJ352">
+        <v>2.22</v>
+      </c>
+      <c r="BK352">
+        <v>2.02</v>
+      </c>
+      <c r="BL352">
+        <v>1.68</v>
+      </c>
+      <c r="BM352">
+        <v>2.72</v>
+      </c>
+      <c r="BN352">
+        <v>1.4</v>
+      </c>
+      <c r="BO352">
+        <v>4</v>
+      </c>
+      <c r="BP352">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:68">
+      <c r="A353" s="1">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>7345462</v>
+      </c>
+      <c r="C353" t="s">
+        <v>68</v>
+      </c>
+      <c r="D353" t="s">
+        <v>69</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45632.83333333334</v>
+      </c>
+      <c r="F353">
+        <v>26</v>
+      </c>
+      <c r="G353" t="s">
+        <v>70</v>
+      </c>
+      <c r="H353" t="s">
+        <v>85</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>1</v>
+      </c>
+      <c r="K353">
+        <v>2</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>2</v>
+      </c>
+      <c r="O353" t="s">
+        <v>221</v>
+      </c>
+      <c r="P353" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q353">
+        <v>4</v>
+      </c>
+      <c r="R353">
+        <v>1.91</v>
+      </c>
+      <c r="S353">
+        <v>3.25</v>
+      </c>
+      <c r="T353">
+        <v>1.57</v>
+      </c>
+      <c r="U353">
+        <v>2.25</v>
+      </c>
+      <c r="V353">
+        <v>3.75</v>
+      </c>
+      <c r="W353">
+        <v>1.25</v>
+      </c>
+      <c r="X353">
+        <v>13</v>
+      </c>
+      <c r="Y353">
+        <v>1.04</v>
+      </c>
+      <c r="Z353">
+        <v>3.4</v>
+      </c>
+      <c r="AA353">
+        <v>2.88</v>
+      </c>
+      <c r="AB353">
+        <v>2.45</v>
+      </c>
+      <c r="AC353">
+        <v>1.1</v>
+      </c>
+      <c r="AD353">
+        <v>6.6</v>
+      </c>
+      <c r="AE353">
+        <v>1.5</v>
+      </c>
+      <c r="AF353">
+        <v>2.4</v>
+      </c>
+      <c r="AG353">
+        <v>2.6</v>
+      </c>
+      <c r="AH353">
+        <v>1.48</v>
+      </c>
+      <c r="AI353">
+        <v>2.05</v>
+      </c>
+      <c r="AJ353">
+        <v>1.7</v>
+      </c>
+      <c r="AK353">
+        <v>1.6</v>
+      </c>
+      <c r="AL353">
+        <v>1.33</v>
+      </c>
+      <c r="AM353">
+        <v>1.35</v>
+      </c>
+      <c r="AN353">
+        <v>1</v>
+      </c>
+      <c r="AO353">
+        <v>1.2</v>
+      </c>
+      <c r="AP353">
+        <v>1</v>
+      </c>
+      <c r="AQ353">
+        <v>1.19</v>
+      </c>
+      <c r="AR353">
+        <v>1.12</v>
+      </c>
+      <c r="AS353">
+        <v>1.36</v>
+      </c>
+      <c r="AT353">
+        <v>2.48</v>
+      </c>
+      <c r="AU353">
+        <v>5</v>
+      </c>
+      <c r="AV353">
+        <v>5</v>
+      </c>
+      <c r="AW353">
+        <v>10</v>
+      </c>
+      <c r="AX353">
+        <v>10</v>
+      </c>
+      <c r="AY353">
+        <v>17</v>
+      </c>
+      <c r="AZ353">
+        <v>19</v>
+      </c>
+      <c r="BA353">
+        <v>3</v>
+      </c>
+      <c r="BB353">
+        <v>5</v>
+      </c>
+      <c r="BC353">
+        <v>8</v>
+      </c>
+      <c r="BD353">
+        <v>2.32</v>
+      </c>
+      <c r="BE353">
+        <v>6.8</v>
+      </c>
+      <c r="BF353">
+        <v>1.82</v>
+      </c>
+      <c r="BG353">
+        <v>1.27</v>
+      </c>
+      <c r="BH353">
+        <v>3.35</v>
+      </c>
+      <c r="BI353">
+        <v>1.5</v>
+      </c>
+      <c r="BJ353">
+        <v>2.35</v>
+      </c>
+      <c r="BK353">
+        <v>1.92</v>
+      </c>
+      <c r="BL353">
+        <v>1.78</v>
+      </c>
+      <c r="BM353">
+        <v>2.58</v>
+      </c>
+      <c r="BN353">
+        <v>1.44</v>
+      </c>
+      <c r="BO353">
+        <v>3.55</v>
+      </c>
+      <c r="BP353">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="379">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,10 +871,19 @@
     <t>['59']</t>
   </si>
   <si>
-    <t>['53', '74']</t>
+    <t>['52', '74']</t>
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['28', '45+2', '51']</t>
+  </si>
+  <si>
+    <t>['3', '48', '68', '78']</t>
+  </si>
+  <si>
+    <t>['45+2', '69', '72', '89']</t>
   </si>
   <si>
     <t>['40', '55']</t>
@@ -1503,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP355"/>
+  <dimension ref="A1:BP359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,7 +1771,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1968,7 +1977,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2049,7 +2058,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2586,7 +2595,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2664,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ6">
         <v>0.85</v>
@@ -2792,7 +2801,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2873,7 +2882,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3076,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ8">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3616,7 +3625,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3697,7 +3706,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3822,7 +3831,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4312,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ14">
         <v>1.85</v>
@@ -4521,7 +4530,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4727,7 +4736,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ16">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR16">
         <v>0.93</v>
@@ -4930,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ17">
         <v>1.36</v>
@@ -5139,7 +5148,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ18">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR18">
         <v>1.43</v>
@@ -5264,7 +5273,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5960,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ22">
         <v>1.48</v>
@@ -6088,7 +6097,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6166,7 +6175,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ23">
         <v>1.64</v>
@@ -6294,7 +6303,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6372,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ24">
         <v>1.52</v>
@@ -6500,7 +6509,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6912,7 +6921,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -6990,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ27">
         <v>1.24</v>
@@ -7196,7 +7205,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ28">
         <v>1.04</v>
@@ -7530,7 +7539,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7611,7 +7620,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ30">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR30">
         <v>1.03</v>
@@ -7736,7 +7745,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7817,7 +7826,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ31">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7942,7 +7951,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8023,7 +8032,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ32">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -8435,7 +8444,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR34">
         <v>1.51</v>
@@ -8847,7 +8856,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR36">
         <v>1.48</v>
@@ -9462,10 +9471,10 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -10286,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ43">
         <v>1.31</v>
@@ -11110,7 +11119,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ47">
         <v>1.35</v>
@@ -11238,7 +11247,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11316,10 +11325,10 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ48">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR48">
         <v>1.05</v>
@@ -11525,7 +11534,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ49">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR49">
         <v>1.11</v>
@@ -11728,7 +11737,7 @@
         <v>0.33</v>
       </c>
       <c r="AP50">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ50">
         <v>1.24</v>
@@ -12143,7 +12152,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ52">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR52">
         <v>1.79</v>
@@ -12474,7 +12483,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12964,7 +12973,7 @@
         <v>2</v>
       </c>
       <c r="AP56">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -13170,10 +13179,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ57">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR57">
         <v>1.48</v>
@@ -13379,7 +13388,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ58">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13504,7 +13513,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13585,7 +13594,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR59">
         <v>0.95</v>
@@ -13710,7 +13719,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -13788,7 +13797,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ60">
         <v>0.85</v>
@@ -13997,7 +14006,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ61">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR61">
         <v>1.33</v>
@@ -14534,7 +14543,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14821,7 +14830,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ65">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR65">
         <v>1.55</v>
@@ -15230,7 +15239,7 @@
         <v>1.25</v>
       </c>
       <c r="AP67">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ67">
         <v>1.44</v>
@@ -15976,7 +15985,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16263,7 +16272,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ72">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR72">
         <v>1.08</v>
@@ -16800,7 +16809,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -17006,7 +17015,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17084,7 +17093,7 @@
         <v>1.4</v>
       </c>
       <c r="AP76">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17212,7 +17221,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17496,10 +17505,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ78">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR78">
         <v>1.79</v>
@@ -17624,7 +17633,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17702,7 +17711,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ79">
         <v>1.48</v>
@@ -17830,7 +17839,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17908,7 +17917,7 @@
         <v>1.6</v>
       </c>
       <c r="AP80">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ80">
         <v>1.35</v>
@@ -18242,7 +18251,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18320,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18529,7 +18538,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR83">
         <v>1.22</v>
@@ -18654,7 +18663,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -19144,7 +19153,7 @@
         <v>0.4</v>
       </c>
       <c r="AP86">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ86">
         <v>1.16</v>
@@ -19762,7 +19771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ89">
         <v>1.19</v>
@@ -19971,7 +19980,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20096,7 +20105,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20174,10 +20183,10 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ91">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR91">
         <v>1.21</v>
@@ -20508,7 +20517,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20714,7 +20723,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21207,7 +21216,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ96">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -21822,7 +21831,7 @@
         <v>2.14</v>
       </c>
       <c r="AP99">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ99">
         <v>1.64</v>
@@ -22028,10 +22037,10 @@
         <v>2</v>
       </c>
       <c r="AP100">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ100">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR100">
         <v>1.35</v>
@@ -22237,7 +22246,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR101">
         <v>1.73</v>
@@ -22362,7 +22371,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22440,7 +22449,7 @@
         <v>2.33</v>
       </c>
       <c r="AP102">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ102">
         <v>1.5</v>
@@ -22646,7 +22655,7 @@
         <v>1.43</v>
       </c>
       <c r="AP103">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
         <v>1</v>
@@ -23186,7 +23195,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23392,7 +23401,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23598,7 +23607,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23676,7 +23685,7 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ108">
         <v>1.85</v>
@@ -24091,7 +24100,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ110">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR110">
         <v>1.26</v>
@@ -24297,7 +24306,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR111">
         <v>1.59</v>
@@ -24503,7 +24512,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ112">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR112">
         <v>1.1</v>
@@ -24628,7 +24637,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25118,7 +25127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ115">
         <v>1.04</v>
@@ -25246,7 +25255,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25324,7 +25333,7 @@
         <v>1.75</v>
       </c>
       <c r="AP116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ116">
         <v>1.38</v>
@@ -25739,7 +25748,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ118">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR118">
         <v>1.2</v>
@@ -25945,7 +25954,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR119">
         <v>1.57</v>
@@ -26482,7 +26491,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26688,7 +26697,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26975,7 +26984,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ124">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27178,10 +27187,10 @@
         <v>1.13</v>
       </c>
       <c r="AP125">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ125">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR125">
         <v>1.44</v>
@@ -27387,7 +27396,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ126">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.25</v>
@@ -27924,7 +27933,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28005,7 +28014,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -28130,7 +28139,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28336,7 +28345,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28414,10 +28423,10 @@
         <v>1.11</v>
       </c>
       <c r="AP131">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ131">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28826,7 +28835,7 @@
         <v>1.22</v>
       </c>
       <c r="AP133">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -29238,7 +29247,7 @@
         <v>2.11</v>
       </c>
       <c r="AP135">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ135">
         <v>1.64</v>
@@ -29650,7 +29659,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP137">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ137">
         <v>1.19</v>
@@ -29778,7 +29787,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29856,7 +29865,7 @@
         <v>1.89</v>
       </c>
       <c r="AP138">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ138">
         <v>1.85</v>
@@ -29984,7 +29993,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30190,7 +30199,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30271,7 +30280,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ140">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR140">
         <v>1.35</v>
@@ -30683,7 +30692,7 @@
         <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -30889,7 +30898,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ143">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31095,7 +31104,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ144">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR144">
         <v>1.16</v>
@@ -31220,7 +31229,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31298,10 +31307,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ145">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR145">
         <v>1.45</v>
@@ -31710,7 +31719,7 @@
         <v>1.5</v>
       </c>
       <c r="AP147">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ147">
         <v>1.36</v>
@@ -31838,7 +31847,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -32868,7 +32877,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32946,7 +32955,7 @@
         <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ153">
         <v>1.31</v>
@@ -33155,7 +33164,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ154">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR154">
         <v>1.31</v>
@@ -33280,7 +33289,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33486,7 +33495,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -34104,7 +34113,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34391,7 +34400,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ160">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR160">
         <v>1.44</v>
@@ -34597,7 +34606,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ161">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR161">
         <v>1.35</v>
@@ -34800,7 +34809,7 @@
         <v>1.27</v>
       </c>
       <c r="AP162">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ162">
         <v>1.44</v>
@@ -35006,7 +35015,7 @@
         <v>1</v>
       </c>
       <c r="AP163">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ163">
         <v>1</v>
@@ -35212,10 +35221,10 @@
         <v>0.91</v>
       </c>
       <c r="AP164">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ164">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR164">
         <v>1.15</v>
@@ -35340,7 +35349,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35624,7 +35633,7 @@
         <v>2</v>
       </c>
       <c r="AP166">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ166">
         <v>1.48</v>
@@ -35752,7 +35761,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -35833,7 +35842,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ167">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR167">
         <v>1.22</v>
@@ -37272,7 +37281,7 @@
         <v>1.33</v>
       </c>
       <c r="AP174">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ174">
         <v>1.36</v>
@@ -37400,7 +37409,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37481,7 +37490,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ175">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR175">
         <v>1.16</v>
@@ -37606,7 +37615,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37812,7 +37821,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38099,7 +38108,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ178">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR178">
         <v>1.11</v>
@@ -38305,7 +38314,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ179">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR179">
         <v>1.48</v>
@@ -38430,7 +38439,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38508,7 +38517,7 @@
         <v>1.75</v>
       </c>
       <c r="AP180">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ180">
         <v>1.38</v>
@@ -38714,7 +38723,7 @@
         <v>1.17</v>
       </c>
       <c r="AP181">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ181">
         <v>1.04</v>
@@ -38842,7 +38851,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -38920,10 +38929,10 @@
         <v>0.5</v>
       </c>
       <c r="AP182">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ182">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR182">
         <v>1.3</v>
@@ -39332,7 +39341,7 @@
         <v>1.85</v>
       </c>
       <c r="AP184">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ184">
         <v>1.38</v>
@@ -39666,7 +39675,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39744,7 +39753,7 @@
         <v>1.92</v>
       </c>
       <c r="AP186">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ186">
         <v>1.48</v>
@@ -40156,7 +40165,7 @@
         <v>1.62</v>
       </c>
       <c r="AP188">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ188">
         <v>1.52</v>
@@ -40284,7 +40293,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40571,7 +40580,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ190">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR190">
         <v>1.29</v>
@@ -40902,7 +40911,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -40980,7 +40989,7 @@
         <v>1.08</v>
       </c>
       <c r="AP192">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -41108,7 +41117,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41186,10 +41195,10 @@
         <v>1.77</v>
       </c>
       <c r="AP193">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ193">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR193">
         <v>1.23</v>
@@ -41520,7 +41529,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41601,7 +41610,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ195">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR195">
         <v>1.18</v>
@@ -42010,7 +42019,7 @@
         <v>1.57</v>
       </c>
       <c r="AP197">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ197">
         <v>1.31</v>
@@ -42219,7 +42228,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ198">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR198">
         <v>1.44</v>
@@ -42425,7 +42434,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ199">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR199">
         <v>1.17</v>
@@ -43658,10 +43667,10 @@
         <v>1.71</v>
       </c>
       <c r="AP205">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ205">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR205">
         <v>1.35</v>
@@ -43786,7 +43795,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -44073,7 +44082,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ207">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR207">
         <v>1.29</v>
@@ -44198,7 +44207,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44279,7 +44288,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR208">
         <v>1.17</v>
@@ -44688,7 +44697,7 @@
         <v>1.29</v>
       </c>
       <c r="AP210">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ210">
         <v>1.36</v>
@@ -44816,7 +44825,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -45022,7 +45031,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45309,7 +45318,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ213">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR213">
         <v>1.38</v>
@@ -45640,7 +45649,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -45718,7 +45727,7 @@
         <v>1.8</v>
       </c>
       <c r="AP215">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ215">
         <v>1.64</v>
@@ -46052,7 +46061,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46130,7 +46139,7 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ217">
         <v>0.85</v>
@@ -46258,7 +46267,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46336,10 +46345,10 @@
         <v>1.8</v>
       </c>
       <c r="AP218">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ218">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR218">
         <v>1.65</v>
@@ -46876,7 +46885,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -46954,7 +46963,7 @@
         <v>1.27</v>
       </c>
       <c r="AP221">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ221">
         <v>1.44</v>
@@ -47163,7 +47172,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ222">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47572,7 +47581,7 @@
         <v>2.2</v>
       </c>
       <c r="AP224">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ224">
         <v>1.85</v>
@@ -47700,7 +47709,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47781,7 +47790,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR225">
         <v>1.44</v>
@@ -47906,7 +47915,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -48193,7 +48202,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ227">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR227">
         <v>1.33</v>
@@ -48318,7 +48327,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48396,10 +48405,10 @@
         <v>1.27</v>
       </c>
       <c r="AP228">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ228">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR228">
         <v>1.48</v>
@@ -49220,7 +49229,7 @@
         <v>1.5</v>
       </c>
       <c r="AP232">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ232">
         <v>1.36</v>
@@ -49429,7 +49438,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ233">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR233">
         <v>1.3</v>
@@ -49760,7 +49769,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49966,7 +49975,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50044,7 +50053,7 @@
         <v>1.25</v>
       </c>
       <c r="AP236">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ236">
         <v>1.36</v>
@@ -50253,7 +50262,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ237">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR237">
         <v>1.27</v>
@@ -50378,7 +50387,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50584,7 +50593,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50662,7 +50671,7 @@
         <v>1.06</v>
       </c>
       <c r="AP239">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ239">
         <v>1.16</v>
@@ -51077,7 +51086,7 @@
         <v>1</v>
       </c>
       <c r="AQ241">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR241">
         <v>1.2</v>
@@ -51280,7 +51289,7 @@
         <v>1.18</v>
       </c>
       <c r="AP242">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ242">
         <v>1.36</v>
@@ -51408,7 +51417,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51692,7 +51701,7 @@
         <v>2.12</v>
       </c>
       <c r="AP244">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ244">
         <v>1.85</v>
@@ -51820,7 +51829,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -51898,7 +51907,7 @@
         <v>0.88</v>
       </c>
       <c r="AP245">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ245">
         <v>1.19</v>
@@ -52026,7 +52035,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52438,7 +52447,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52725,7 +52734,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ249">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR249">
         <v>1.48</v>
@@ -52928,10 +52937,10 @@
         <v>1</v>
       </c>
       <c r="AP250">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ250">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR250">
         <v>1.27</v>
@@ -53056,7 +53065,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53340,7 +53349,7 @@
         <v>1.18</v>
       </c>
       <c r="AP252">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ252">
         <v>1</v>
@@ -53961,7 +53970,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ255">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR255">
         <v>1.28</v>
@@ -54167,7 +54176,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ256">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR256">
         <v>1.32</v>
@@ -54579,7 +54588,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ258">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR258">
         <v>1.14</v>
@@ -55116,7 +55125,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55400,10 +55409,10 @@
         <v>1.56</v>
       </c>
       <c r="AP262">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ262">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR262">
         <v>1.27</v>
@@ -56018,7 +56027,7 @@
         <v>1.33</v>
       </c>
       <c r="AP265">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ265">
         <v>1.24</v>
@@ -56146,7 +56155,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56224,7 +56233,7 @@
         <v>1.5</v>
       </c>
       <c r="AP266">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ266">
         <v>1.5</v>
@@ -56433,7 +56442,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ267">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR267">
         <v>1.28</v>
@@ -56970,7 +56979,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57048,7 +57057,7 @@
         <v>0.68</v>
       </c>
       <c r="AP270">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ270">
         <v>0.85</v>
@@ -57176,7 +57185,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57254,7 +57263,7 @@
         <v>1.53</v>
       </c>
       <c r="AP271">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ271">
         <v>1.48</v>
@@ -57460,7 +57469,7 @@
         <v>1.11</v>
       </c>
       <c r="AP272">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ272">
         <v>1.16</v>
@@ -57669,7 +57678,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ273">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR273">
         <v>1.28</v>
@@ -58000,7 +58009,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58287,7 +58296,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ276">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR276">
         <v>1.2</v>
@@ -58490,10 +58499,10 @@
         <v>1.11</v>
       </c>
       <c r="AP277">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ277">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR277">
         <v>1.61</v>
@@ -58618,7 +58627,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -59108,7 +59117,7 @@
         <v>1.53</v>
       </c>
       <c r="AP280">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ280">
         <v>1.38</v>
@@ -59648,7 +59657,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59729,7 +59738,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ283">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR283">
         <v>1.09</v>
@@ -60138,10 +60147,10 @@
         <v>1.15</v>
       </c>
       <c r="AP285">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ285">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR285">
         <v>1.45</v>
@@ -60472,7 +60481,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60678,7 +60687,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60759,7 +60768,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ288">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR288">
         <v>1.15</v>
@@ -60884,7 +60893,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -60962,7 +60971,7 @@
         <v>1.3</v>
       </c>
       <c r="AP289">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ289">
         <v>1.36</v>
@@ -61090,7 +61099,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61171,7 +61180,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ290">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR290">
         <v>1.25</v>
@@ -61296,7 +61305,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61377,7 +61386,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ291">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR291">
         <v>1.32</v>
@@ -61502,7 +61511,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61580,7 +61589,7 @@
         <v>1.15</v>
       </c>
       <c r="AP292">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ292">
         <v>1.35</v>
@@ -61708,7 +61717,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -62610,7 +62619,7 @@
         <v>1</v>
       </c>
       <c r="AP297">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ297">
         <v>1</v>
@@ -62738,7 +62747,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -62816,7 +62825,7 @@
         <v>1.19</v>
       </c>
       <c r="AP298">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ298">
         <v>1.16</v>
@@ -63228,7 +63237,7 @@
         <v>1.38</v>
       </c>
       <c r="AP300">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AQ300">
         <v>1.36</v>
@@ -63434,7 +63443,7 @@
         <v>0.76</v>
       </c>
       <c r="AP301">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ301">
         <v>0.85</v>
@@ -63562,7 +63571,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63640,10 +63649,10 @@
         <v>1.57</v>
       </c>
       <c r="AP302">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ302">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR302">
         <v>1.23</v>
@@ -63768,7 +63777,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63846,7 +63855,7 @@
         <v>1.19</v>
       </c>
       <c r="AP303">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ303">
         <v>1.36</v>
@@ -63974,7 +63983,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64180,7 +64189,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64592,7 +64601,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64879,7 +64888,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ308">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR308">
         <v>1.46</v>
@@ -65210,7 +65219,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65291,7 +65300,7 @@
         <v>1.16</v>
       </c>
       <c r="AQ310">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR310">
         <v>1.26</v>
@@ -65494,7 +65503,7 @@
         <v>1.18</v>
       </c>
       <c r="AP311">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ311">
         <v>1.24</v>
@@ -65622,7 +65631,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -65909,7 +65918,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ313">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR313">
         <v>1.2</v>
@@ -66240,7 +66249,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66446,7 +66455,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66527,7 +66536,7 @@
         <v>1</v>
       </c>
       <c r="AQ316">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR316">
         <v>1.37</v>
@@ -66858,7 +66867,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -66939,7 +66948,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ318">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR318">
         <v>1.49</v>
@@ -67554,7 +67563,7 @@
         <v>1</v>
       </c>
       <c r="AP321">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ321">
         <v>1</v>
@@ -67763,7 +67772,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ322">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR322">
         <v>1.17</v>
@@ -67969,7 +67978,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ323">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR323">
         <v>1.12</v>
@@ -68587,7 +68596,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ326">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AR326">
         <v>1.19</v>
@@ -68790,7 +68799,7 @@
         <v>1.57</v>
       </c>
       <c r="AP327">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AQ327">
         <v>1.48</v>
@@ -68996,7 +69005,7 @@
         <v>1.91</v>
       </c>
       <c r="AP328">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AQ328">
         <v>1.85</v>
@@ -69330,7 +69339,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69408,10 +69417,10 @@
         <v>1.13</v>
       </c>
       <c r="AP330">
+        <v>1.19</v>
+      </c>
+      <c r="AQ330">
         <v>1.12</v>
-      </c>
-      <c r="AQ330">
-        <v>1.16</v>
       </c>
       <c r="AR330">
         <v>1.26</v>
@@ -69536,7 +69545,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69948,7 +69957,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70360,7 +70369,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70441,7 +70450,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ335">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AR335">
         <v>1.37</v>
@@ -70566,7 +70575,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70772,7 +70781,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -70853,7 +70862,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ337">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AR337">
         <v>1.49</v>
@@ -70978,7 +70987,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71056,10 +71065,10 @@
         <v>1.74</v>
       </c>
       <c r="AP338">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ338">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AR338">
         <v>1.24</v>
@@ -71262,7 +71271,7 @@
         <v>1.21</v>
       </c>
       <c r="AP339">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="AQ339">
         <v>1.35</v>
@@ -71596,7 +71605,7 @@
         <v>279</v>
       </c>
       <c r="P341" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -71677,7 +71686,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ341">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AR341">
         <v>1.39</v>
@@ -71883,7 +71892,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ342">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="AR342">
         <v>1.23</v>
@@ -72295,7 +72304,7 @@
         <v>1.52</v>
       </c>
       <c r="AQ344">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AR344">
         <v>1.23</v>
@@ -72910,7 +72919,7 @@
         <v>1.71</v>
       </c>
       <c r="AP347">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AQ347">
         <v>1.64</v>
@@ -73038,7 +73047,7 @@
         <v>282</v>
       </c>
       <c r="P348" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q348">
         <v>4</v>
@@ -73450,7 +73459,7 @@
         <v>283</v>
       </c>
       <c r="P350" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -73528,7 +73537,7 @@
         <v>1.29</v>
       </c>
       <c r="AP350">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="AQ350">
         <v>1.36</v>
@@ -73734,7 +73743,7 @@
         <v>1.17</v>
       </c>
       <c r="AP351">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AQ351">
         <v>1.16</v>
@@ -74373,13 +74382,13 @@
         <v>3</v>
       </c>
       <c r="AW354">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX354">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY354">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ354">
         <v>10</v>
@@ -74576,19 +74585,19 @@
         <v>6</v>
       </c>
       <c r="AV355">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW355">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX355">
         <v>6</v>
       </c>
       <c r="AY355">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ355">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA355">
         <v>5</v>
@@ -74637,6 +74646,830 @@
       </c>
       <c r="BP355">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="356" spans="1:68">
+      <c r="A356" s="1">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>7345454</v>
+      </c>
+      <c r="C356" t="s">
+        <v>68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>69</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45633.88541666666</v>
+      </c>
+      <c r="F356">
+        <v>26</v>
+      </c>
+      <c r="G356" t="s">
+        <v>91</v>
+      </c>
+      <c r="H356" t="s">
+        <v>95</v>
+      </c>
+      <c r="I356">
+        <v>2</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>2</v>
+      </c>
+      <c r="L356">
+        <v>3</v>
+      </c>
+      <c r="M356">
+        <v>1</v>
+      </c>
+      <c r="N356">
+        <v>4</v>
+      </c>
+      <c r="O356" t="s">
+        <v>287</v>
+      </c>
+      <c r="P356" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q356">
+        <v>4.33</v>
+      </c>
+      <c r="R356">
+        <v>1.91</v>
+      </c>
+      <c r="S356">
+        <v>3.1</v>
+      </c>
+      <c r="T356">
+        <v>1.53</v>
+      </c>
+      <c r="U356">
+        <v>2.38</v>
+      </c>
+      <c r="V356">
+        <v>3.5</v>
+      </c>
+      <c r="W356">
+        <v>1.29</v>
+      </c>
+      <c r="X356">
+        <v>11</v>
+      </c>
+      <c r="Y356">
+        <v>1.05</v>
+      </c>
+      <c r="Z356">
+        <v>3.4</v>
+      </c>
+      <c r="AA356">
+        <v>3.2</v>
+      </c>
+      <c r="AB356">
+        <v>2.25</v>
+      </c>
+      <c r="AC356">
+        <v>1.06</v>
+      </c>
+      <c r="AD356">
+        <v>8.09</v>
+      </c>
+      <c r="AE356">
+        <v>1.43</v>
+      </c>
+      <c r="AF356">
+        <v>2.76</v>
+      </c>
+      <c r="AG356">
+        <v>2.4</v>
+      </c>
+      <c r="AH356">
+        <v>1.53</v>
+      </c>
+      <c r="AI356">
+        <v>2.1</v>
+      </c>
+      <c r="AJ356">
+        <v>1.67</v>
+      </c>
+      <c r="AK356">
+        <v>1.85</v>
+      </c>
+      <c r="AL356">
+        <v>1.28</v>
+      </c>
+      <c r="AM356">
+        <v>1.25</v>
+      </c>
+      <c r="AN356">
+        <v>1.12</v>
+      </c>
+      <c r="AO356">
+        <v>1.72</v>
+      </c>
+      <c r="AP356">
+        <v>1.19</v>
+      </c>
+      <c r="AQ356">
+        <v>1.65</v>
+      </c>
+      <c r="AR356">
+        <v>1.25</v>
+      </c>
+      <c r="AS356">
+        <v>1.56</v>
+      </c>
+      <c r="AT356">
+        <v>2.81</v>
+      </c>
+      <c r="AU356">
+        <v>9</v>
+      </c>
+      <c r="AV356">
+        <v>5</v>
+      </c>
+      <c r="AW356">
+        <v>6</v>
+      </c>
+      <c r="AX356">
+        <v>4</v>
+      </c>
+      <c r="AY356">
+        <v>16</v>
+      </c>
+      <c r="AZ356">
+        <v>16</v>
+      </c>
+      <c r="BA356">
+        <v>5</v>
+      </c>
+      <c r="BB356">
+        <v>6</v>
+      </c>
+      <c r="BC356">
+        <v>11</v>
+      </c>
+      <c r="BD356">
+        <v>2.32</v>
+      </c>
+      <c r="BE356">
+        <v>5.65</v>
+      </c>
+      <c r="BF356">
+        <v>1.92</v>
+      </c>
+      <c r="BG356">
+        <v>1.41</v>
+      </c>
+      <c r="BH356">
+        <v>2.65</v>
+      </c>
+      <c r="BI356">
+        <v>1.75</v>
+      </c>
+      <c r="BJ356">
+        <v>1.92</v>
+      </c>
+      <c r="BK356">
+        <v>2.35</v>
+      </c>
+      <c r="BL356">
+        <v>1.5</v>
+      </c>
+      <c r="BM356">
+        <v>3.35</v>
+      </c>
+      <c r="BN356">
+        <v>1.27</v>
+      </c>
+      <c r="BO356">
+        <v>4.33</v>
+      </c>
+      <c r="BP356">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:68">
+      <c r="A357" s="1">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>7345461</v>
+      </c>
+      <c r="C357" t="s">
+        <v>68</v>
+      </c>
+      <c r="D357" t="s">
+        <v>69</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45634.70833333334</v>
+      </c>
+      <c r="F357">
+        <v>26</v>
+      </c>
+      <c r="G357" t="s">
+        <v>74</v>
+      </c>
+      <c r="H357" t="s">
+        <v>90</v>
+      </c>
+      <c r="I357">
+        <v>1</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>4</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>4</v>
+      </c>
+      <c r="O357" t="s">
+        <v>288</v>
+      </c>
+      <c r="P357" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q357">
+        <v>2.63</v>
+      </c>
+      <c r="R357">
+        <v>1.91</v>
+      </c>
+      <c r="S357">
+        <v>5.5</v>
+      </c>
+      <c r="T357">
+        <v>1.62</v>
+      </c>
+      <c r="U357">
+        <v>2.2</v>
+      </c>
+      <c r="V357">
+        <v>4</v>
+      </c>
+      <c r="W357">
+        <v>1.22</v>
+      </c>
+      <c r="X357">
+        <v>13</v>
+      </c>
+      <c r="Y357">
+        <v>1.04</v>
+      </c>
+      <c r="Z357">
+        <v>1.85</v>
+      </c>
+      <c r="AA357">
+        <v>3.2</v>
+      </c>
+      <c r="AB357">
+        <v>4.75</v>
+      </c>
+      <c r="AC357">
+        <v>1.11</v>
+      </c>
+      <c r="AD357">
+        <v>6.28</v>
+      </c>
+      <c r="AE357">
+        <v>1.53</v>
+      </c>
+      <c r="AF357">
+        <v>2.37</v>
+      </c>
+      <c r="AG357">
+        <v>2.7</v>
+      </c>
+      <c r="AH357">
+        <v>1.44</v>
+      </c>
+      <c r="AI357">
+        <v>2.38</v>
+      </c>
+      <c r="AJ357">
+        <v>1.53</v>
+      </c>
+      <c r="AK357">
+        <v>1.22</v>
+      </c>
+      <c r="AL357">
+        <v>1.32</v>
+      </c>
+      <c r="AM357">
+        <v>1.83</v>
+      </c>
+      <c r="AN357">
+        <v>1.16</v>
+      </c>
+      <c r="AO357">
+        <v>0.92</v>
+      </c>
+      <c r="AP357">
+        <v>1.23</v>
+      </c>
+      <c r="AQ357">
+        <v>0.88</v>
+      </c>
+      <c r="AR357">
+        <v>1.22</v>
+      </c>
+      <c r="AS357">
+        <v>1.19</v>
+      </c>
+      <c r="AT357">
+        <v>2.41</v>
+      </c>
+      <c r="AU357">
+        <v>8</v>
+      </c>
+      <c r="AV357">
+        <v>2</v>
+      </c>
+      <c r="AW357">
+        <v>4</v>
+      </c>
+      <c r="AX357">
+        <v>9</v>
+      </c>
+      <c r="AY357">
+        <v>16</v>
+      </c>
+      <c r="AZ357">
+        <v>13</v>
+      </c>
+      <c r="BA357">
+        <v>5</v>
+      </c>
+      <c r="BB357">
+        <v>5</v>
+      </c>
+      <c r="BC357">
+        <v>10</v>
+      </c>
+      <c r="BD357">
+        <v>1.55</v>
+      </c>
+      <c r="BE357">
+        <v>6</v>
+      </c>
+      <c r="BF357">
+        <v>3.1</v>
+      </c>
+      <c r="BG357">
+        <v>1.38</v>
+      </c>
+      <c r="BH357">
+        <v>2.78</v>
+      </c>
+      <c r="BI357">
+        <v>1.7</v>
+      </c>
+      <c r="BJ357">
+        <v>2</v>
+      </c>
+      <c r="BK357">
+        <v>2.22</v>
+      </c>
+      <c r="BL357">
+        <v>1.55</v>
+      </c>
+      <c r="BM357">
+        <v>3.05</v>
+      </c>
+      <c r="BN357">
+        <v>1.31</v>
+      </c>
+      <c r="BO357">
+        <v>4.35</v>
+      </c>
+      <c r="BP357">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:68">
+      <c r="A358" s="1">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>7345465</v>
+      </c>
+      <c r="C358" t="s">
+        <v>68</v>
+      </c>
+      <c r="D358" t="s">
+        <v>69</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45634.70833333334</v>
+      </c>
+      <c r="F358">
+        <v>26</v>
+      </c>
+      <c r="G358" t="s">
+        <v>82</v>
+      </c>
+      <c r="H358" t="s">
+        <v>89</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358" t="s">
+        <v>102</v>
+      </c>
+      <c r="P358" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q358">
+        <v>5.5</v>
+      </c>
+      <c r="R358">
+        <v>1.95</v>
+      </c>
+      <c r="S358">
+        <v>2.63</v>
+      </c>
+      <c r="T358">
+        <v>1.57</v>
+      </c>
+      <c r="U358">
+        <v>2.25</v>
+      </c>
+      <c r="V358">
+        <v>3.75</v>
+      </c>
+      <c r="W358">
+        <v>1.25</v>
+      </c>
+      <c r="X358">
+        <v>13</v>
+      </c>
+      <c r="Y358">
+        <v>1.04</v>
+      </c>
+      <c r="Z358">
+        <v>4.5</v>
+      </c>
+      <c r="AA358">
+        <v>3.2</v>
+      </c>
+      <c r="AB358">
+        <v>1.9</v>
+      </c>
+      <c r="AC358">
+        <v>1.1</v>
+      </c>
+      <c r="AD358">
+        <v>6.6</v>
+      </c>
+      <c r="AE358">
+        <v>1.5</v>
+      </c>
+      <c r="AF358">
+        <v>2.37</v>
+      </c>
+      <c r="AG358">
+        <v>2.5</v>
+      </c>
+      <c r="AH358">
+        <v>1.5</v>
+      </c>
+      <c r="AI358">
+        <v>2.2</v>
+      </c>
+      <c r="AJ358">
+        <v>1.62</v>
+      </c>
+      <c r="AK358">
+        <v>1.65</v>
+      </c>
+      <c r="AL358">
+        <v>1.33</v>
+      </c>
+      <c r="AM358">
+        <v>1.3</v>
+      </c>
+      <c r="AN358">
+        <v>1.28</v>
+      </c>
+      <c r="AO358">
+        <v>1.8</v>
+      </c>
+      <c r="AP358">
+        <v>1.23</v>
+      </c>
+      <c r="AQ358">
+        <v>1.85</v>
+      </c>
+      <c r="AR358">
+        <v>1.41</v>
+      </c>
+      <c r="AS358">
+        <v>1.39</v>
+      </c>
+      <c r="AT358">
+        <v>2.8</v>
+      </c>
+      <c r="AU358">
+        <v>3</v>
+      </c>
+      <c r="AV358">
+        <v>3</v>
+      </c>
+      <c r="AW358">
+        <v>9</v>
+      </c>
+      <c r="AX358">
+        <v>8</v>
+      </c>
+      <c r="AY358">
+        <v>13</v>
+      </c>
+      <c r="AZ358">
+        <v>14</v>
+      </c>
+      <c r="BA358">
+        <v>6</v>
+      </c>
+      <c r="BB358">
+        <v>5</v>
+      </c>
+      <c r="BC358">
+        <v>11</v>
+      </c>
+      <c r="BD358">
+        <v>1.93</v>
+      </c>
+      <c r="BE358">
+        <v>6.5</v>
+      </c>
+      <c r="BF358">
+        <v>2.05</v>
+      </c>
+      <c r="BG358">
+        <v>1.37</v>
+      </c>
+      <c r="BH358">
+        <v>2.8</v>
+      </c>
+      <c r="BI358">
+        <v>1.62</v>
+      </c>
+      <c r="BJ358">
+        <v>2.12</v>
+      </c>
+      <c r="BK358">
+        <v>2</v>
+      </c>
+      <c r="BL358">
+        <v>1.71</v>
+      </c>
+      <c r="BM358">
+        <v>2.55</v>
+      </c>
+      <c r="BN358">
+        <v>1.44</v>
+      </c>
+      <c r="BO358">
+        <v>3.3</v>
+      </c>
+      <c r="BP358">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:68">
+      <c r="A359" s="1">
+        <v>358</v>
+      </c>
+      <c r="B359">
+        <v>7345455</v>
+      </c>
+      <c r="C359" t="s">
+        <v>68</v>
+      </c>
+      <c r="D359" t="s">
+        <v>69</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45634.80208333334</v>
+      </c>
+      <c r="F359">
+        <v>26</v>
+      </c>
+      <c r="G359" t="s">
+        <v>76</v>
+      </c>
+      <c r="H359" t="s">
+        <v>94</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>4</v>
+      </c>
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>4</v>
+      </c>
+      <c r="O359" t="s">
+        <v>289</v>
+      </c>
+      <c r="P359" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q359">
+        <v>1.8</v>
+      </c>
+      <c r="R359">
+        <v>2.4</v>
+      </c>
+      <c r="S359">
+        <v>9</v>
+      </c>
+      <c r="T359">
+        <v>1.53</v>
+      </c>
+      <c r="U359">
+        <v>2.38</v>
+      </c>
+      <c r="V359">
+        <v>3.5</v>
+      </c>
+      <c r="W359">
+        <v>1.29</v>
+      </c>
+      <c r="X359">
+        <v>11</v>
+      </c>
+      <c r="Y359">
+        <v>1.05</v>
+      </c>
+      <c r="Z359">
+        <v>1.3</v>
+      </c>
+      <c r="AA359">
+        <v>5</v>
+      </c>
+      <c r="AB359">
+        <v>10</v>
+      </c>
+      <c r="AC359">
+        <v>1.06</v>
+      </c>
+      <c r="AD359">
+        <v>8.6</v>
+      </c>
+      <c r="AE359">
+        <v>1.39</v>
+      </c>
+      <c r="AF359">
+        <v>2.91</v>
+      </c>
+      <c r="AG359">
+        <v>1.85</v>
+      </c>
+      <c r="AH359">
+        <v>1.95</v>
+      </c>
+      <c r="AI359">
+        <v>2.25</v>
+      </c>
+      <c r="AJ359">
+        <v>1.57</v>
+      </c>
+      <c r="AK359">
+        <v>1.06</v>
+      </c>
+      <c r="AL359">
+        <v>1.18</v>
+      </c>
+      <c r="AM359">
+        <v>2.9</v>
+      </c>
+      <c r="AN359">
+        <v>1.6</v>
+      </c>
+      <c r="AO359">
+        <v>1.16</v>
+      </c>
+      <c r="AP359">
+        <v>1.65</v>
+      </c>
+      <c r="AQ359">
+        <v>1.12</v>
+      </c>
+      <c r="AR359">
+        <v>1.69</v>
+      </c>
+      <c r="AS359">
+        <v>1.23</v>
+      </c>
+      <c r="AT359">
+        <v>2.92</v>
+      </c>
+      <c r="AU359">
+        <v>10</v>
+      </c>
+      <c r="AV359">
+        <v>2</v>
+      </c>
+      <c r="AW359">
+        <v>13</v>
+      </c>
+      <c r="AX359">
+        <v>1</v>
+      </c>
+      <c r="AY359">
+        <v>27</v>
+      </c>
+      <c r="AZ359">
+        <v>3</v>
+      </c>
+      <c r="BA359">
+        <v>6</v>
+      </c>
+      <c r="BB359">
+        <v>2</v>
+      </c>
+      <c r="BC359">
+        <v>8</v>
+      </c>
+      <c r="BD359">
+        <v>1.17</v>
+      </c>
+      <c r="BE359">
+        <v>8.4</v>
+      </c>
+      <c r="BF359">
+        <v>6.6</v>
+      </c>
+      <c r="BG359">
+        <v>1.23</v>
+      </c>
+      <c r="BH359">
+        <v>3.65</v>
+      </c>
+      <c r="BI359">
+        <v>1.47</v>
+      </c>
+      <c r="BJ359">
+        <v>2.45</v>
+      </c>
+      <c r="BK359">
+        <v>2.38</v>
+      </c>
+      <c r="BL359">
+        <v>1.82</v>
+      </c>
+      <c r="BM359">
+        <v>2.45</v>
+      </c>
+      <c r="BN359">
+        <v>1.47</v>
+      </c>
+      <c r="BO359">
+        <v>3.45</v>
+      </c>
+      <c r="BP359">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="383">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -886,6 +886,12 @@
     <t>['45+2', '69', '72', '89']</t>
   </si>
   <si>
+    <t>['17', '88']</t>
+  </si>
+  <si>
+    <t>['14', '75']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1151,6 +1157,12 @@
   </si>
   <si>
     <t>['3', '51', '59', '68', '85']</t>
+  </si>
+  <si>
+    <t>['22', '69']</t>
+  </si>
+  <si>
+    <t>['42', '61']</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP359"/>
+  <dimension ref="A1:BP365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1771,7 +1783,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1977,7 +1989,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2055,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ3">
         <v>1.12</v>
@@ -2261,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ4">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2467,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -2595,7 +2607,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2801,7 +2813,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2879,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.85</v>
@@ -3291,10 +3303,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ9">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3500,7 +3512,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ10">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3625,7 +3637,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3703,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ11">
         <v>1.65</v>
@@ -3831,7 +3843,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3912,7 +3924,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ12">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -4115,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ13">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4733,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16">
         <v>1.23</v>
@@ -4942,7 +4954,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR17">
         <v>2.66</v>
@@ -5273,7 +5285,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5763,10 +5775,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>1.03</v>
@@ -5972,7 +5984,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ22">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6097,7 +6109,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6178,7 +6190,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ23">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR23">
         <v>0.71</v>
@@ -6303,7 +6315,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6384,7 +6396,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ24">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR24">
         <v>0.5600000000000001</v>
@@ -6509,7 +6521,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6587,7 +6599,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ25">
         <v>1.35</v>
@@ -6793,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ26">
         <v>1.31</v>
@@ -6921,7 +6933,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7002,7 +7014,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ27">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR27">
         <v>1.21</v>
@@ -7208,7 +7220,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ28">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7414,7 +7426,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7539,7 +7551,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7745,7 +7757,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7823,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ31">
         <v>1.65</v>
@@ -7951,7 +7963,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8029,7 +8041,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ32">
         <v>1.19</v>
@@ -8238,7 +8250,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ33">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -8441,7 +8453,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ34">
         <v>1.65</v>
@@ -8647,7 +8659,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ35">
         <v>1.19</v>
@@ -8853,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ36">
         <v>1.85</v>
@@ -9059,7 +9071,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -9268,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR38">
         <v>1.44</v>
@@ -9677,7 +9689,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.85</v>
@@ -10089,10 +10101,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR42">
         <v>1.6</v>
@@ -10504,7 +10516,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ44">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -10707,10 +10719,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ45">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -10913,10 +10925,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR46">
         <v>1.2</v>
@@ -11247,7 +11259,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11740,7 +11752,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ50">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR50">
         <v>2.19</v>
@@ -11943,7 +11955,7 @@
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -12149,7 +12161,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
         <v>1.23</v>
@@ -12358,7 +12370,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ53">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR53">
         <v>1.19</v>
@@ -12483,7 +12495,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -12564,7 +12576,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ54">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12767,7 +12779,7 @@
         <v>2.33</v>
       </c>
       <c r="AP55">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ55">
         <v>1.5</v>
@@ -12976,7 +12988,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR56">
         <v>1.36</v>
@@ -13385,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ58">
         <v>1.19</v>
@@ -13513,7 +13525,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13591,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ59">
         <v>0.88</v>
@@ -13719,7 +13731,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14209,10 +14221,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ62">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR62">
         <v>1.21</v>
@@ -14418,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14543,7 +14555,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14621,7 +14633,7 @@
         <v>1.75</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ64">
         <v>1.38</v>
@@ -15033,7 +15045,7 @@
         <v>1.25</v>
       </c>
       <c r="AP66">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ66">
         <v>1.85</v>
@@ -15242,7 +15254,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ67">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR67">
         <v>1.43</v>
@@ -15448,7 +15460,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR68">
         <v>1.68</v>
@@ -15651,10 +15663,10 @@
         <v>1.75</v>
       </c>
       <c r="AP69">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ69">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR69">
         <v>1.39</v>
@@ -15857,7 +15869,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ70">
         <v>1.19</v>
@@ -15985,7 +15997,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16063,10 +16075,10 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ71">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR71">
         <v>1.59</v>
@@ -16269,7 +16281,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ72">
         <v>1.23</v>
@@ -16478,7 +16490,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
         <v>1.12</v>
@@ -16684,7 +16696,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR74">
         <v>1.52</v>
@@ -16809,7 +16821,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -16887,7 +16899,7 @@
         <v>1.2</v>
       </c>
       <c r="AP75">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ75">
         <v>1.31</v>
@@ -17015,7 +17027,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17221,7 +17233,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17299,10 +17311,10 @@
         <v>2.6</v>
       </c>
       <c r="AP77">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ77">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR77">
         <v>1.44</v>
@@ -17633,7 +17645,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17714,7 +17726,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ79">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17839,7 +17851,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18123,7 +18135,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -18251,7 +18263,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18332,7 +18344,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ82">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
         <v>0.98</v>
@@ -18663,7 +18675,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -18744,7 +18756,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ84">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR84">
         <v>1.27</v>
@@ -18950,7 +18962,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ85">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -19156,7 +19168,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ86">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -19359,10 +19371,10 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ87">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR87">
         <v>1.43</v>
@@ -19565,7 +19577,7 @@
         <v>0.67</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>0.85</v>
@@ -20105,7 +20117,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20389,10 +20401,10 @@
         <v>1.33</v>
       </c>
       <c r="AP92">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20517,7 +20529,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20595,7 +20607,7 @@
         <v>1.33</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>1.85</v>
@@ -20723,7 +20735,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20804,7 +20816,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ94">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR94">
         <v>1.5</v>
@@ -21007,7 +21019,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ95">
         <v>1.38</v>
@@ -21213,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
         <v>1.19</v>
@@ -21419,10 +21431,10 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR97">
         <v>1.13</v>
@@ -21625,10 +21637,10 @@
         <v>1.43</v>
       </c>
       <c r="AP98">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR98">
         <v>1.38</v>
@@ -21834,7 +21846,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ99">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR99">
         <v>1.36</v>
@@ -22243,7 +22255,7 @@
         <v>1.43</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ101">
         <v>1.23</v>
@@ -22371,7 +22383,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -22864,7 +22876,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR104">
         <v>1.17</v>
@@ -23070,7 +23082,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ105">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -23195,7 +23207,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23276,7 +23288,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ106">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23401,7 +23413,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23479,7 +23491,7 @@
         <v>1.29</v>
       </c>
       <c r="AP107">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ107">
         <v>1.31</v>
@@ -23607,7 +23619,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23891,7 +23903,7 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ109">
         <v>1.35</v>
@@ -24097,7 +24109,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ110">
         <v>1.23</v>
@@ -24509,7 +24521,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
         <v>0.88</v>
@@ -24637,7 +24649,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24715,10 +24727,10 @@
         <v>1.5</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ113">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -25130,7 +25142,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ115">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR115">
         <v>1.24</v>
@@ -25255,7 +25267,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -25539,10 +25551,10 @@
         <v>0.86</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR117">
         <v>1.13</v>
@@ -25745,7 +25757,7 @@
         <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ118">
         <v>1.65</v>
@@ -26160,7 +26172,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR120">
         <v>1.12</v>
@@ -26363,7 +26375,7 @@
         <v>0.63</v>
       </c>
       <c r="AP121">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ121">
         <v>0.85</v>
@@ -26491,7 +26503,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26572,7 +26584,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ122">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR122">
         <v>1.39</v>
@@ -26697,7 +26709,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26775,10 +26787,10 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR123">
         <v>1.54</v>
@@ -27393,7 +27405,7 @@
         <v>0.75</v>
       </c>
       <c r="AP126">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>0.88</v>
@@ -27599,7 +27611,7 @@
         <v>1.22</v>
       </c>
       <c r="AP127">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27933,7 +27945,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28139,7 +28151,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28217,7 +28229,7 @@
         <v>2</v>
       </c>
       <c r="AP130">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ130">
         <v>1.5</v>
@@ -28345,7 +28357,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28629,10 +28641,10 @@
         <v>1.78</v>
       </c>
       <c r="AP132">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ132">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28838,7 +28850,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR133">
         <v>1.24</v>
@@ -29041,10 +29053,10 @@
         <v>1.44</v>
       </c>
       <c r="AP134">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ134">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR134">
         <v>1.12</v>
@@ -29250,7 +29262,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ135">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR135">
         <v>1.88</v>
@@ -29456,7 +29468,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29787,7 +29799,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -29993,7 +30005,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30071,10 +30083,10 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ139">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR139">
         <v>1.68</v>
@@ -30199,7 +30211,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30277,7 +30289,7 @@
         <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ140">
         <v>1.23</v>
@@ -30483,7 +30495,7 @@
         <v>0.7</v>
       </c>
       <c r="AP141">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
         <v>0.85</v>
@@ -30689,7 +30701,7 @@
         <v>1.7</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ142">
         <v>1.65</v>
@@ -31101,7 +31113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP144">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ144">
         <v>1.12</v>
@@ -31229,7 +31241,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31722,7 +31734,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ147">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR147">
         <v>1.36</v>
@@ -31847,7 +31859,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -31925,10 +31937,10 @@
         <v>0.78</v>
       </c>
       <c r="AP148">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ148">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR148">
         <v>1.18</v>
@@ -32131,10 +32143,10 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ149">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32340,7 +32352,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR150">
         <v>1.11</v>
@@ -32543,10 +32555,10 @@
         <v>1.6</v>
       </c>
       <c r="AP151">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ151">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR151">
         <v>1.25</v>
@@ -32752,7 +32764,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32877,7 +32889,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33289,7 +33301,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33367,10 +33379,10 @@
         <v>1.09</v>
       </c>
       <c r="AP155">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR155">
         <v>1.09</v>
@@ -33495,7 +33507,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33779,10 +33791,10 @@
         <v>2.09</v>
       </c>
       <c r="AP157">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ157">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR157">
         <v>1.57</v>
@@ -34113,7 +34125,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34191,7 +34203,7 @@
         <v>2</v>
       </c>
       <c r="AP159">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ159">
         <v>1.5</v>
@@ -34397,7 +34409,7 @@
         <v>1.82</v>
       </c>
       <c r="AP160">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ160">
         <v>1.85</v>
@@ -34812,7 +34824,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR162">
         <v>1.54</v>
@@ -35018,7 +35030,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ163">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR163">
         <v>1.73</v>
@@ -35349,7 +35361,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35636,7 +35648,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ166">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35761,7 +35773,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -35839,7 +35851,7 @@
         <v>1.27</v>
       </c>
       <c r="AP167">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ167">
         <v>1.23</v>
@@ -36045,10 +36057,10 @@
         <v>1.55</v>
       </c>
       <c r="AP168">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ168">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR168">
         <v>1.58</v>
@@ -36869,10 +36881,10 @@
         <v>1.33</v>
       </c>
       <c r="AP172">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ172">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR172">
         <v>1.29</v>
@@ -37078,7 +37090,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ173">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR173">
         <v>1.28</v>
@@ -37284,7 +37296,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ174">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR174">
         <v>1.37</v>
@@ -37409,7 +37421,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37487,7 +37499,7 @@
         <v>1.5</v>
       </c>
       <c r="AP175">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ175">
         <v>1.12</v>
@@ -37615,7 +37627,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37693,10 +37705,10 @@
         <v>1.08</v>
       </c>
       <c r="AP176">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ176">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR176">
         <v>1.25</v>
@@ -37821,7 +37833,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37899,10 +37911,10 @@
         <v>0.91</v>
       </c>
       <c r="AP177">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ177">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR177">
         <v>1.31</v>
@@ -38105,7 +38117,7 @@
         <v>1.42</v>
       </c>
       <c r="AP178">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ178">
         <v>1.65</v>
@@ -38311,7 +38323,7 @@
         <v>1.75</v>
       </c>
       <c r="AP179">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ179">
         <v>1.65</v>
@@ -38439,7 +38451,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38726,7 +38738,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ181">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38851,7 +38863,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -39138,7 +39150,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ183">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39675,7 +39687,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39756,7 +39768,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ186">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR186">
         <v>1.65</v>
@@ -39959,7 +39971,7 @@
         <v>2.08</v>
       </c>
       <c r="AP187">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ187">
         <v>1.85</v>
@@ -40168,7 +40180,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ188">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR188">
         <v>1.6</v>
@@ -40293,7 +40305,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40371,10 +40383,10 @@
         <v>1.23</v>
       </c>
       <c r="AP189">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ189">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.17</v>
@@ -40577,7 +40589,7 @@
         <v>1.54</v>
       </c>
       <c r="AP190">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ190">
         <v>1.23</v>
@@ -40783,10 +40795,10 @@
         <v>1.15</v>
       </c>
       <c r="AP191">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ191">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR191">
         <v>1.53</v>
@@ -40911,7 +40923,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41117,7 +41129,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41401,10 +41413,10 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR194">
         <v>1.51</v>
@@ -41529,7 +41541,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41813,7 +41825,7 @@
         <v>0.85</v>
       </c>
       <c r="AP196">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ196">
         <v>1.19</v>
@@ -42431,7 +42443,7 @@
         <v>1.5</v>
       </c>
       <c r="AP199">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ199">
         <v>1.65</v>
@@ -42843,10 +42855,10 @@
         <v>1.21</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ201">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR201">
         <v>1.29</v>
@@ -43052,7 +43064,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ202">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR202">
         <v>1.28</v>
@@ -43255,10 +43267,10 @@
         <v>1.21</v>
       </c>
       <c r="AP203">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43461,7 +43473,7 @@
         <v>1.36</v>
       </c>
       <c r="AP204">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ204">
         <v>1.35</v>
@@ -43795,7 +43807,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -43873,10 +43885,10 @@
         <v>1.29</v>
       </c>
       <c r="AP206">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ206">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR206">
         <v>1.41</v>
@@ -44079,7 +44091,7 @@
         <v>1.36</v>
       </c>
       <c r="AP207">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ207">
         <v>1.12</v>
@@ -44207,7 +44219,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44494,7 +44506,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ209">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR209">
         <v>1.33</v>
@@ -44700,7 +44712,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ210">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR210">
         <v>1.31</v>
@@ -44825,7 +44837,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -44906,7 +44918,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR211">
         <v>1.24</v>
@@ -45031,7 +45043,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45109,7 +45121,7 @@
         <v>1.6</v>
       </c>
       <c r="AP212">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ212">
         <v>1.38</v>
@@ -45315,7 +45327,7 @@
         <v>1.13</v>
       </c>
       <c r="AP213">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ213">
         <v>0.88</v>
@@ -45521,7 +45533,7 @@
         <v>0.8</v>
       </c>
       <c r="AP214">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ214">
         <v>1.19</v>
@@ -45649,7 +45661,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -45730,7 +45742,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ215">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR215">
         <v>1.24</v>
@@ -45933,10 +45945,10 @@
         <v>1.4</v>
       </c>
       <c r="AP216">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ216">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR216">
         <v>1.21</v>
@@ -46061,7 +46073,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46267,7 +46279,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46757,10 +46769,10 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ220">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR220">
         <v>1.45</v>
@@ -46885,7 +46897,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -46966,7 +46978,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ221">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR221">
         <v>1.56</v>
@@ -47375,10 +47387,10 @@
         <v>1.2</v>
       </c>
       <c r="AP223">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ223">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR223">
         <v>1.31</v>
@@ -47709,7 +47721,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47915,7 +47927,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -47993,7 +48005,7 @@
         <v>1.13</v>
       </c>
       <c r="AP226">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ226">
         <v>1</v>
@@ -48327,7 +48339,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48611,7 +48623,7 @@
         <v>1.25</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ229">
         <v>1.35</v>
@@ -48820,7 +48832,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ230">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR230">
         <v>1.3</v>
@@ -49023,7 +49035,7 @@
         <v>1.5</v>
       </c>
       <c r="AP231">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ231">
         <v>1.31</v>
@@ -49232,7 +49244,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ232">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR232">
         <v>1.31</v>
@@ -49435,7 +49447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP233">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ233">
         <v>1.65</v>
@@ -49641,10 +49653,10 @@
         <v>1.19</v>
       </c>
       <c r="AP234">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ234">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49769,7 +49781,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49850,7 +49862,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ235">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR235">
         <v>1.14</v>
@@ -49975,7 +49987,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50056,7 +50068,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ236">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -50387,7 +50399,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50465,10 +50477,10 @@
         <v>1.13</v>
       </c>
       <c r="AP238">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ238">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR238">
         <v>1.41</v>
@@ -50593,7 +50605,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50674,7 +50686,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ239">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR239">
         <v>1.23</v>
@@ -50880,7 +50892,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ240">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR240">
         <v>1.22</v>
@@ -51292,7 +51304,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ242">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR242">
         <v>1.26</v>
@@ -51417,7 +51429,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51498,7 +51510,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ243">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR243">
         <v>1.43</v>
@@ -51829,7 +51841,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52035,7 +52047,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52113,10 +52125,10 @@
         <v>1.24</v>
       </c>
       <c r="AP246">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ246">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR246">
         <v>1.21</v>
@@ -52319,10 +52331,10 @@
         <v>1.41</v>
       </c>
       <c r="AP247">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ247">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR247">
         <v>1.28</v>
@@ -52447,7 +52459,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52528,7 +52540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ248">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR248">
         <v>1.44</v>
@@ -52731,7 +52743,7 @@
         <v>1.82</v>
       </c>
       <c r="AP249">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ249">
         <v>1.85</v>
@@ -53065,7 +53077,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53143,7 +53155,7 @@
         <v>1.65</v>
       </c>
       <c r="AP251">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ251">
         <v>1.38</v>
@@ -53352,7 +53364,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ252">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR252">
         <v>1.2</v>
@@ -53555,7 +53567,7 @@
         <v>0.71</v>
       </c>
       <c r="AP253">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ253">
         <v>0.85</v>
@@ -53764,7 +53776,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ254">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR254">
         <v>1.13</v>
@@ -54379,7 +54391,7 @@
         <v>1.11</v>
       </c>
       <c r="AP257">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ257">
         <v>1</v>
@@ -54585,7 +54597,7 @@
         <v>1.44</v>
       </c>
       <c r="AP258">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ258">
         <v>1.23</v>
@@ -54794,7 +54806,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ259">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR259">
         <v>1.34</v>
@@ -54997,10 +55009,10 @@
         <v>1.17</v>
       </c>
       <c r="AP260">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ260">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR260">
         <v>1.12</v>
@@ -55125,7 +55137,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55203,10 +55215,10 @@
         <v>1.22</v>
       </c>
       <c r="AP261">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ261">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR261">
         <v>1.23</v>
@@ -55615,7 +55627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP263">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ263">
         <v>1.31</v>
@@ -55821,7 +55833,7 @@
         <v>1.11</v>
       </c>
       <c r="AP264">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ264">
         <v>1.35</v>
@@ -56030,7 +56042,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ265">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR265">
         <v>1.34</v>
@@ -56155,7 +56167,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56439,7 +56451,7 @@
         <v>1.22</v>
       </c>
       <c r="AP267">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ267">
         <v>1.19</v>
@@ -56645,10 +56657,10 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ268">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR268">
         <v>1.54</v>
@@ -56854,7 +56866,7 @@
         <v>1</v>
       </c>
       <c r="AQ269">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR269">
         <v>1.18</v>
@@ -56979,7 +56991,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57185,7 +57197,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57266,7 +57278,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ271">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR271">
         <v>1.2</v>
@@ -57472,7 +57484,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ272">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR272">
         <v>1.28</v>
@@ -57675,7 +57687,7 @@
         <v>1.26</v>
       </c>
       <c r="AP273">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ273">
         <v>1.23</v>
@@ -57884,7 +57896,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ274">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR274">
         <v>1.46</v>
@@ -58009,7 +58021,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58087,7 +58099,7 @@
         <v>2</v>
       </c>
       <c r="AP275">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ275">
         <v>1.85</v>
@@ -58627,7 +58639,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -58705,7 +58717,7 @@
         <v>0.84</v>
       </c>
       <c r="AP278">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ278">
         <v>1.19</v>
@@ -58911,10 +58923,10 @@
         <v>1.42</v>
       </c>
       <c r="AP279">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ279">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR279">
         <v>1.28</v>
@@ -59326,7 +59338,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ281">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR281">
         <v>1.38</v>
@@ -59529,7 +59541,7 @@
         <v>1.1</v>
       </c>
       <c r="AP282">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59657,7 +59669,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59735,7 +59747,7 @@
         <v>1.2</v>
       </c>
       <c r="AP283">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ283">
         <v>1.12</v>
@@ -59941,10 +59953,10 @@
         <v>1.4</v>
       </c>
       <c r="AP284">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ284">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR284">
         <v>1.29</v>
@@ -60353,7 +60365,7 @@
         <v>1.65</v>
       </c>
       <c r="AP286">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ286">
         <v>1.5</v>
@@ -60481,7 +60493,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60559,10 +60571,10 @@
         <v>1.7</v>
       </c>
       <c r="AP287">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ287">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR287">
         <v>1.36</v>
@@ -60687,7 +60699,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60893,7 +60905,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -60974,7 +60986,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ289">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR289">
         <v>1.24</v>
@@ -61099,7 +61111,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61177,7 +61189,7 @@
         <v>1.4</v>
       </c>
       <c r="AP290">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ290">
         <v>1.23</v>
@@ -61305,7 +61317,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61511,7 +61523,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61717,7 +61729,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -61798,7 +61810,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ293">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR293">
         <v>1.33</v>
@@ -62001,7 +62013,7 @@
         <v>1.45</v>
       </c>
       <c r="AP294">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ294">
         <v>1.31</v>
@@ -62210,7 +62222,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ295">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR295">
         <v>1.39</v>
@@ -62416,7 +62428,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ296">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR296">
         <v>1.4</v>
@@ -62622,7 +62634,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ297">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR297">
         <v>1.43</v>
@@ -62747,7 +62759,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -62828,7 +62840,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ298">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR298">
         <v>1.25</v>
@@ -63031,10 +63043,10 @@
         <v>1.43</v>
       </c>
       <c r="AP299">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ299">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR299">
         <v>1.25</v>
@@ -63240,7 +63252,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ300">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR300">
         <v>1.26</v>
@@ -63571,7 +63583,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63777,7 +63789,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63858,7 +63870,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ303">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR303">
         <v>1.51</v>
@@ -63983,7 +63995,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64064,7 +64076,7 @@
         <v>1</v>
       </c>
       <c r="AQ304">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR304">
         <v>1.15</v>
@@ -64189,7 +64201,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64476,7 +64488,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ306">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR306">
         <v>1.39</v>
@@ -64601,7 +64613,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64679,7 +64691,7 @@
         <v>1.05</v>
       </c>
       <c r="AP307">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ307">
         <v>1.19</v>
@@ -64885,7 +64897,7 @@
         <v>1.05</v>
       </c>
       <c r="AP308">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ308">
         <v>0.88</v>
@@ -65091,7 +65103,7 @@
         <v>1.38</v>
       </c>
       <c r="AP309">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ309">
         <v>1.38</v>
@@ -65219,7 +65231,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65297,7 +65309,7 @@
         <v>1.68</v>
       </c>
       <c r="AP310">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ310">
         <v>1.65</v>
@@ -65506,7 +65518,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ311">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR311">
         <v>1.21</v>
@@ -65631,7 +65643,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -65915,7 +65927,7 @@
         <v>1.27</v>
       </c>
       <c r="AP313">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ313">
         <v>1.23</v>
@@ -66124,7 +66136,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ314">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR314">
         <v>1.3</v>
@@ -66249,7 +66261,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66327,10 +66339,10 @@
         <v>1.82</v>
       </c>
       <c r="AP315">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ315">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR315">
         <v>1.46</v>
@@ -66455,7 +66467,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66533,7 +66545,7 @@
         <v>1.14</v>
       </c>
       <c r="AP316">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ316">
         <v>1.19</v>
@@ -66867,7 +66879,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -66945,7 +66957,7 @@
         <v>1.14</v>
       </c>
       <c r="AP318">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ318">
         <v>1.12</v>
@@ -67151,7 +67163,7 @@
         <v>1.64</v>
       </c>
       <c r="AP319">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ319">
         <v>1.5</v>
@@ -67360,7 +67372,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ320">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR320">
         <v>1.13</v>
@@ -67769,7 +67781,7 @@
         <v>1.32</v>
       </c>
       <c r="AP322">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ322">
         <v>1.23</v>
@@ -67975,7 +67987,7 @@
         <v>1.64</v>
       </c>
       <c r="AP323">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ323">
         <v>1.65</v>
@@ -68181,7 +68193,7 @@
         <v>1.39</v>
       </c>
       <c r="AP324">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AQ324">
         <v>1.38</v>
@@ -68387,10 +68399,10 @@
         <v>1.48</v>
       </c>
       <c r="AP325">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AQ325">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AR325">
         <v>1.23</v>
@@ -68802,7 +68814,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ327">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AR327">
         <v>1.41</v>
@@ -69339,7 +69351,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69545,7 +69557,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69623,10 +69635,10 @@
         <v>1.22</v>
       </c>
       <c r="AP331">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ331">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AR331">
         <v>1.2</v>
@@ -69829,7 +69841,7 @@
         <v>0.74</v>
       </c>
       <c r="AP332">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AQ332">
         <v>0.85</v>
@@ -69957,7 +69969,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70035,10 +70047,10 @@
         <v>1.43</v>
       </c>
       <c r="AP333">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AQ333">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AR333">
         <v>1.37</v>
@@ -70244,7 +70256,7 @@
         <v>1</v>
       </c>
       <c r="AQ334">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AR334">
         <v>1.12</v>
@@ -70369,7 +70381,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70575,7 +70587,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70653,10 +70665,10 @@
         <v>1.29</v>
       </c>
       <c r="AP336">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AQ336">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR336">
         <v>1.25</v>
@@ -70781,7 +70793,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -70859,7 +70871,7 @@
         <v>1.57</v>
       </c>
       <c r="AP337">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AQ337">
         <v>1.65</v>
@@ -70987,7 +70999,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71605,7 +71617,7 @@
         <v>279</v>
       </c>
       <c r="P341" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -71889,7 +71901,7 @@
         <v>1.17</v>
       </c>
       <c r="AP342">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ342">
         <v>1.19</v>
@@ -72301,7 +72313,7 @@
         <v>1.33</v>
       </c>
       <c r="AP344">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AQ344">
         <v>1.23</v>
@@ -72510,7 +72522,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ345">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AR345">
         <v>1.13</v>
@@ -72713,7 +72725,7 @@
         <v>1.5</v>
       </c>
       <c r="AP346">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AQ346">
         <v>1.5</v>
@@ -72922,7 +72934,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ347">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="AR347">
         <v>1.37</v>
@@ -73047,7 +73059,7 @@
         <v>282</v>
       </c>
       <c r="P348" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q348">
         <v>4</v>
@@ -73125,10 +73137,10 @@
         <v>1.08</v>
       </c>
       <c r="AP348">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AQ348">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AR348">
         <v>1.18</v>
@@ -73331,10 +73343,10 @@
         <v>1</v>
       </c>
       <c r="AP349">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AQ349">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AR349">
         <v>1.47</v>
@@ -73459,7 +73471,7 @@
         <v>283</v>
       </c>
       <c r="P350" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -73540,7 +73552,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ350">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AR350">
         <v>1.52</v>
@@ -73746,7 +73758,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ351">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AR351">
         <v>1.68</v>
@@ -74997,19 +75009,19 @@
         <v>8</v>
       </c>
       <c r="AV357">
+        <v>3</v>
+      </c>
+      <c r="AW357">
         <v>2</v>
       </c>
-      <c r="AW357">
-        <v>4</v>
-      </c>
       <c r="AX357">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY357">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ357">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA357">
         <v>5</v>
@@ -75206,16 +75218,16 @@
         <v>3</v>
       </c>
       <c r="AW358">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX358">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY358">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ358">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA358">
         <v>6</v>
@@ -75412,13 +75424,13 @@
         <v>2</v>
       </c>
       <c r="AW359">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX359">
         <v>1</v>
       </c>
       <c r="AY359">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ359">
         <v>3</v>
@@ -75470,6 +75482,1242 @@
       </c>
       <c r="BP359">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="360" spans="1:68">
+      <c r="A360" s="1">
+        <v>359</v>
+      </c>
+      <c r="B360">
+        <v>7345466</v>
+      </c>
+      <c r="C360" t="s">
+        <v>68</v>
+      </c>
+      <c r="D360" t="s">
+        <v>69</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45634.875</v>
+      </c>
+      <c r="F360">
+        <v>26</v>
+      </c>
+      <c r="G360" t="s">
+        <v>72</v>
+      </c>
+      <c r="H360" t="s">
+        <v>97</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>0</v>
+      </c>
+      <c r="M360">
+        <v>1</v>
+      </c>
+      <c r="N360">
+        <v>1</v>
+      </c>
+      <c r="O360" t="s">
+        <v>102</v>
+      </c>
+      <c r="P360" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q360">
+        <v>4.75</v>
+      </c>
+      <c r="R360">
+        <v>1.95</v>
+      </c>
+      <c r="S360">
+        <v>2.75</v>
+      </c>
+      <c r="T360">
+        <v>1.57</v>
+      </c>
+      <c r="U360">
+        <v>2.25</v>
+      </c>
+      <c r="V360">
+        <v>3.75</v>
+      </c>
+      <c r="W360">
+        <v>1.25</v>
+      </c>
+      <c r="X360">
+        <v>13</v>
+      </c>
+      <c r="Y360">
+        <v>1.04</v>
+      </c>
+      <c r="Z360">
+        <v>4.1</v>
+      </c>
+      <c r="AA360">
+        <v>3.2</v>
+      </c>
+      <c r="AB360">
+        <v>2</v>
+      </c>
+      <c r="AC360">
+        <v>1.09</v>
+      </c>
+      <c r="AD360">
+        <v>7.02</v>
+      </c>
+      <c r="AE360">
+        <v>1.49</v>
+      </c>
+      <c r="AF360">
+        <v>2.4</v>
+      </c>
+      <c r="AG360">
+        <v>2.4</v>
+      </c>
+      <c r="AH360">
+        <v>1.53</v>
+      </c>
+      <c r="AI360">
+        <v>2.1</v>
+      </c>
+      <c r="AJ360">
+        <v>1.67</v>
+      </c>
+      <c r="AK360">
+        <v>1.72</v>
+      </c>
+      <c r="AL360">
+        <v>1.32</v>
+      </c>
+      <c r="AM360">
+        <v>1.28</v>
+      </c>
+      <c r="AN360">
+        <v>1</v>
+      </c>
+      <c r="AO360">
+        <v>1.52</v>
+      </c>
+      <c r="AP360">
+        <v>0.96</v>
+      </c>
+      <c r="AQ360">
+        <v>1.58</v>
+      </c>
+      <c r="AR360">
+        <v>1.36</v>
+      </c>
+      <c r="AS360">
+        <v>1.25</v>
+      </c>
+      <c r="AT360">
+        <v>2.61</v>
+      </c>
+      <c r="AU360">
+        <v>3</v>
+      </c>
+      <c r="AV360">
+        <v>4</v>
+      </c>
+      <c r="AW360">
+        <v>11</v>
+      </c>
+      <c r="AX360">
+        <v>5</v>
+      </c>
+      <c r="AY360">
+        <v>22</v>
+      </c>
+      <c r="AZ360">
+        <v>10</v>
+      </c>
+      <c r="BA360">
+        <v>4</v>
+      </c>
+      <c r="BB360">
+        <v>3</v>
+      </c>
+      <c r="BC360">
+        <v>7</v>
+      </c>
+      <c r="BD360">
+        <v>2.32</v>
+      </c>
+      <c r="BE360">
+        <v>6.6</v>
+      </c>
+      <c r="BF360">
+        <v>1.82</v>
+      </c>
+      <c r="BG360">
+        <v>1.35</v>
+      </c>
+      <c r="BH360">
+        <v>2.88</v>
+      </c>
+      <c r="BI360">
+        <v>1.68</v>
+      </c>
+      <c r="BJ360">
+        <v>2.05</v>
+      </c>
+      <c r="BK360">
+        <v>2.2</v>
+      </c>
+      <c r="BL360">
+        <v>1.58</v>
+      </c>
+      <c r="BM360">
+        <v>3.05</v>
+      </c>
+      <c r="BN360">
+        <v>1.31</v>
+      </c>
+      <c r="BO360">
+        <v>4.35</v>
+      </c>
+      <c r="BP360">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:68">
+      <c r="A361" s="1">
+        <v>360</v>
+      </c>
+      <c r="B361">
+        <v>7345458</v>
+      </c>
+      <c r="C361" t="s">
+        <v>68</v>
+      </c>
+      <c r="D361" t="s">
+        <v>69</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45635.70833333334</v>
+      </c>
+      <c r="F361">
+        <v>26</v>
+      </c>
+      <c r="G361" t="s">
+        <v>77</v>
+      </c>
+      <c r="H361" t="s">
+        <v>84</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>1</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>0</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
+        <v>2</v>
+      </c>
+      <c r="O361" t="s">
+        <v>102</v>
+      </c>
+      <c r="P361" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q361">
+        <v>3</v>
+      </c>
+      <c r="R361">
+        <v>1.91</v>
+      </c>
+      <c r="S361">
+        <v>4.5</v>
+      </c>
+      <c r="T361">
+        <v>1.62</v>
+      </c>
+      <c r="U361">
+        <v>2.2</v>
+      </c>
+      <c r="V361">
+        <v>4</v>
+      </c>
+      <c r="W361">
+        <v>1.22</v>
+      </c>
+      <c r="X361">
+        <v>13</v>
+      </c>
+      <c r="Y361">
+        <v>1.04</v>
+      </c>
+      <c r="Z361">
+        <v>2.1</v>
+      </c>
+      <c r="AA361">
+        <v>3.1</v>
+      </c>
+      <c r="AB361">
+        <v>3.75</v>
+      </c>
+      <c r="AC361">
+        <v>1.09</v>
+      </c>
+      <c r="AD361">
+        <v>6.83</v>
+      </c>
+      <c r="AE361">
+        <v>1.52</v>
+      </c>
+      <c r="AF361">
+        <v>2.35</v>
+      </c>
+      <c r="AG361">
+        <v>2.7</v>
+      </c>
+      <c r="AH361">
+        <v>1.44</v>
+      </c>
+      <c r="AI361">
+        <v>2.2</v>
+      </c>
+      <c r="AJ361">
+        <v>1.62</v>
+      </c>
+      <c r="AK361">
+        <v>1.26</v>
+      </c>
+      <c r="AL361">
+        <v>1.32</v>
+      </c>
+      <c r="AM361">
+        <v>1.75</v>
+      </c>
+      <c r="AN361">
+        <v>1.24</v>
+      </c>
+      <c r="AO361">
+        <v>1.36</v>
+      </c>
+      <c r="AP361">
+        <v>1.19</v>
+      </c>
+      <c r="AQ361">
+        <v>1.42</v>
+      </c>
+      <c r="AR361">
+        <v>1.27</v>
+      </c>
+      <c r="AS361">
+        <v>1.18</v>
+      </c>
+      <c r="AT361">
+        <v>2.45</v>
+      </c>
+      <c r="AU361">
+        <v>4</v>
+      </c>
+      <c r="AV361">
+        <v>5</v>
+      </c>
+      <c r="AW361">
+        <v>6</v>
+      </c>
+      <c r="AX361">
+        <v>6</v>
+      </c>
+      <c r="AY361">
+        <v>16</v>
+      </c>
+      <c r="AZ361">
+        <v>15</v>
+      </c>
+      <c r="BA361">
+        <v>5</v>
+      </c>
+      <c r="BB361">
+        <v>6</v>
+      </c>
+      <c r="BC361">
+        <v>11</v>
+      </c>
+      <c r="BD361">
+        <v>1.52</v>
+      </c>
+      <c r="BE361">
+        <v>6.9</v>
+      </c>
+      <c r="BF361">
+        <v>3</v>
+      </c>
+      <c r="BG361">
+        <v>1.57</v>
+      </c>
+      <c r="BH361">
+        <v>2.23</v>
+      </c>
+      <c r="BI361">
+        <v>1.98</v>
+      </c>
+      <c r="BJ361">
+        <v>1.72</v>
+      </c>
+      <c r="BK361">
+        <v>2.55</v>
+      </c>
+      <c r="BL361">
+        <v>1.44</v>
+      </c>
+      <c r="BM361">
+        <v>3.4</v>
+      </c>
+      <c r="BN361">
+        <v>1.26</v>
+      </c>
+      <c r="BO361">
+        <v>4.6</v>
+      </c>
+      <c r="BP361">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="362" spans="1:68">
+      <c r="A362" s="1">
+        <v>361</v>
+      </c>
+      <c r="B362">
+        <v>7345456</v>
+      </c>
+      <c r="C362" t="s">
+        <v>68</v>
+      </c>
+      <c r="D362" t="s">
+        <v>69</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45635.80208333334</v>
+      </c>
+      <c r="F362">
+        <v>26</v>
+      </c>
+      <c r="G362" t="s">
+        <v>79</v>
+      </c>
+      <c r="H362" t="s">
+        <v>93</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362">
+        <v>1</v>
+      </c>
+      <c r="K362">
+        <v>2</v>
+      </c>
+      <c r="L362">
+        <v>2</v>
+      </c>
+      <c r="M362">
+        <v>2</v>
+      </c>
+      <c r="N362">
+        <v>4</v>
+      </c>
+      <c r="O362" t="s">
+        <v>290</v>
+      </c>
+      <c r="P362" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q362">
+        <v>3.75</v>
+      </c>
+      <c r="R362">
+        <v>1.95</v>
+      </c>
+      <c r="S362">
+        <v>3.25</v>
+      </c>
+      <c r="T362">
+        <v>1.53</v>
+      </c>
+      <c r="U362">
+        <v>2.38</v>
+      </c>
+      <c r="V362">
+        <v>3.5</v>
+      </c>
+      <c r="W362">
+        <v>1.29</v>
+      </c>
+      <c r="X362">
+        <v>11</v>
+      </c>
+      <c r="Y362">
+        <v>1.05</v>
+      </c>
+      <c r="Z362">
+        <v>3.1</v>
+      </c>
+      <c r="AA362">
+        <v>3</v>
+      </c>
+      <c r="AB362">
+        <v>2.5</v>
+      </c>
+      <c r="AC362">
+        <v>1.08</v>
+      </c>
+      <c r="AD362">
+        <v>7.29</v>
+      </c>
+      <c r="AE362">
+        <v>1.45</v>
+      </c>
+      <c r="AF362">
+        <v>2.69</v>
+      </c>
+      <c r="AG362">
+        <v>2.35</v>
+      </c>
+      <c r="AH362">
+        <v>1.57</v>
+      </c>
+      <c r="AI362">
+        <v>2</v>
+      </c>
+      <c r="AJ362">
+        <v>1.75</v>
+      </c>
+      <c r="AK362">
+        <v>1.48</v>
+      </c>
+      <c r="AL362">
+        <v>1.32</v>
+      </c>
+      <c r="AM362">
+        <v>1.48</v>
+      </c>
+      <c r="AN362">
+        <v>1.36</v>
+      </c>
+      <c r="AO362">
+        <v>1.36</v>
+      </c>
+      <c r="AP362">
+        <v>1.35</v>
+      </c>
+      <c r="AQ362">
+        <v>1.35</v>
+      </c>
+      <c r="AR362">
+        <v>1.23</v>
+      </c>
+      <c r="AS362">
+        <v>1.51</v>
+      </c>
+      <c r="AT362">
+        <v>2.74</v>
+      </c>
+      <c r="AU362">
+        <v>7</v>
+      </c>
+      <c r="AV362">
+        <v>6</v>
+      </c>
+      <c r="AW362">
+        <v>4</v>
+      </c>
+      <c r="AX362">
+        <v>4</v>
+      </c>
+      <c r="AY362">
+        <v>15</v>
+      </c>
+      <c r="AZ362">
+        <v>11</v>
+      </c>
+      <c r="BA362">
+        <v>9</v>
+      </c>
+      <c r="BB362">
+        <v>3</v>
+      </c>
+      <c r="BC362">
+        <v>12</v>
+      </c>
+      <c r="BD362">
+        <v>1.98</v>
+      </c>
+      <c r="BE362">
+        <v>6.4</v>
+      </c>
+      <c r="BF362">
+        <v>2.02</v>
+      </c>
+      <c r="BG362">
+        <v>1.3</v>
+      </c>
+      <c r="BH362">
+        <v>3.15</v>
+      </c>
+      <c r="BI362">
+        <v>1.52</v>
+      </c>
+      <c r="BJ362">
+        <v>2.33</v>
+      </c>
+      <c r="BK362">
+        <v>1.86</v>
+      </c>
+      <c r="BL362">
+        <v>1.82</v>
+      </c>
+      <c r="BM362">
+        <v>2.33</v>
+      </c>
+      <c r="BN362">
+        <v>1.52</v>
+      </c>
+      <c r="BO362">
+        <v>3.05</v>
+      </c>
+      <c r="BP362">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="363" spans="1:68">
+      <c r="A363" s="1">
+        <v>362</v>
+      </c>
+      <c r="B363">
+        <v>7345457</v>
+      </c>
+      <c r="C363" t="s">
+        <v>68</v>
+      </c>
+      <c r="D363" t="s">
+        <v>69</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45635.80208333334</v>
+      </c>
+      <c r="F363">
+        <v>26</v>
+      </c>
+      <c r="G363" t="s">
+        <v>71</v>
+      </c>
+      <c r="H363" t="s">
+        <v>92</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363" t="s">
+        <v>105</v>
+      </c>
+      <c r="P363" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q363">
+        <v>2.75</v>
+      </c>
+      <c r="R363">
+        <v>1.83</v>
+      </c>
+      <c r="S363">
+        <v>5.5</v>
+      </c>
+      <c r="T363">
+        <v>1.62</v>
+      </c>
+      <c r="U363">
+        <v>2.2</v>
+      </c>
+      <c r="V363">
+        <v>4</v>
+      </c>
+      <c r="W363">
+        <v>1.22</v>
+      </c>
+      <c r="X363">
+        <v>13</v>
+      </c>
+      <c r="Y363">
+        <v>1.04</v>
+      </c>
+      <c r="Z363">
+        <v>1.95</v>
+      </c>
+      <c r="AA363">
+        <v>3.1</v>
+      </c>
+      <c r="AB363">
+        <v>4.75</v>
+      </c>
+      <c r="AC363">
+        <v>1.12</v>
+      </c>
+      <c r="AD363">
+        <v>5.87</v>
+      </c>
+      <c r="AE363">
+        <v>1.53</v>
+      </c>
+      <c r="AF363">
+        <v>2.3</v>
+      </c>
+      <c r="AG363">
+        <v>3.1</v>
+      </c>
+      <c r="AH363">
+        <v>1.36</v>
+      </c>
+      <c r="AI363">
+        <v>2.5</v>
+      </c>
+      <c r="AJ363">
+        <v>1.5</v>
+      </c>
+      <c r="AK363">
+        <v>1.24</v>
+      </c>
+      <c r="AL363">
+        <v>1.33</v>
+      </c>
+      <c r="AM363">
+        <v>1.78</v>
+      </c>
+      <c r="AN363">
+        <v>1.04</v>
+      </c>
+      <c r="AO363">
+        <v>1.16</v>
+      </c>
+      <c r="AP363">
+        <v>1.12</v>
+      </c>
+      <c r="AQ363">
+        <v>1.12</v>
+      </c>
+      <c r="AR363">
+        <v>1.45</v>
+      </c>
+      <c r="AS363">
+        <v>1.27</v>
+      </c>
+      <c r="AT363">
+        <v>2.72</v>
+      </c>
+      <c r="AU363">
+        <v>3</v>
+      </c>
+      <c r="AV363">
+        <v>3</v>
+      </c>
+      <c r="AW363">
+        <v>4</v>
+      </c>
+      <c r="AX363">
+        <v>11</v>
+      </c>
+      <c r="AY363">
+        <v>8</v>
+      </c>
+      <c r="AZ363">
+        <v>16</v>
+      </c>
+      <c r="BA363">
+        <v>4</v>
+      </c>
+      <c r="BB363">
+        <v>2</v>
+      </c>
+      <c r="BC363">
+        <v>6</v>
+      </c>
+      <c r="BD363">
+        <v>1.48</v>
+      </c>
+      <c r="BE363">
+        <v>6.75</v>
+      </c>
+      <c r="BF363">
+        <v>3.05</v>
+      </c>
+      <c r="BG363">
+        <v>1.44</v>
+      </c>
+      <c r="BH363">
+        <v>2.55</v>
+      </c>
+      <c r="BI363">
+        <v>1.72</v>
+      </c>
+      <c r="BJ363">
+        <v>1.97</v>
+      </c>
+      <c r="BK363">
+        <v>2.17</v>
+      </c>
+      <c r="BL363">
+        <v>1.6</v>
+      </c>
+      <c r="BM363">
+        <v>2.8</v>
+      </c>
+      <c r="BN363">
+        <v>1.37</v>
+      </c>
+      <c r="BO363">
+        <v>3.65</v>
+      </c>
+      <c r="BP363">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:68">
+      <c r="A364" s="1">
+        <v>363</v>
+      </c>
+      <c r="B364">
+        <v>7345467</v>
+      </c>
+      <c r="C364" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" t="s">
+        <v>69</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45635.89583333334</v>
+      </c>
+      <c r="F364">
+        <v>26</v>
+      </c>
+      <c r="G364" t="s">
+        <v>75</v>
+      </c>
+      <c r="H364" t="s">
+        <v>81</v>
+      </c>
+      <c r="I364">
+        <v>1</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>1</v>
+      </c>
+      <c r="L364">
+        <v>2</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364">
+        <v>3</v>
+      </c>
+      <c r="O364" t="s">
+        <v>291</v>
+      </c>
+      <c r="P364" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q364">
+        <v>2.5</v>
+      </c>
+      <c r="R364">
+        <v>1.95</v>
+      </c>
+      <c r="S364">
+        <v>6</v>
+      </c>
+      <c r="T364">
+        <v>1.57</v>
+      </c>
+      <c r="U364">
+        <v>2.25</v>
+      </c>
+      <c r="V364">
+        <v>3.75</v>
+      </c>
+      <c r="W364">
+        <v>1.25</v>
+      </c>
+      <c r="X364">
+        <v>13</v>
+      </c>
+      <c r="Y364">
+        <v>1.04</v>
+      </c>
+      <c r="Z364">
+        <v>1.8</v>
+      </c>
+      <c r="AA364">
+        <v>3.3</v>
+      </c>
+      <c r="AB364">
+        <v>5.25</v>
+      </c>
+      <c r="AC364">
+        <v>1.09</v>
+      </c>
+      <c r="AD364">
+        <v>6.71</v>
+      </c>
+      <c r="AE364">
+        <v>1.51</v>
+      </c>
+      <c r="AF364">
+        <v>2.35</v>
+      </c>
+      <c r="AG364">
+        <v>2.5</v>
+      </c>
+      <c r="AH364">
+        <v>1.5</v>
+      </c>
+      <c r="AI364">
+        <v>2.25</v>
+      </c>
+      <c r="AJ364">
+        <v>1.57</v>
+      </c>
+      <c r="AK364">
+        <v>1.25</v>
+      </c>
+      <c r="AL364">
+        <v>1.32</v>
+      </c>
+      <c r="AM364">
+        <v>1.78</v>
+      </c>
+      <c r="AN364">
+        <v>1.44</v>
+      </c>
+      <c r="AO364">
+        <v>1.48</v>
+      </c>
+      <c r="AP364">
+        <v>1.5</v>
+      </c>
+      <c r="AQ364">
+        <v>1.42</v>
+      </c>
+      <c r="AR364">
+        <v>1.25</v>
+      </c>
+      <c r="AS364">
+        <v>1.46</v>
+      </c>
+      <c r="AT364">
+        <v>2.71</v>
+      </c>
+      <c r="AU364">
+        <v>10</v>
+      </c>
+      <c r="AV364">
+        <v>4</v>
+      </c>
+      <c r="AW364">
+        <v>8</v>
+      </c>
+      <c r="AX364">
+        <v>3</v>
+      </c>
+      <c r="AY364">
+        <v>22</v>
+      </c>
+      <c r="AZ364">
+        <v>7</v>
+      </c>
+      <c r="BA364">
+        <v>10</v>
+      </c>
+      <c r="BB364">
+        <v>4</v>
+      </c>
+      <c r="BC364">
+        <v>14</v>
+      </c>
+      <c r="BD364">
+        <v>1.5</v>
+      </c>
+      <c r="BE364">
+        <v>6.75</v>
+      </c>
+      <c r="BF364">
+        <v>2.85</v>
+      </c>
+      <c r="BG364">
+        <v>1.4</v>
+      </c>
+      <c r="BH364">
+        <v>2.7</v>
+      </c>
+      <c r="BI364">
+        <v>1.66</v>
+      </c>
+      <c r="BJ364">
+        <v>2.07</v>
+      </c>
+      <c r="BK364">
+        <v>2.04</v>
+      </c>
+      <c r="BL364">
+        <v>1.67</v>
+      </c>
+      <c r="BM364">
+        <v>2.63</v>
+      </c>
+      <c r="BN364">
+        <v>1.42</v>
+      </c>
+      <c r="BO364">
+        <v>3.4</v>
+      </c>
+      <c r="BP364">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="365" spans="1:68">
+      <c r="A365" s="1">
+        <v>364</v>
+      </c>
+      <c r="B365">
+        <v>7345464</v>
+      </c>
+      <c r="C365" t="s">
+        <v>68</v>
+      </c>
+      <c r="D365" t="s">
+        <v>69</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45635.89583333334</v>
+      </c>
+      <c r="F365">
+        <v>26</v>
+      </c>
+      <c r="G365" t="s">
+        <v>73</v>
+      </c>
+      <c r="H365" t="s">
+        <v>88</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365">
+        <v>1</v>
+      </c>
+      <c r="O365" t="s">
+        <v>246</v>
+      </c>
+      <c r="P365" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q365">
+        <v>3.5</v>
+      </c>
+      <c r="R365">
+        <v>1.67</v>
+      </c>
+      <c r="S365">
+        <v>5.5</v>
+      </c>
+      <c r="T365">
+        <v>1.62</v>
+      </c>
+      <c r="U365">
+        <v>2.2</v>
+      </c>
+      <c r="V365">
+        <v>4</v>
+      </c>
+      <c r="W365">
+        <v>1.22</v>
+      </c>
+      <c r="X365">
+        <v>13</v>
+      </c>
+      <c r="Y365">
+        <v>1.04</v>
+      </c>
+      <c r="Z365">
+        <v>2.35</v>
+      </c>
+      <c r="AA365">
+        <v>2.55</v>
+      </c>
+      <c r="AB365">
+        <v>4.2</v>
+      </c>
+      <c r="AC365">
+        <v>1.15</v>
+      </c>
+      <c r="AD365">
+        <v>5.24</v>
+      </c>
+      <c r="AE365">
+        <v>1.55</v>
+      </c>
+      <c r="AF365">
+        <v>2.3</v>
+      </c>
+      <c r="AG365">
+        <v>4.33</v>
+      </c>
+      <c r="AH365">
+        <v>1.2</v>
+      </c>
+      <c r="AI365">
+        <v>3.25</v>
+      </c>
+      <c r="AJ365">
+        <v>1.33</v>
+      </c>
+      <c r="AK365">
+        <v>1.22</v>
+      </c>
+      <c r="AL365">
+        <v>1.36</v>
+      </c>
+      <c r="AM365">
+        <v>1.75</v>
+      </c>
+      <c r="AN365">
+        <v>1.64</v>
+      </c>
+      <c r="AO365">
+        <v>1.44</v>
+      </c>
+      <c r="AP365">
+        <v>1.69</v>
+      </c>
+      <c r="AQ365">
+        <v>1.38</v>
+      </c>
+      <c r="AR365">
+        <v>1.2</v>
+      </c>
+      <c r="AS365">
+        <v>1.22</v>
+      </c>
+      <c r="AT365">
+        <v>2.42</v>
+      </c>
+      <c r="AU365">
+        <v>3</v>
+      </c>
+      <c r="AV365">
+        <v>2</v>
+      </c>
+      <c r="AW365">
+        <v>9</v>
+      </c>
+      <c r="AX365">
+        <v>5</v>
+      </c>
+      <c r="AY365">
+        <v>14</v>
+      </c>
+      <c r="AZ365">
+        <v>11</v>
+      </c>
+      <c r="BA365">
+        <v>4</v>
+      </c>
+      <c r="BB365">
+        <v>3</v>
+      </c>
+      <c r="BC365">
+        <v>7</v>
+      </c>
+      <c r="BD365">
+        <v>1.49</v>
+      </c>
+      <c r="BE365">
+        <v>6.5</v>
+      </c>
+      <c r="BF365">
+        <v>2.9</v>
+      </c>
+      <c r="BG365">
+        <v>1.5</v>
+      </c>
+      <c r="BH365">
+        <v>2.35</v>
+      </c>
+      <c r="BI365">
+        <v>1.85</v>
+      </c>
+      <c r="BJ365">
+        <v>1.83</v>
+      </c>
+      <c r="BK365">
+        <v>2.38</v>
+      </c>
+      <c r="BL365">
+        <v>1.5</v>
+      </c>
+      <c r="BM365">
+        <v>3.15</v>
+      </c>
+      <c r="BN365">
+        <v>1.3</v>
+      </c>
+      <c r="BO365">
+        <v>4.2</v>
+      </c>
+      <c r="BP365">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="387">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -892,6 +892,12 @@
     <t>['14', '75']</t>
   </si>
   <si>
+    <t>['12', '71']</t>
+  </si>
+  <si>
+    <t>['4', '58', '69']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1163,6 +1169,12 @@
   </si>
   <si>
     <t>['42', '61']</t>
+  </si>
+  <si>
+    <t>['7', '48']</t>
+  </si>
+  <si>
+    <t>['7', '47', '60']</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP365"/>
+  <dimension ref="A1:BP367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1783,7 +1795,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -1989,7 +2001,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2067,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ3">
         <v>1.12</v>
@@ -2607,7 +2619,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2813,7 +2825,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3306,7 +3318,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ9">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3637,7 +3649,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3843,7 +3855,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3921,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.42</v>
@@ -5285,7 +5297,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -6109,7 +6121,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6315,7 +6327,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6521,7 +6533,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6602,7 +6614,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ25">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6805,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1.31</v>
@@ -6933,7 +6945,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7220,7 +7232,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ28">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>1.87</v>
@@ -7551,7 +7563,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7757,7 +7769,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7963,7 +7975,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8247,10 +8259,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>2.04</v>
@@ -8453,7 +8465,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>1.65</v>
@@ -10722,7 +10734,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ45">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.18</v>
@@ -11134,7 +11146,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ47">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.29</v>
@@ -11259,7 +11271,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -12161,7 +12173,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.23</v>
@@ -12495,7 +12507,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13397,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ58">
         <v>1.19</v>
@@ -13525,7 +13537,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13731,7 +13743,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14430,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.12</v>
@@ -14555,7 +14567,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14839,7 +14851,7 @@
         <v>2.5</v>
       </c>
       <c r="AP65">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>1.65</v>
@@ -15997,7 +16009,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16075,7 +16087,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ71">
         <v>1.19</v>
@@ -16821,7 +16833,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -17027,7 +17039,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17233,7 +17245,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17645,7 +17657,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17851,7 +17863,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17932,7 +17944,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ80">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.92</v>
@@ -18135,7 +18147,7 @@
         <v>2.6</v>
       </c>
       <c r="AP81">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -18263,7 +18275,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18675,7 +18687,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -18962,7 +18974,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ85">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.12</v>
@@ -20117,7 +20129,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20404,7 +20416,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ92">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.23</v>
@@ -20529,7 +20541,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20735,7 +20747,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -20813,7 +20825,7 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.35</v>
@@ -22255,7 +22267,7 @@
         <v>1.43</v>
       </c>
       <c r="AP101">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>1.23</v>
@@ -22383,7 +22395,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -23207,7 +23219,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23413,7 +23425,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23619,7 +23631,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23903,10 +23915,10 @@
         <v>1.71</v>
       </c>
       <c r="AP109">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ109">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.53</v>
@@ -24649,7 +24661,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -24730,7 +24742,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ113">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR113">
         <v>1.44</v>
@@ -25142,7 +25154,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ115">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR115">
         <v>1.24</v>
@@ -25267,7 +25279,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -26503,7 +26515,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26581,7 +26593,7 @@
         <v>1.13</v>
       </c>
       <c r="AP122">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ122">
         <v>1.19</v>
@@ -26709,7 +26721,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -27611,7 +27623,7 @@
         <v>1.22</v>
       </c>
       <c r="AP127">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27820,7 +27832,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.12</v>
@@ -27945,7 +27957,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28151,7 +28163,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28357,7 +28369,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -29799,7 +29811,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -30005,7 +30017,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30083,7 +30095,7 @@
         <v>0.89</v>
       </c>
       <c r="AP139">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
         <v>1.5</v>
@@ -30211,7 +30223,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30907,7 +30919,7 @@
         <v>0.4</v>
       </c>
       <c r="AP143">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ143">
         <v>1.19</v>
@@ -31241,7 +31253,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31859,7 +31871,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -32146,7 +32158,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ149">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR149">
         <v>1.47</v>
@@ -32764,7 +32776,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ152">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR152">
         <v>1.41</v>
@@ -32889,7 +32901,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33301,7 +33313,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33507,7 +33519,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -33791,7 +33803,7 @@
         <v>2.09</v>
       </c>
       <c r="AP157">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ157">
         <v>1.69</v>
@@ -34125,7 +34137,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -34615,7 +34627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP161">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ161">
         <v>1.23</v>
@@ -35361,7 +35373,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35773,7 +35785,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -36057,7 +36069,7 @@
         <v>1.55</v>
       </c>
       <c r="AP168">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168">
         <v>1.58</v>
@@ -36266,7 +36278,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.13</v>
@@ -37296,7 +37308,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ174">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR174">
         <v>1.37</v>
@@ -37421,7 +37433,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37627,7 +37639,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37833,7 +37845,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38451,7 +38463,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38738,7 +38750,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ181">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR181">
         <v>1.51</v>
@@ -38863,7 +38875,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -39559,7 +39571,7 @@
         <v>1.77</v>
       </c>
       <c r="AP185">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
         <v>1.5</v>
@@ -39687,7 +39699,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -40305,7 +40317,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40795,7 +40807,7 @@
         <v>1.15</v>
       </c>
       <c r="AP191">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ191">
         <v>1.38</v>
@@ -40923,7 +40935,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41129,7 +41141,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41413,7 +41425,7 @@
         <v>1</v>
       </c>
       <c r="AP194">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ194">
         <v>0.96</v>
@@ -41541,7 +41553,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -43270,7 +43282,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ203">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR203">
         <v>1.08</v>
@@ -43476,7 +43488,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ204">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR204">
         <v>1.23</v>
@@ -43807,7 +43819,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -44219,7 +44231,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44506,7 +44518,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ209">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR209">
         <v>1.33</v>
@@ -44837,7 +44849,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -45043,7 +45055,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45533,7 +45545,7 @@
         <v>0.8</v>
       </c>
       <c r="AP214">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ214">
         <v>1.19</v>
@@ -45661,7 +45673,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -46073,7 +46085,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46279,7 +46291,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46769,7 +46781,7 @@
         <v>1.67</v>
       </c>
       <c r="AP220">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ220">
         <v>1.42</v>
@@ -46897,7 +46909,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -47181,7 +47193,7 @@
         <v>1.47</v>
       </c>
       <c r="AP222">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ222">
         <v>1.23</v>
@@ -47721,7 +47733,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47927,7 +47939,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -48339,7 +48351,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -48626,7 +48638,7 @@
         <v>0.96</v>
       </c>
       <c r="AQ229">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR229">
         <v>1.39</v>
@@ -49656,7 +49668,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ234">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR234">
         <v>1.14</v>
@@ -49781,7 +49793,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -49987,7 +49999,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50068,7 +50080,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ236">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR236">
         <v>1.32</v>
@@ -50399,7 +50411,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50605,7 +50617,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -51429,7 +51441,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51507,7 +51519,7 @@
         <v>1.29</v>
       </c>
       <c r="AP243">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ243">
         <v>1.5</v>
@@ -51841,7 +51853,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52047,7 +52059,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52459,7 +52471,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -52743,7 +52755,7 @@
         <v>1.82</v>
       </c>
       <c r="AP249">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ249">
         <v>1.85</v>
@@ -53077,7 +53089,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -53155,7 +53167,7 @@
         <v>1.65</v>
       </c>
       <c r="AP251">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ251">
         <v>1.38</v>
@@ -53776,7 +53788,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ254">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR254">
         <v>1.13</v>
@@ -55137,7 +55149,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55218,7 +55230,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ261">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR261">
         <v>1.23</v>
@@ -55836,7 +55848,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ264">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR264">
         <v>1.47</v>
@@ -56167,7 +56179,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56657,7 +56669,7 @@
         <v>1.21</v>
       </c>
       <c r="AP268">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ268">
         <v>1.42</v>
@@ -56991,7 +57003,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57197,7 +57209,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -58021,7 +58033,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58099,7 +58111,7 @@
         <v>2</v>
       </c>
       <c r="AP275">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ275">
         <v>1.85</v>
@@ -58639,7 +58651,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -59335,7 +59347,7 @@
         <v>1.32</v>
       </c>
       <c r="AP281">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ281">
         <v>1.58</v>
@@ -59669,7 +59681,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -59956,7 +59968,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ284">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR284">
         <v>1.29</v>
@@ -60493,7 +60505,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60699,7 +60711,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60905,7 +60917,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61111,7 +61123,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61317,7 +61329,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61523,7 +61535,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61604,7 +61616,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ292">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR292">
         <v>1.33</v>
@@ -61729,7 +61741,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -61810,7 +61822,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ293">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR293">
         <v>1.33</v>
@@ -62759,7 +62771,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -63252,7 +63264,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ300">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR300">
         <v>1.26</v>
@@ -63583,7 +63595,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63789,7 +63801,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -63995,7 +64007,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64201,7 +64213,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64485,7 +64497,7 @@
         <v>1.38</v>
       </c>
       <c r="AP306">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ306">
         <v>1.38</v>
@@ -64613,7 +64625,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -64897,7 +64909,7 @@
         <v>1.05</v>
       </c>
       <c r="AP308">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ308">
         <v>0.88</v>
@@ -65231,7 +65243,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65643,7 +65655,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -66136,7 +66148,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ314">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR314">
         <v>1.3</v>
@@ -66261,7 +66273,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66467,7 +66479,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66754,7 +66766,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ317">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR317">
         <v>1.41</v>
@@ -66879,7 +66891,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -66957,7 +66969,7 @@
         <v>1.14</v>
       </c>
       <c r="AP318">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ318">
         <v>1.12</v>
@@ -69223,7 +69235,7 @@
         <v>1.13</v>
       </c>
       <c r="AP329">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ329">
         <v>1.19</v>
@@ -69351,7 +69363,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69557,7 +69569,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69841,7 +69853,7 @@
         <v>0.74</v>
       </c>
       <c r="AP332">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ332">
         <v>0.85</v>
@@ -69969,7 +69981,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70381,7 +70393,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70587,7 +70599,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70793,7 +70805,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -70871,7 +70883,7 @@
         <v>1.57</v>
       </c>
       <c r="AP337">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ337">
         <v>1.65</v>
@@ -70999,7 +71011,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71286,7 +71298,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ339">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR339">
         <v>1.2</v>
@@ -71617,7 +71629,7 @@
         <v>279</v>
       </c>
       <c r="P341" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -73059,7 +73071,7 @@
         <v>282</v>
       </c>
       <c r="P348" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q348">
         <v>4</v>
@@ -73140,7 +73152,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ348">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AR348">
         <v>1.18</v>
@@ -73471,7 +73483,7 @@
         <v>283</v>
       </c>
       <c r="P350" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -73552,7 +73564,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ350">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR350">
         <v>1.52</v>
@@ -74373,7 +74385,7 @@
         <v>1.44</v>
       </c>
       <c r="AP354">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AQ354">
         <v>1.38</v>
@@ -75531,7 +75543,7 @@
         <v>102</v>
       </c>
       <c r="P360" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q360">
         <v>4.75</v>
@@ -75737,7 +75749,7 @@
         <v>102</v>
       </c>
       <c r="P361" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -75943,7 +75955,7 @@
         <v>290</v>
       </c>
       <c r="P362" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q362">
         <v>3.75</v>
@@ -76024,7 +76036,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ362">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AR362">
         <v>1.23</v>
@@ -76227,7 +76239,7 @@
         <v>1.16</v>
       </c>
       <c r="AP363">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AQ363">
         <v>1.12</v>
@@ -76718,6 +76730,418 @@
       </c>
       <c r="BP365">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:68">
+      <c r="A366" s="1">
+        <v>365</v>
+      </c>
+      <c r="B366">
+        <v>7345479</v>
+      </c>
+      <c r="C366" t="s">
+        <v>68</v>
+      </c>
+      <c r="D366" t="s">
+        <v>69</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45639.79166666666</v>
+      </c>
+      <c r="F366">
+        <v>27</v>
+      </c>
+      <c r="G366" t="s">
+        <v>93</v>
+      </c>
+      <c r="H366" t="s">
+        <v>71</v>
+      </c>
+      <c r="I366">
+        <v>1</v>
+      </c>
+      <c r="J366">
+        <v>1</v>
+      </c>
+      <c r="K366">
+        <v>2</v>
+      </c>
+      <c r="L366">
+        <v>2</v>
+      </c>
+      <c r="M366">
+        <v>2</v>
+      </c>
+      <c r="N366">
+        <v>4</v>
+      </c>
+      <c r="O366" t="s">
+        <v>292</v>
+      </c>
+      <c r="P366" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q366">
+        <v>3.4</v>
+      </c>
+      <c r="R366">
+        <v>1.95</v>
+      </c>
+      <c r="S366">
+        <v>3.75</v>
+      </c>
+      <c r="T366">
+        <v>1.57</v>
+      </c>
+      <c r="U366">
+        <v>2.25</v>
+      </c>
+      <c r="V366">
+        <v>3.75</v>
+      </c>
+      <c r="W366">
+        <v>1.25</v>
+      </c>
+      <c r="X366">
+        <v>13</v>
+      </c>
+      <c r="Y366">
+        <v>1.04</v>
+      </c>
+      <c r="Z366">
+        <v>2.6</v>
+      </c>
+      <c r="AA366">
+        <v>3.1</v>
+      </c>
+      <c r="AB366">
+        <v>2.9</v>
+      </c>
+      <c r="AC366">
+        <v>1.09</v>
+      </c>
+      <c r="AD366">
+        <v>6.71</v>
+      </c>
+      <c r="AE366">
+        <v>1.5</v>
+      </c>
+      <c r="AF366">
+        <v>2.37</v>
+      </c>
+      <c r="AG366">
+        <v>2.4</v>
+      </c>
+      <c r="AH366">
+        <v>1.53</v>
+      </c>
+      <c r="AI366">
+        <v>2.05</v>
+      </c>
+      <c r="AJ366">
+        <v>1.7</v>
+      </c>
+      <c r="AK366">
+        <v>1.28</v>
+      </c>
+      <c r="AL366">
+        <v>1.32</v>
+      </c>
+      <c r="AM366">
+        <v>1.7</v>
+      </c>
+      <c r="AN366">
+        <v>1.35</v>
+      </c>
+      <c r="AO366">
+        <v>1.12</v>
+      </c>
+      <c r="AP366">
+        <v>1.33</v>
+      </c>
+      <c r="AQ366">
+        <v>1.11</v>
+      </c>
+      <c r="AR366">
+        <v>1.51</v>
+      </c>
+      <c r="AS366">
+        <v>1.43</v>
+      </c>
+      <c r="AT366">
+        <v>2.94</v>
+      </c>
+      <c r="AU366">
+        <v>8</v>
+      </c>
+      <c r="AV366">
+        <v>6</v>
+      </c>
+      <c r="AW366">
+        <v>5</v>
+      </c>
+      <c r="AX366">
+        <v>17</v>
+      </c>
+      <c r="AY366">
+        <v>15</v>
+      </c>
+      <c r="AZ366">
+        <v>28</v>
+      </c>
+      <c r="BA366">
+        <v>1</v>
+      </c>
+      <c r="BB366">
+        <v>10</v>
+      </c>
+      <c r="BC366">
+        <v>11</v>
+      </c>
+      <c r="BD366">
+        <v>1.72</v>
+      </c>
+      <c r="BE366">
+        <v>6.8</v>
+      </c>
+      <c r="BF366">
+        <v>2.48</v>
+      </c>
+      <c r="BG366">
+        <v>1.31</v>
+      </c>
+      <c r="BH366">
+        <v>3.1</v>
+      </c>
+      <c r="BI366">
+        <v>1.6</v>
+      </c>
+      <c r="BJ366">
+        <v>2.18</v>
+      </c>
+      <c r="BK366">
+        <v>2.05</v>
+      </c>
+      <c r="BL366">
+        <v>1.65</v>
+      </c>
+      <c r="BM366">
+        <v>2.78</v>
+      </c>
+      <c r="BN366">
+        <v>1.38</v>
+      </c>
+      <c r="BO366">
+        <v>4.15</v>
+      </c>
+      <c r="BP366">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="367" spans="1:68">
+      <c r="A367" s="1">
+        <v>366</v>
+      </c>
+      <c r="B367">
+        <v>7345476</v>
+      </c>
+      <c r="C367" t="s">
+        <v>68</v>
+      </c>
+      <c r="D367" t="s">
+        <v>69</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45639.79166666666</v>
+      </c>
+      <c r="F367">
+        <v>27</v>
+      </c>
+      <c r="G367" t="s">
+        <v>87</v>
+      </c>
+      <c r="H367" t="s">
+        <v>80</v>
+      </c>
+      <c r="I367">
+        <v>1</v>
+      </c>
+      <c r="J367">
+        <v>1</v>
+      </c>
+      <c r="K367">
+        <v>2</v>
+      </c>
+      <c r="L367">
+        <v>3</v>
+      </c>
+      <c r="M367">
+        <v>3</v>
+      </c>
+      <c r="N367">
+        <v>6</v>
+      </c>
+      <c r="O367" t="s">
+        <v>293</v>
+      </c>
+      <c r="P367" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q367">
+        <v>7.5</v>
+      </c>
+      <c r="R367">
+        <v>2</v>
+      </c>
+      <c r="S367">
+        <v>2.25</v>
+      </c>
+      <c r="T367">
+        <v>1.62</v>
+      </c>
+      <c r="U367">
+        <v>2.2</v>
+      </c>
+      <c r="V367">
+        <v>4</v>
+      </c>
+      <c r="W367">
+        <v>1.22</v>
+      </c>
+      <c r="X367">
+        <v>13</v>
+      </c>
+      <c r="Y367">
+        <v>1.04</v>
+      </c>
+      <c r="Z367">
+        <v>6.5</v>
+      </c>
+      <c r="AA367">
+        <v>3.8</v>
+      </c>
+      <c r="AB367">
+        <v>1.57</v>
+      </c>
+      <c r="AC367">
+        <v>1.1</v>
+      </c>
+      <c r="AD367">
+        <v>6.6</v>
+      </c>
+      <c r="AE367">
+        <v>1.53</v>
+      </c>
+      <c r="AF367">
+        <v>2.37</v>
+      </c>
+      <c r="AG367">
+        <v>2.5</v>
+      </c>
+      <c r="AH367">
+        <v>1.5</v>
+      </c>
+      <c r="AI367">
+        <v>2.63</v>
+      </c>
+      <c r="AJ367">
+        <v>1.44</v>
+      </c>
+      <c r="AK367">
+        <v>1.98</v>
+      </c>
+      <c r="AL367">
+        <v>1.3</v>
+      </c>
+      <c r="AM367">
+        <v>1.19</v>
+      </c>
+      <c r="AN367">
+        <v>0.85</v>
+      </c>
+      <c r="AO367">
+        <v>1.35</v>
+      </c>
+      <c r="AP367">
+        <v>0.85</v>
+      </c>
+      <c r="AQ367">
+        <v>1.33</v>
+      </c>
+      <c r="AR367">
+        <v>1.15</v>
+      </c>
+      <c r="AS367">
+        <v>1.4</v>
+      </c>
+      <c r="AT367">
+        <v>2.55</v>
+      </c>
+      <c r="AU367">
+        <v>8</v>
+      </c>
+      <c r="AV367">
+        <v>5</v>
+      </c>
+      <c r="AW367">
+        <v>4</v>
+      </c>
+      <c r="AX367">
+        <v>7</v>
+      </c>
+      <c r="AY367">
+        <v>12</v>
+      </c>
+      <c r="AZ367">
+        <v>12</v>
+      </c>
+      <c r="BA367">
+        <v>1</v>
+      </c>
+      <c r="BB367">
+        <v>4</v>
+      </c>
+      <c r="BC367">
+        <v>5</v>
+      </c>
+      <c r="BD367">
+        <v>2.32</v>
+      </c>
+      <c r="BE367">
+        <v>6.8</v>
+      </c>
+      <c r="BF367">
+        <v>1.82</v>
+      </c>
+      <c r="BG367">
+        <v>1.25</v>
+      </c>
+      <c r="BH367">
+        <v>3.5</v>
+      </c>
+      <c r="BI367">
+        <v>1.5</v>
+      </c>
+      <c r="BJ367">
+        <v>2.38</v>
+      </c>
+      <c r="BK367">
+        <v>1.9</v>
+      </c>
+      <c r="BL367">
+        <v>1.78</v>
+      </c>
+      <c r="BM367">
+        <v>2.55</v>
+      </c>
+      <c r="BN367">
+        <v>1.45</v>
+      </c>
+      <c r="BO367">
+        <v>3.5</v>
+      </c>
+      <c r="BP367">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -907,6 +907,9 @@
     <t>['30', '41']</t>
   </si>
   <si>
+    <t>['10', '48']</t>
+  </si>
+  <si>
     <t>['40', '55']</t>
   </si>
   <si>
@@ -1551,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP377"/>
+  <dimension ref="A1:BP378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1810,7 +1813,7 @@
         <v>98</v>
       </c>
       <c r="P2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q2">
         <v>4.5</v>
@@ -2016,7 +2019,7 @@
         <v>99</v>
       </c>
       <c r="P3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2634,7 +2637,7 @@
         <v>102</v>
       </c>
       <c r="P6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q6">
         <v>2.3</v>
@@ -2840,7 +2843,7 @@
         <v>103</v>
       </c>
       <c r="P7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3127,7 +3130,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ8">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3664,7 +3667,7 @@
         <v>106</v>
       </c>
       <c r="P11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3870,7 +3873,7 @@
         <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ13">
         <v>1.56</v>
@@ -5312,7 +5315,7 @@
         <v>112</v>
       </c>
       <c r="P19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -6011,7 +6014,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -6136,7 +6139,7 @@
         <v>115</v>
       </c>
       <c r="P23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q23">
         <v>3.4</v>
@@ -6342,7 +6345,7 @@
         <v>116</v>
       </c>
       <c r="P24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6420,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ24">
         <v>1.56</v>
@@ -6548,7 +6551,7 @@
         <v>117</v>
       </c>
       <c r="P25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q25">
         <v>3.5</v>
@@ -6960,7 +6963,7 @@
         <v>119</v>
       </c>
       <c r="P27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q27">
         <v>2.5</v>
@@ -7578,7 +7581,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7784,7 +7787,7 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -7990,7 +7993,7 @@
         <v>122</v>
       </c>
       <c r="P32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q32">
         <v>2.3</v>
@@ -8071,7 +8074,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ32">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR32">
         <v>0.93</v>
@@ -10128,7 +10131,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ42">
         <v>1.44</v>
@@ -10543,7 +10546,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR44">
         <v>1.06</v>
@@ -11286,7 +11289,7 @@
         <v>134</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -11364,7 +11367,7 @@
         <v>2.33</v>
       </c>
       <c r="AP48">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ48">
         <v>1.78</v>
@@ -12522,7 +12525,7 @@
         <v>102</v>
       </c>
       <c r="P54" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -13427,7 +13430,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ58">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR58">
         <v>1.61</v>
@@ -13552,7 +13555,7 @@
         <v>141</v>
       </c>
       <c r="P59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q59">
         <v>2.63</v>
@@ -13758,7 +13761,7 @@
         <v>142</v>
       </c>
       <c r="P60" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q60">
         <v>2.2</v>
@@ -14582,7 +14585,7 @@
         <v>102</v>
       </c>
       <c r="P64" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -15896,7 +15899,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ70">
         <v>1.19</v>
@@ -16024,7 +16027,7 @@
         <v>102</v>
       </c>
       <c r="P71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q71">
         <v>2.6</v>
@@ -16848,7 +16851,7 @@
         <v>153</v>
       </c>
       <c r="P75" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q75">
         <v>2.88</v>
@@ -17054,7 +17057,7 @@
         <v>154</v>
       </c>
       <c r="P76" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q76">
         <v>3.2</v>
@@ -17260,7 +17263,7 @@
         <v>155</v>
       </c>
       <c r="P77" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q77">
         <v>3.4</v>
@@ -17672,7 +17675,7 @@
         <v>157</v>
       </c>
       <c r="P79" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q79">
         <v>3.5</v>
@@ -17753,7 +17756,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ79">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR79">
         <v>1.32</v>
@@ -17878,7 +17881,7 @@
         <v>158</v>
       </c>
       <c r="P80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -18290,7 +18293,7 @@
         <v>102</v>
       </c>
       <c r="P82" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -18368,7 +18371,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ82">
         <v>1.44</v>
@@ -18702,7 +18705,7 @@
         <v>160</v>
       </c>
       <c r="P84" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q84">
         <v>3.6</v>
@@ -20144,7 +20147,7 @@
         <v>163</v>
       </c>
       <c r="P91" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q91">
         <v>4.5</v>
@@ -20556,7 +20559,7 @@
         <v>102</v>
       </c>
       <c r="P93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q93">
         <v>4.75</v>
@@ -20762,7 +20765,7 @@
         <v>164</v>
       </c>
       <c r="P94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q94">
         <v>2.88</v>
@@ -21046,7 +21049,7 @@
         <v>2.17</v>
       </c>
       <c r="AP95">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ95">
         <v>1.33</v>
@@ -21255,7 +21258,7 @@
         <v>1.26</v>
       </c>
       <c r="AQ96">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR96">
         <v>1.17</v>
@@ -22410,7 +22413,7 @@
         <v>169</v>
       </c>
       <c r="P102" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q102">
         <v>2.4</v>
@@ -23109,7 +23112,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ105">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR105">
         <v>1.29</v>
@@ -23234,7 +23237,7 @@
         <v>171</v>
       </c>
       <c r="P106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -23440,7 +23443,7 @@
         <v>172</v>
       </c>
       <c r="P107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q107">
         <v>3.2</v>
@@ -23646,7 +23649,7 @@
         <v>102</v>
       </c>
       <c r="P108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q108">
         <v>5.5</v>
@@ -23724,7 +23727,7 @@
         <v>1.57</v>
       </c>
       <c r="AP108">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ108">
         <v>1.89</v>
@@ -24676,7 +24679,7 @@
         <v>177</v>
       </c>
       <c r="P113" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q113">
         <v>3.5</v>
@@ -25294,7 +25297,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q116">
         <v>3.1</v>
@@ -26530,7 +26533,7 @@
         <v>180</v>
       </c>
       <c r="P122" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26736,7 +26739,7 @@
         <v>181</v>
       </c>
       <c r="P123" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q123">
         <v>2.75</v>
@@ -26814,7 +26817,7 @@
         <v>1.75</v>
       </c>
       <c r="AP123">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ123">
         <v>1.42</v>
@@ -27023,7 +27026,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ124">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR124">
         <v>1.13</v>
@@ -27972,7 +27975,7 @@
         <v>184</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>4.33</v>
@@ -28178,7 +28181,7 @@
         <v>133</v>
       </c>
       <c r="P130" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28384,7 +28387,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>2.2</v>
@@ -28671,7 +28674,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ132">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -29698,7 +29701,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP137">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ137">
         <v>1.19</v>
@@ -29826,7 +29829,7 @@
         <v>188</v>
       </c>
       <c r="P138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q138">
         <v>4.75</v>
@@ -30032,7 +30035,7 @@
         <v>102</v>
       </c>
       <c r="P139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -30238,7 +30241,7 @@
         <v>102</v>
       </c>
       <c r="P140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30937,7 +30940,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ143">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR143">
         <v>1.42</v>
@@ -31268,7 +31271,7 @@
         <v>185</v>
       </c>
       <c r="P145" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q145">
         <v>4.33</v>
@@ -31886,7 +31889,7 @@
         <v>191</v>
       </c>
       <c r="P148" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q148">
         <v>2.6</v>
@@ -32170,7 +32173,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ149">
         <v>1.33</v>
@@ -32916,7 +32919,7 @@
         <v>195</v>
       </c>
       <c r="P153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -33328,7 +33331,7 @@
         <v>102</v>
       </c>
       <c r="P155" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q155">
         <v>3.4</v>
@@ -33534,7 +33537,7 @@
         <v>196</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q156">
         <v>3.1</v>
@@ -34152,7 +34155,7 @@
         <v>198</v>
       </c>
       <c r="P159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q159">
         <v>3.75</v>
@@ -35260,7 +35263,7 @@
         <v>0.91</v>
       </c>
       <c r="AP164">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ164">
         <v>0.89</v>
@@ -35388,7 +35391,7 @@
         <v>102</v>
       </c>
       <c r="P165" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q165">
         <v>5</v>
@@ -35675,7 +35678,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ166">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR166">
         <v>1.17</v>
@@ -35800,7 +35803,7 @@
         <v>102</v>
       </c>
       <c r="P167" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q167">
         <v>3.1</v>
@@ -37448,7 +37451,7 @@
         <v>203</v>
       </c>
       <c r="P175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q175">
         <v>2.6</v>
@@ -37654,7 +37657,7 @@
         <v>102</v>
       </c>
       <c r="P176" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q176">
         <v>2.5</v>
@@ -37860,7 +37863,7 @@
         <v>204</v>
       </c>
       <c r="P177" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -38350,7 +38353,7 @@
         <v>1.75</v>
       </c>
       <c r="AP179">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ179">
         <v>1.7</v>
@@ -38478,7 +38481,7 @@
         <v>175</v>
       </c>
       <c r="P180" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q180">
         <v>4</v>
@@ -38890,7 +38893,7 @@
         <v>205</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>2.6</v>
@@ -38971,7 +38974,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ182">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR182">
         <v>1.3</v>
@@ -39380,7 +39383,7 @@
         <v>1.85</v>
       </c>
       <c r="AP184">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ184">
         <v>1.33</v>
@@ -39714,7 +39717,7 @@
         <v>208</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>2.2</v>
@@ -39795,7 +39798,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ186">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR186">
         <v>1.65</v>
@@ -40332,7 +40335,7 @@
         <v>210</v>
       </c>
       <c r="P189" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q189">
         <v>3.75</v>
@@ -40950,7 +40953,7 @@
         <v>193</v>
       </c>
       <c r="P192" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q192">
         <v>2.5</v>
@@ -41156,7 +41159,7 @@
         <v>212</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41568,7 +41571,7 @@
         <v>102</v>
       </c>
       <c r="P195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -43834,7 +43837,7 @@
         <v>217</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q206">
         <v>2.75</v>
@@ -43912,7 +43915,7 @@
         <v>1.29</v>
       </c>
       <c r="AP206">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ206">
         <v>1.3</v>
@@ -44246,7 +44249,7 @@
         <v>133</v>
       </c>
       <c r="P208" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q208">
         <v>3.5</v>
@@ -44327,7 +44330,7 @@
         <v>1</v>
       </c>
       <c r="AQ208">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR208">
         <v>1.17</v>
@@ -44864,7 +44867,7 @@
         <v>220</v>
       </c>
       <c r="P211" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q211">
         <v>3.6</v>
@@ -45070,7 +45073,7 @@
         <v>221</v>
       </c>
       <c r="P212" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q212">
         <v>4</v>
@@ -45688,7 +45691,7 @@
         <v>224</v>
       </c>
       <c r="P215" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q215">
         <v>3.5</v>
@@ -46100,7 +46103,7 @@
         <v>226</v>
       </c>
       <c r="P217" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q217">
         <v>2.5</v>
@@ -46178,7 +46181,7 @@
         <v>0.73</v>
       </c>
       <c r="AP217">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ217">
         <v>0.85</v>
@@ -46306,7 +46309,7 @@
         <v>102</v>
       </c>
       <c r="P218" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>2.2</v>
@@ -46799,7 +46802,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ220">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR220">
         <v>1.45</v>
@@ -46924,7 +46927,7 @@
         <v>204</v>
       </c>
       <c r="P221" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>2.38</v>
@@ -47748,7 +47751,7 @@
         <v>102</v>
       </c>
       <c r="P225" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q225">
         <v>2.75</v>
@@ -47829,7 +47832,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ225">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR225">
         <v>1.44</v>
@@ -47954,7 +47957,7 @@
         <v>229</v>
       </c>
       <c r="P226" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q226">
         <v>2.63</v>
@@ -48366,7 +48369,7 @@
         <v>102</v>
       </c>
       <c r="P228" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q228">
         <v>2.75</v>
@@ -49808,7 +49811,7 @@
         <v>202</v>
       </c>
       <c r="P235" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q235">
         <v>3.75</v>
@@ -50014,7 +50017,7 @@
         <v>234</v>
       </c>
       <c r="P236" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q236">
         <v>4</v>
@@ -50426,7 +50429,7 @@
         <v>236</v>
       </c>
       <c r="P238" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q238">
         <v>2.75</v>
@@ -50504,7 +50507,7 @@
         <v>1.13</v>
       </c>
       <c r="AP238">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ238">
         <v>1.26</v>
@@ -50632,7 +50635,7 @@
         <v>189</v>
       </c>
       <c r="P239" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q239">
         <v>2.75</v>
@@ -50919,7 +50922,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ240">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR240">
         <v>1.22</v>
@@ -51328,7 +51331,7 @@
         <v>1.18</v>
       </c>
       <c r="AP242">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ242">
         <v>1.42</v>
@@ -51456,7 +51459,7 @@
         <v>102</v>
       </c>
       <c r="P243" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q243">
         <v>3.5</v>
@@ -51868,7 +51871,7 @@
         <v>239</v>
       </c>
       <c r="P245" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q245">
         <v>2.5</v>
@@ -52074,7 +52077,7 @@
         <v>102</v>
       </c>
       <c r="P246" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q246">
         <v>3.4</v>
@@ -52486,7 +52489,7 @@
         <v>102</v>
       </c>
       <c r="P248" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q248">
         <v>3.6</v>
@@ -53104,7 +53107,7 @@
         <v>242</v>
       </c>
       <c r="P251" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q251">
         <v>2.88</v>
@@ -55164,7 +55167,7 @@
         <v>244</v>
       </c>
       <c r="P261" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q261">
         <v>3.6</v>
@@ -55860,7 +55863,7 @@
         <v>1.11</v>
       </c>
       <c r="AP264">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ264">
         <v>1.33</v>
@@ -56194,7 +56197,7 @@
         <v>247</v>
       </c>
       <c r="P266" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q266">
         <v>3.4</v>
@@ -56481,7 +56484,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ267">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR267">
         <v>1.28</v>
@@ -57018,7 +57021,7 @@
         <v>102</v>
       </c>
       <c r="P270" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q270">
         <v>2.2</v>
@@ -57224,7 +57227,7 @@
         <v>249</v>
       </c>
       <c r="P271" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q271">
         <v>3.1</v>
@@ -57305,7 +57308,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ271">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR271">
         <v>1.2</v>
@@ -57508,7 +57511,7 @@
         <v>1.11</v>
       </c>
       <c r="AP272">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ272">
         <v>1.07</v>
@@ -58048,7 +58051,7 @@
         <v>133</v>
       </c>
       <c r="P275" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q275">
         <v>4</v>
@@ -58666,7 +58669,7 @@
         <v>252</v>
       </c>
       <c r="P278" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q278">
         <v>2.88</v>
@@ -59568,7 +59571,7 @@
         <v>1.1</v>
       </c>
       <c r="AP282">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ282">
         <v>1</v>
@@ -59696,7 +59699,7 @@
         <v>255</v>
       </c>
       <c r="P283" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q283">
         <v>4</v>
@@ -60189,7 +60192,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ285">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR285">
         <v>1.45</v>
@@ -60520,7 +60523,7 @@
         <v>257</v>
       </c>
       <c r="P287" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q287">
         <v>4</v>
@@ -60726,7 +60729,7 @@
         <v>102</v>
       </c>
       <c r="P288" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q288">
         <v>6</v>
@@ -60932,7 +60935,7 @@
         <v>111</v>
       </c>
       <c r="P289" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q289">
         <v>3.2</v>
@@ -61138,7 +61141,7 @@
         <v>258</v>
       </c>
       <c r="P290" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q290">
         <v>2.4</v>
@@ -61344,7 +61347,7 @@
         <v>259</v>
       </c>
       <c r="P291" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q291">
         <v>4.33</v>
@@ -61550,7 +61553,7 @@
         <v>260</v>
       </c>
       <c r="P292" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q292">
         <v>2.63</v>
@@ -61756,7 +61759,7 @@
         <v>261</v>
       </c>
       <c r="P293" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q293">
         <v>3.5</v>
@@ -62455,7 +62458,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ296">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR296">
         <v>1.4</v>
@@ -62786,7 +62789,7 @@
         <v>102</v>
       </c>
       <c r="P298" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q298">
         <v>3.25</v>
@@ -63276,7 +63279,7 @@
         <v>1.38</v>
       </c>
       <c r="AP300">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ300">
         <v>1.33</v>
@@ -63610,7 +63613,7 @@
         <v>102</v>
       </c>
       <c r="P302" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q302">
         <v>3.75</v>
@@ -63816,7 +63819,7 @@
         <v>267</v>
       </c>
       <c r="P303" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q303">
         <v>2.05</v>
@@ -64022,7 +64025,7 @@
         <v>102</v>
       </c>
       <c r="P304" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q304">
         <v>5.5</v>
@@ -64228,7 +64231,7 @@
         <v>252</v>
       </c>
       <c r="P305" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q305">
         <v>7</v>
@@ -64640,7 +64643,7 @@
         <v>102</v>
       </c>
       <c r="P307" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q307">
         <v>3</v>
@@ -65258,7 +65261,7 @@
         <v>205</v>
       </c>
       <c r="P310" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q310">
         <v>3.75</v>
@@ -65670,7 +65673,7 @@
         <v>269</v>
       </c>
       <c r="P312" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q312">
         <v>2.63</v>
@@ -66288,7 +66291,7 @@
         <v>271</v>
       </c>
       <c r="P315" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q315">
         <v>3.1</v>
@@ -66366,7 +66369,7 @@
         <v>1.82</v>
       </c>
       <c r="AP315">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ315">
         <v>1.63</v>
@@ -66494,7 +66497,7 @@
         <v>272</v>
       </c>
       <c r="P316" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q316">
         <v>3.2</v>
@@ -66575,7 +66578,7 @@
         <v>1.04</v>
       </c>
       <c r="AQ316">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR316">
         <v>1.37</v>
@@ -66906,7 +66909,7 @@
         <v>107</v>
       </c>
       <c r="P318" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q318">
         <v>2.75</v>
@@ -68841,7 +68844,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ327">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR327">
         <v>1.41</v>
@@ -69378,7 +69381,7 @@
         <v>102</v>
       </c>
       <c r="P330" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q330">
         <v>3.25</v>
@@ -69456,7 +69459,7 @@
         <v>1.13</v>
       </c>
       <c r="AP330">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ330">
         <v>1.19</v>
@@ -69584,7 +69587,7 @@
         <v>102</v>
       </c>
       <c r="P331" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q331">
         <v>2.75</v>
@@ -69996,7 +69999,7 @@
         <v>276</v>
       </c>
       <c r="P333" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q333">
         <v>4.33</v>
@@ -70408,7 +70411,7 @@
         <v>277</v>
       </c>
       <c r="P335" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q335">
         <v>3.75</v>
@@ -70614,7 +70617,7 @@
         <v>102</v>
       </c>
       <c r="P336" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q336">
         <v>3</v>
@@ -70820,7 +70823,7 @@
         <v>264</v>
       </c>
       <c r="P337" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q337">
         <v>4.33</v>
@@ -71026,7 +71029,7 @@
         <v>102</v>
       </c>
       <c r="P338" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q338">
         <v>4</v>
@@ -71644,7 +71647,7 @@
         <v>279</v>
       </c>
       <c r="P341" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q341">
         <v>2.5</v>
@@ -71931,7 +71934,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ342">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR342">
         <v>1.23</v>
@@ -73086,7 +73089,7 @@
         <v>282</v>
       </c>
       <c r="P348" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q348">
         <v>4</v>
@@ -73370,7 +73373,7 @@
         <v>1</v>
       </c>
       <c r="AP349">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AQ349">
         <v>1.04</v>
@@ -73498,7 +73501,7 @@
         <v>283</v>
       </c>
       <c r="P350" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q350">
         <v>2.63</v>
@@ -74812,7 +74815,7 @@
         <v>1.72</v>
       </c>
       <c r="AP356">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AQ356">
         <v>1.7</v>
@@ -75558,7 +75561,7 @@
         <v>102</v>
       </c>
       <c r="P360" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q360">
         <v>4.75</v>
@@ -75764,7 +75767,7 @@
         <v>102</v>
       </c>
       <c r="P361" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q361">
         <v>3</v>
@@ -75970,7 +75973,7 @@
         <v>290</v>
       </c>
       <c r="P362" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q362">
         <v>3.75</v>
@@ -76463,7 +76466,7 @@
         <v>1.48</v>
       </c>
       <c r="AQ364">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AR364">
         <v>1.25</v>
@@ -76794,7 +76797,7 @@
         <v>292</v>
       </c>
       <c r="P366" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q366">
         <v>3.4</v>
@@ -77000,7 +77003,7 @@
         <v>293</v>
       </c>
       <c r="P367" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q367">
         <v>7.5</v>
@@ -77206,7 +77209,7 @@
         <v>102</v>
       </c>
       <c r="P368" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q368">
         <v>2.88</v>
@@ -77412,7 +77415,7 @@
         <v>294</v>
       </c>
       <c r="P369" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q369">
         <v>3.4</v>
@@ -77618,7 +77621,7 @@
         <v>295</v>
       </c>
       <c r="P370" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q370">
         <v>3.1</v>
@@ -77824,7 +77827,7 @@
         <v>150</v>
       </c>
       <c r="P371" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q371">
         <v>3</v>
@@ -78535,22 +78538,22 @@
         <v>2.6</v>
       </c>
       <c r="AU374">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV374">
         <v>0</v>
       </c>
       <c r="AW374">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX374">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY374">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ374">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA374">
         <v>6</v>
@@ -78744,19 +78747,19 @@
         <v>5</v>
       </c>
       <c r="AV375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW375">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX375">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AY375">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ375">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA375">
         <v>6</v>
@@ -78953,13 +78956,13 @@
         <v>0</v>
       </c>
       <c r="AW376">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX376">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY376">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ376">
         <v>5</v>
@@ -79060,7 +79063,7 @@
         <v>252</v>
       </c>
       <c r="P377" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q377">
         <v>1.8</v>
@@ -79153,22 +79156,22 @@
         <v>2.74</v>
       </c>
       <c r="AU377">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV377">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW377">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AX377">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY377">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ377">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA377">
         <v>6</v>
@@ -79217,6 +79220,212 @@
       </c>
       <c r="BP377">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="378" spans="1:68">
+      <c r="A378" s="1">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>7345468</v>
+      </c>
+      <c r="C378" t="s">
+        <v>68</v>
+      </c>
+      <c r="D378" t="s">
+        <v>69</v>
+      </c>
+      <c r="E378" s="2">
+        <v>45642.875</v>
+      </c>
+      <c r="F378">
+        <v>27</v>
+      </c>
+      <c r="G378" t="s">
+        <v>81</v>
+      </c>
+      <c r="H378" t="s">
+        <v>91</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>1</v>
+      </c>
+      <c r="L378">
+        <v>2</v>
+      </c>
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378">
+        <v>2</v>
+      </c>
+      <c r="O378" t="s">
+        <v>297</v>
+      </c>
+      <c r="P378" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q378">
+        <v>2.6</v>
+      </c>
+      <c r="R378">
+        <v>1.95</v>
+      </c>
+      <c r="S378">
+        <v>5.5</v>
+      </c>
+      <c r="T378">
+        <v>1.57</v>
+      </c>
+      <c r="U378">
+        <v>2.25</v>
+      </c>
+      <c r="V378">
+        <v>3.75</v>
+      </c>
+      <c r="W378">
+        <v>1.25</v>
+      </c>
+      <c r="X378">
+        <v>11</v>
+      </c>
+      <c r="Y378">
+        <v>1.05</v>
+      </c>
+      <c r="Z378">
+        <v>1.85</v>
+      </c>
+      <c r="AA378">
+        <v>3.4</v>
+      </c>
+      <c r="AB378">
+        <v>4.75</v>
+      </c>
+      <c r="AC378">
+        <v>1.08</v>
+      </c>
+      <c r="AD378">
+        <v>7.29</v>
+      </c>
+      <c r="AE378">
+        <v>1.46</v>
+      </c>
+      <c r="AF378">
+        <v>2.65</v>
+      </c>
+      <c r="AG378">
+        <v>2.4</v>
+      </c>
+      <c r="AH378">
+        <v>1.53</v>
+      </c>
+      <c r="AI378">
+        <v>2.2</v>
+      </c>
+      <c r="AJ378">
+        <v>1.62</v>
+      </c>
+      <c r="AK378">
+        <v>1.19</v>
+      </c>
+      <c r="AL378">
+        <v>1.28</v>
+      </c>
+      <c r="AM378">
+        <v>2</v>
+      </c>
+      <c r="AN378">
+        <v>1.42</v>
+      </c>
+      <c r="AO378">
+        <v>1.19</v>
+      </c>
+      <c r="AP378">
+        <v>1.48</v>
+      </c>
+      <c r="AQ378">
+        <v>1.15</v>
+      </c>
+      <c r="AR378">
+        <v>1.43</v>
+      </c>
+      <c r="AS378">
+        <v>1.27</v>
+      </c>
+      <c r="AT378">
+        <v>2.7</v>
+      </c>
+      <c r="AU378">
+        <v>5</v>
+      </c>
+      <c r="AV378">
+        <v>0</v>
+      </c>
+      <c r="AW378">
+        <v>8</v>
+      </c>
+      <c r="AX378">
+        <v>8</v>
+      </c>
+      <c r="AY378">
+        <v>13</v>
+      </c>
+      <c r="AZ378">
+        <v>10</v>
+      </c>
+      <c r="BA378">
+        <v>2</v>
+      </c>
+      <c r="BB378">
+        <v>7</v>
+      </c>
+      <c r="BC378">
+        <v>9</v>
+      </c>
+      <c r="BD378">
+        <v>1.5</v>
+      </c>
+      <c r="BE378">
+        <v>6.75</v>
+      </c>
+      <c r="BF378">
+        <v>2.9</v>
+      </c>
+      <c r="BG378">
+        <v>1.41</v>
+      </c>
+      <c r="BH378">
+        <v>2.65</v>
+      </c>
+      <c r="BI378">
+        <v>1.7</v>
+      </c>
+      <c r="BJ378">
+        <v>2</v>
+      </c>
+      <c r="BK378">
+        <v>2.05</v>
+      </c>
+      <c r="BL378">
+        <v>1.7</v>
+      </c>
+      <c r="BM378">
+        <v>2.7</v>
+      </c>
+      <c r="BN378">
+        <v>1.4</v>
+      </c>
+      <c r="BO378">
+        <v>3.55</v>
+      </c>
+      <c r="BP378">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
